--- a/median-income-hhsize-tenure/data/differences.xlsx
+++ b/median-income-hhsize-tenure/data/differences.xlsx
@@ -31,21 +31,21 @@
     <t xml:space="preserve">TABLE_TYPE</t>
   </si>
   <si>
+    <t xml:space="preserve">dif_PRACE</t>
+  </si>
+  <si>
     <t xml:space="preserve">dif_ARACE</t>
   </si>
   <si>
-    <t xml:space="preserve">dif_PRACE</t>
-  </si>
-  <si>
     <t xml:space="preserve">dif_HRACE</t>
   </si>
   <si>
+    <t xml:space="preserve">percdif_PRACE</t>
+  </si>
+  <si>
     <t xml:space="preserve">percdif_ARACE</t>
   </si>
   <si>
-    <t xml:space="preserve">percdif_PRACE</t>
-  </si>
-  <si>
     <t xml:space="preserve">percdif_HRACE</t>
   </si>
   <si>
@@ -58,51 +58,102 @@
     <t xml:space="preserve">detail</t>
   </si>
   <si>
+    <t xml:space="preserve">85.5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">146.4%</t>
   </si>
   <si>
-    <t xml:space="preserve">85.5%</t>
-  </si>
-  <si>
     <t xml:space="preserve">202.7%</t>
   </si>
   <si>
     <t xml:space="preserve">Asian alone</t>
   </si>
   <si>
+    <t xml:space="preserve">52.8%</t>
+  </si>
+  <si>
     <t xml:space="preserve">54.0%</t>
   </si>
   <si>
-    <t xml:space="preserve">52.8%</t>
-  </si>
-  <si>
     <t xml:space="preserve">54.5%</t>
   </si>
   <si>
     <t xml:space="preserve">Black or African American alone</t>
   </si>
   <si>
+    <t xml:space="preserve">97.0%</t>
+  </si>
+  <si>
     <t xml:space="preserve">102.2%</t>
   </si>
   <si>
-    <t xml:space="preserve">97.0%</t>
-  </si>
-  <si>
     <t xml:space="preserve">100.5%</t>
   </si>
   <si>
     <t xml:space="preserve">Hispanic or Latino</t>
   </si>
   <si>
+    <t xml:space="preserve">70.6%</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.5%</t>
   </si>
   <si>
-    <t xml:space="preserve">70.6%</t>
-  </si>
-  <si>
     <t xml:space="preserve">58.4%</t>
   </si>
   <si>
+    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">129.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">135.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Some Other Race alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">124.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two or More Races</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White alone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.6%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Multiracial incl. Asian</t>
   </si>
   <si>
@@ -133,57 +184,6 @@
     <t xml:space="preserve">75.3%</t>
   </si>
   <si>
-    <t xml:space="preserve">Native Hawaiian and Other Pacific Islander alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">129.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">135.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Some Other Race alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">74.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">124.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Two or More Races</t>
-  </si>
-  <si>
-    <t xml:space="preserve">97.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">White alone</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.6%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Total Multirace</t>
   </si>
   <si>
@@ -205,12 +205,12 @@
     <t xml:space="preserve">Total People of Color</t>
   </si>
   <si>
+    <t xml:space="preserve">85.7%</t>
+  </si>
+  <si>
     <t xml:space="preserve">79.9%</t>
   </si>
   <si>
-    <t xml:space="preserve">85.7%</t>
-  </si>
-  <si>
     <t xml:space="preserve">81.1%</t>
   </si>
   <si>
@@ -226,30 +226,30 @@
     <t xml:space="preserve">King</t>
   </si>
   <si>
+    <t xml:space="preserve">83.2%</t>
+  </si>
+  <si>
     <t xml:space="preserve">109.7%</t>
   </si>
   <si>
-    <t xml:space="preserve">83.2%</t>
-  </si>
-  <si>
     <t xml:space="preserve">166.5%</t>
   </si>
   <si>
+    <t xml:space="preserve">43.4%</t>
+  </si>
+  <si>
     <t xml:space="preserve">46.4%</t>
   </si>
   <si>
-    <t xml:space="preserve">43.4%</t>
-  </si>
-  <si>
     <t xml:space="preserve">46.5%</t>
   </si>
   <si>
+    <t xml:space="preserve">117.3%</t>
+  </si>
+  <si>
     <t xml:space="preserve">128.7%</t>
   </si>
   <si>
-    <t xml:space="preserve">117.3%</t>
-  </si>
-  <si>
     <t xml:space="preserve">123.2%</t>
   </si>
   <si>
@@ -259,6 +259,39 @@
     <t xml:space="preserve">73.6%</t>
   </si>
   <si>
+    <t xml:space="preserve">70.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">51.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">152.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">48.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">46.0%</t>
+  </si>
+  <si>
     <t xml:space="preserve">50.6%</t>
   </si>
   <si>
@@ -283,39 +316,6 @@
     <t xml:space="preserve">99.5%</t>
   </si>
   <si>
-    <t xml:space="preserve">51.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">152.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">121.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">172.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">46.0%</t>
-  </si>
-  <si>
     <t xml:space="preserve">59.4%</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t xml:space="preserve">61.4%</t>
   </si>
   <si>
+    <t xml:space="preserve">99.7%</t>
+  </si>
+  <si>
     <t xml:space="preserve">91.7%</t>
   </si>
   <si>
-    <t xml:space="preserve">99.7%</t>
-  </si>
-  <si>
     <t xml:space="preserve">92.4%</t>
   </si>
   <si>
@@ -343,39 +343,69 @@
     <t xml:space="preserve">Kitsap</t>
   </si>
   <si>
+    <t xml:space="preserve">75.0%</t>
+  </si>
+  <si>
     <t xml:space="preserve">55.7%</t>
   </si>
   <si>
-    <t xml:space="preserve">75.0%</t>
-  </si>
-  <si>
     <t xml:space="preserve">55.0%</t>
   </si>
   <si>
+    <t xml:space="preserve">94.2%</t>
+  </si>
+  <si>
     <t xml:space="preserve">82.3%</t>
   </si>
   <si>
-    <t xml:space="preserve">94.2%</t>
-  </si>
-  <si>
     <t xml:space="preserve">92.5%</t>
   </si>
   <si>
+    <t xml:space="preserve">76.5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">84.6%</t>
   </si>
   <si>
-    <t xml:space="preserve">76.5%</t>
+    <t xml:space="preserve">81.9%</t>
   </si>
   <si>
     <t xml:space="preserve">44.5%</t>
   </si>
   <si>
-    <t xml:space="preserve">81.9%</t>
-  </si>
-  <si>
     <t xml:space="preserve">27.3%</t>
   </si>
   <si>
+    <t xml:space="preserve">158.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">213.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-54.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-57.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">98.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">53.3%</t>
+  </si>
+  <si>
     <t xml:space="preserve">85.8%</t>
   </si>
   <si>
@@ -397,36 +427,6 @@
     <t xml:space="preserve">98.3%</t>
   </si>
   <si>
-    <t xml:space="preserve">213.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">158.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-57.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-54.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">98.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.4%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">53.3%</t>
-  </si>
-  <si>
     <t xml:space="preserve">75.9%</t>
   </si>
   <si>
@@ -439,57 +439,87 @@
     <t xml:space="preserve">89.9%</t>
   </si>
   <si>
+    <t xml:space="preserve">87.9%</t>
+  </si>
+  <si>
     <t xml:space="preserve">80.4%</t>
   </si>
   <si>
-    <t xml:space="preserve">87.9%</t>
-  </si>
-  <si>
     <t xml:space="preserve">82.0%</t>
   </si>
   <si>
+    <t xml:space="preserve">66.0%</t>
+  </si>
+  <si>
     <t xml:space="preserve">68.2%</t>
   </si>
   <si>
-    <t xml:space="preserve">66.0%</t>
-  </si>
-  <si>
     <t xml:space="preserve">61.7%</t>
   </si>
   <si>
     <t xml:space="preserve">Pierce</t>
   </si>
   <si>
+    <t xml:space="preserve">29.6%</t>
+  </si>
+  <si>
     <t xml:space="preserve">219.2%</t>
   </si>
   <si>
-    <t xml:space="preserve">29.6%</t>
+    <t xml:space="preserve">55.3%</t>
   </si>
   <si>
     <t xml:space="preserve">33.8%</t>
   </si>
   <si>
-    <t xml:space="preserve">55.3%</t>
+    <t xml:space="preserve">78.1%</t>
   </si>
   <si>
     <t xml:space="preserve">82.4%</t>
   </si>
   <si>
-    <t xml:space="preserve">78.1%</t>
-  </si>
-  <si>
     <t xml:space="preserve">84.4%</t>
   </si>
   <si>
+    <t xml:space="preserve">49.0%</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.2%</t>
   </si>
   <si>
-    <t xml:space="preserve">49.0%</t>
-  </si>
-  <si>
     <t xml:space="preserve">56.3%</t>
   </si>
   <si>
+    <t xml:space="preserve">73.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">130.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">140.7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">114.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">106.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">57.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55.5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">57.5%</t>
   </si>
   <si>
@@ -505,36 +535,6 @@
     <t xml:space="preserve">66.4%</t>
   </si>
   <si>
-    <t xml:space="preserve">130.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">73.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">140.7%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">114.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">106.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">95.2%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">57.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55.5%</t>
-  </si>
-  <si>
     <t xml:space="preserve">51.5%</t>
   </si>
   <si>
@@ -544,33 +544,33 @@
     <t xml:space="preserve">58.2%</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6%</t>
+  </si>
+  <si>
     <t xml:space="preserve">59.9%</t>
   </si>
   <si>
-    <t xml:space="preserve">56.6%</t>
-  </si>
-  <si>
     <t xml:space="preserve">60.3%</t>
   </si>
   <si>
+    <t xml:space="preserve">61.3%</t>
+  </si>
+  <si>
     <t xml:space="preserve">67.4%</t>
   </si>
   <si>
-    <t xml:space="preserve">61.3%</t>
-  </si>
-  <si>
     <t xml:space="preserve">65.8%</t>
   </si>
   <si>
     <t xml:space="preserve">Snohomish</t>
   </si>
   <si>
+    <t xml:space="preserve">24.2%</t>
+  </si>
+  <si>
     <t xml:space="preserve">189.6%</t>
   </si>
   <si>
-    <t xml:space="preserve">24.2%</t>
-  </si>
-  <si>
     <t xml:space="preserve">117.7%</t>
   </si>
   <si>
@@ -580,18 +580,48 @@
     <t xml:space="preserve">89.7%</t>
   </si>
   <si>
+    <t xml:space="preserve">66.5%</t>
+  </si>
+  <si>
     <t xml:space="preserve">77.2%</t>
   </si>
   <si>
-    <t xml:space="preserve">66.5%</t>
-  </si>
-  <si>
     <t xml:space="preserve">77.9%</t>
   </si>
   <si>
     <t xml:space="preserve">87.1%</t>
   </si>
   <si>
+    <t xml:space="preserve">92.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270.8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">103.5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">96.6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">87.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">63.0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66.3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.9%</t>
+  </si>
+  <si>
     <t xml:space="preserve">72.3%</t>
   </si>
   <si>
@@ -610,36 +640,6 @@
     <t xml:space="preserve">33.7%</t>
   </si>
   <si>
-    <t xml:space="preserve">270.8%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">103.5%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">96.6%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.1%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">87.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66.3%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">63.0%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.9%</t>
-  </si>
-  <si>
     <t xml:space="preserve">53.2%</t>
   </si>
   <si>
@@ -652,12 +652,12 @@
     <t xml:space="preserve">63.6%</t>
   </si>
   <si>
+    <t xml:space="preserve">89.8%</t>
+  </si>
+  <si>
     <t xml:space="preserve">83.3%</t>
   </si>
   <si>
-    <t xml:space="preserve">89.8%</t>
-  </si>
-  <si>
     <t xml:space="preserve">85.9%</t>
   </si>
   <si>
@@ -700,12 +700,12 @@
     <t xml:space="preserve">-51.1%</t>
   </si>
   <si>
+    <t xml:space="preserve">3.4%</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.3%</t>
   </si>
   <si>
-    <t xml:space="preserve">3.4%</t>
-  </si>
-  <si>
     <t xml:space="preserve">118.5%</t>
   </si>
   <si>
@@ -727,12 +727,12 @@
     <t xml:space="preserve">47.7%</t>
   </si>
   <si>
+    <t xml:space="preserve">33.3%</t>
+  </si>
+  <si>
     <t xml:space="preserve">32.8%</t>
   </si>
   <si>
-    <t xml:space="preserve">33.3%</t>
-  </si>
-  <si>
     <t xml:space="preserve">-100.0%</t>
   </si>
   <si>
@@ -802,16 +802,16 @@
     <t xml:space="preserve">57.7%</t>
   </si>
   <si>
+    <t xml:space="preserve">49.8%</t>
+  </si>
+  <si>
     <t xml:space="preserve">49.5%</t>
   </si>
   <si>
-    <t xml:space="preserve">49.8%</t>
+    <t xml:space="preserve">61.1%</t>
   </si>
   <si>
     <t xml:space="preserve">60.9%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.1%</t>
   </si>
   <si>
     <t xml:space="preserve">49.9%</t>
@@ -1237,10 +1237,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
+        <v>56650.32</v>
+      </c>
+      <c r="F2" t="n">
         <v>67779.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>56650.32</v>
       </c>
       <c r="G2" t="n">
         <v>98888.6</v>
@@ -1269,10 +1269,10 @@
         <v>12</v>
       </c>
       <c r="E3" t="n">
+        <v>65162.17</v>
+      </c>
+      <c r="F3" t="n">
         <v>66060.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>65162.17</v>
       </c>
       <c r="G3" t="n">
         <v>66997.32</v>
@@ -1301,10 +1301,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
+        <v>67685.51</v>
+      </c>
+      <c r="F4" t="n">
         <v>64933.62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67685.51</v>
       </c>
       <c r="G4" t="n">
         <v>64662.71</v>
@@ -1333,10 +1333,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="n">
+        <v>53969.05</v>
+      </c>
+      <c r="F5" t="n">
         <v>39203.58</v>
-      </c>
-      <c r="F5" t="n">
-        <v>53969.05</v>
       </c>
       <c r="G5" t="n">
         <v>40032.82</v>
@@ -1365,18 +1365,22 @@
         <v>12</v>
       </c>
       <c r="E6" t="n">
-        <v>58084.07</v>
-      </c>
-      <c r="F6"/>
+        <v>71959.35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100232.03</v>
+      </c>
       <c r="G6" t="n">
-        <v>63871.99</v>
+        <v>102049.11</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
-      </c>
-      <c r="I6"/>
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
       <c r="J6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -1387,24 +1391,28 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>51958.93</v>
-      </c>
-      <c r="F7"/>
+        <v>67326.12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>86735.41</v>
+      </c>
       <c r="G7" t="n">
-        <v>52974.75</v>
+        <v>88804.43</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7"/>
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1415,24 +1423,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>57279.02</v>
-      </c>
-      <c r="F8"/>
+        <v>67034.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>67696.4</v>
+      </c>
       <c r="G8" t="n">
-        <v>60234.59</v>
+        <v>67570.55</v>
       </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8"/>
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
       <c r="J8" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -1443,24 +1455,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>49063.43</v>
-      </c>
-      <c r="F9"/>
+        <v>54340.31</v>
+      </c>
+      <c r="F9" t="n">
+        <v>53907.34</v>
+      </c>
       <c r="G9" t="n">
-        <v>61201.22</v>
+        <v>52583.17</v>
       </c>
       <c r="H9" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9"/>
+        <v>41</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
       <c r="J9" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -1471,28 +1487,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="n">
-        <v>100232.03</v>
+        <v>63569.66</v>
       </c>
       <c r="F10" t="n">
-        <v>71959.35</v>
+        <v>63569.66</v>
       </c>
       <c r="G10" t="n">
-        <v>102049.11</v>
+        <v>63569.66</v>
       </c>
       <c r="H10" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -1503,28 +1519,24 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" t="n">
-        <v>86735.41</v>
-      </c>
+      <c r="E11"/>
       <c r="F11" t="n">
-        <v>67326.12</v>
+        <v>58084.07</v>
       </c>
       <c r="G11" t="n">
-        <v>88804.43</v>
-      </c>
-      <c r="H11" t="s">
-        <v>43</v>
-      </c>
+        <v>63871.99</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" t="s">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="J11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12">
@@ -1535,23 +1547,19 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
-      <c r="E12" t="n">
-        <v>67696.4</v>
-      </c>
+      <c r="E12"/>
       <c r="F12" t="n">
-        <v>67034.41</v>
+        <v>51958.93</v>
       </c>
       <c r="G12" t="n">
-        <v>67570.55</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
+        <v>52974.75</v>
+      </c>
+      <c r="H12"/>
       <c r="I12" t="s">
         <v>48</v>
       </c>
@@ -1572,23 +1580,19 @@
       <c r="D13" t="s">
         <v>12</v>
       </c>
-      <c r="E13" t="n">
-        <v>53907.34</v>
-      </c>
+      <c r="E13"/>
       <c r="F13" t="n">
-        <v>54340.31</v>
+        <v>57279.02</v>
       </c>
       <c r="G13" t="n">
-        <v>52583.17</v>
-      </c>
-      <c r="H13" t="s">
-        <v>18</v>
-      </c>
+        <v>60234.59</v>
+      </c>
+      <c r="H13"/>
       <c r="I13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
         <v>51</v>
-      </c>
-      <c r="J13" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="14">
@@ -1599,25 +1603,21 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14"/>
+      <c r="F14" t="n">
+        <v>49063.43</v>
+      </c>
+      <c r="G14" t="n">
+        <v>61201.22</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="s">
         <v>53</v>
-      </c>
-      <c r="D14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" t="n">
-        <v>63569.66</v>
-      </c>
-      <c r="F14" t="n">
-        <v>63569.66</v>
-      </c>
-      <c r="G14" t="n">
-        <v>63569.66</v>
-      </c>
-      <c r="H14" t="s">
-        <v>54</v>
-      </c>
-      <c r="I14" t="s">
-        <v>54</v>
       </c>
       <c r="J14" t="s">
         <v>54</v>
@@ -1636,17 +1636,17 @@
       <c r="D15" t="s">
         <v>12</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15"/>
+      <c r="F15" t="n">
         <v>57852.48</v>
       </c>
-      <c r="F15"/>
       <c r="G15" t="n">
         <v>62088.65</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15"/>
+      <c r="I15" t="s">
         <v>56</v>
       </c>
-      <c r="I15"/>
       <c r="J15" t="s">
         <v>57</v>
       </c>
@@ -1665,19 +1665,19 @@
         <v>12</v>
       </c>
       <c r="E16" t="n">
+        <v>67034.41</v>
+      </c>
+      <c r="F16" t="n">
         <v>60891.53</v>
-      </c>
-      <c r="F16" t="n">
-        <v>67034.41</v>
       </c>
       <c r="G16" t="n">
         <v>64060.53</v>
       </c>
       <c r="H16" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" t="s">
         <v>59</v>
-      </c>
-      <c r="I16" t="s">
-        <v>48</v>
       </c>
       <c r="J16" t="s">
         <v>60</v>
@@ -1697,10 +1697,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
+        <v>73958.3</v>
+      </c>
+      <c r="F17" t="n">
         <v>72874.57</v>
-      </c>
-      <c r="F17" t="n">
-        <v>73958.3</v>
       </c>
       <c r="G17" t="n">
         <v>73062.71</v>
@@ -1729,19 +1729,19 @@
         <v>12</v>
       </c>
       <c r="E18" t="n">
+        <v>63569.66</v>
+      </c>
+      <c r="F18" t="n">
         <v>65209.98</v>
-      </c>
-      <c r="F18" t="n">
-        <v>63569.66</v>
       </c>
       <c r="G18" t="n">
         <v>64238.79</v>
       </c>
       <c r="H18" t="s">
+        <v>44</v>
+      </c>
+      <c r="I18" t="s">
         <v>66</v>
-      </c>
-      <c r="I18" t="s">
-        <v>54</v>
       </c>
       <c r="J18" t="s">
         <v>67</v>
@@ -1761,10 +1761,10 @@
         <v>12</v>
       </c>
       <c r="E19" t="n">
+        <v>40709.58</v>
+      </c>
+      <c r="F19" t="n">
         <v>46893.44</v>
-      </c>
-      <c r="F19" t="n">
-        <v>40709.58</v>
       </c>
       <c r="G19" t="n">
         <v>68795.47</v>
@@ -1793,10 +1793,10 @@
         <v>12</v>
       </c>
       <c r="E20" t="n">
+        <v>62918.42</v>
+      </c>
+      <c r="F20" t="n">
         <v>66268.67</v>
-      </c>
-      <c r="F20" t="n">
-        <v>62918.42</v>
       </c>
       <c r="G20" t="n">
         <v>66641.57</v>
@@ -1825,10 +1825,10 @@
         <v>12</v>
       </c>
       <c r="E21" t="n">
+        <v>75620.82</v>
+      </c>
+      <c r="F21" t="n">
         <v>77556.5</v>
-      </c>
-      <c r="F21" t="n">
-        <v>75620.82</v>
       </c>
       <c r="G21" t="n">
         <v>75886.03</v>
@@ -1857,19 +1857,19 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
+        <v>65147.2</v>
+      </c>
+      <c r="F22" t="n">
         <v>49374.94</v>
-      </c>
-      <c r="F22" t="n">
-        <v>65147.2</v>
       </c>
       <c r="G22" t="n">
         <v>50339.6</v>
       </c>
       <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s">
         <v>66</v>
-      </c>
-      <c r="I22" t="s">
-        <v>78</v>
       </c>
       <c r="J22" t="s">
         <v>79</v>
@@ -1889,18 +1889,22 @@
         <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>61276.23</v>
-      </c>
-      <c r="F23"/>
+        <v>52719.32</v>
+      </c>
+      <c r="F23" t="n">
+        <v>40049.16</v>
+      </c>
       <c r="G23" t="n">
-        <v>57327.37</v>
+        <v>41866.24</v>
       </c>
       <c r="H23" t="s">
         <v>80</v>
       </c>
-      <c r="I23"/>
+      <c r="I23" t="s">
+        <v>81</v>
+      </c>
       <c r="J23" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -1911,24 +1915,28 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>75841.16</v>
-      </c>
-      <c r="F24"/>
+        <v>106682.66</v>
+      </c>
+      <c r="F24" t="n">
+        <v>115198.49</v>
+      </c>
       <c r="G24" t="n">
-        <v>76401.24</v>
+        <v>120602.57</v>
       </c>
       <c r="H24" t="s">
-        <v>82</v>
-      </c>
-      <c r="I24"/>
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>84</v>
+      </c>
       <c r="J24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -1939,24 +1947,28 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>73032.18</v>
-      </c>
-      <c r="F25"/>
+        <v>86928.2</v>
+      </c>
+      <c r="F25" t="n">
+        <v>79611.09</v>
+      </c>
       <c r="G25" t="n">
-        <v>74883.35</v>
+        <v>76085.86</v>
       </c>
       <c r="H25" t="s">
-        <v>84</v>
-      </c>
-      <c r="I25"/>
+        <v>86</v>
+      </c>
+      <c r="I25" t="s">
+        <v>87</v>
+      </c>
       <c r="J25" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26">
@@ -1967,24 +1979,28 @@
         <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>65550.78</v>
-      </c>
-      <c r="F26"/>
+        <v>61788.66</v>
+      </c>
+      <c r="F26" t="n">
+        <v>59697.38</v>
+      </c>
       <c r="G26" t="n">
-        <v>77075.56</v>
+        <v>58151.19</v>
       </c>
       <c r="H26" t="s">
-        <v>86</v>
-      </c>
-      <c r="I26"/>
+        <v>88</v>
+      </c>
+      <c r="I26" t="s">
+        <v>89</v>
+      </c>
       <c r="J26" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -1995,29 +2011,17 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
-      <c r="E27" t="n">
-        <v>40049.16</v>
-      </c>
-      <c r="F27" t="n">
-        <v>52719.32</v>
-      </c>
-      <c r="G27" t="n">
-        <v>41866.24</v>
-      </c>
-      <c r="H27" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" t="s">
-        <v>90</v>
-      </c>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2027,28 +2031,24 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
-      <c r="E28" t="n">
-        <v>115198.49</v>
-      </c>
+      <c r="E28"/>
       <c r="F28" t="n">
-        <v>106682.66</v>
+        <v>61276.23</v>
       </c>
       <c r="G28" t="n">
-        <v>120602.57</v>
-      </c>
-      <c r="H28" t="s">
+        <v>57327.37</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="s">
         <v>91</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>92</v>
-      </c>
-      <c r="J28" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -2059,28 +2059,24 @@
         <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
-      <c r="E29" t="n">
-        <v>79611.09</v>
-      </c>
+      <c r="E29"/>
       <c r="F29" t="n">
-        <v>86928.2</v>
+        <v>75841.16</v>
       </c>
       <c r="G29" t="n">
-        <v>76085.86</v>
-      </c>
-      <c r="H29" t="s">
+        <v>76401.24</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>93</v>
+      </c>
+      <c r="J29" t="s">
         <v>94</v>
-      </c>
-      <c r="I29" t="s">
-        <v>95</v>
-      </c>
-      <c r="J29" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="30">
@@ -2096,23 +2092,19 @@
       <c r="D30" t="s">
         <v>12</v>
       </c>
-      <c r="E30" t="n">
-        <v>59697.38</v>
-      </c>
+      <c r="E30"/>
       <c r="F30" t="n">
-        <v>61788.66</v>
+        <v>73032.18</v>
       </c>
       <c r="G30" t="n">
-        <v>58151.19</v>
-      </c>
-      <c r="H30" t="s">
+        <v>74883.35</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>95</v>
+      </c>
+      <c r="J30" t="s">
         <v>96</v>
-      </c>
-      <c r="I30" t="s">
-        <v>97</v>
-      </c>
-      <c r="J30" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -2123,17 +2115,25 @@
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31"/>
-      <c r="F31"/>
-      <c r="G31"/>
+      <c r="F31" t="n">
+        <v>65550.78</v>
+      </c>
+      <c r="G31" t="n">
+        <v>77075.56</v>
+      </c>
       <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
+      <c r="I31" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -2148,17 +2148,17 @@
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32"/>
+      <c r="F32" t="n">
         <v>75274.59</v>
       </c>
-      <c r="F32"/>
       <c r="G32" t="n">
         <v>76873.76</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32"/>
+      <c r="I32" t="s">
         <v>99</v>
       </c>
-      <c r="I32"/>
       <c r="J32" t="s">
         <v>100</v>
       </c>
@@ -2177,22 +2177,22 @@
         <v>12</v>
       </c>
       <c r="E33" t="n">
+        <v>86928.2</v>
+      </c>
+      <c r="F33" t="n">
         <v>75855.02</v>
-      </c>
-      <c r="F33" t="n">
-        <v>86928.2</v>
       </c>
       <c r="G33" t="n">
         <v>77777.84</v>
       </c>
       <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33" t="s">
         <v>101</v>
       </c>
-      <c r="I33" t="s">
-        <v>95</v>
-      </c>
       <c r="J33" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="34">
@@ -2209,10 +2209,10 @@
         <v>12</v>
       </c>
       <c r="E34" t="n">
+        <v>93167.35</v>
+      </c>
+      <c r="F34" t="n">
         <v>92066.89</v>
-      </c>
-      <c r="F34" t="n">
-        <v>93167.35</v>
       </c>
       <c r="G34" t="n">
         <v>92094.76</v>
@@ -2241,19 +2241,19 @@
         <v>12</v>
       </c>
       <c r="E35" t="n">
+        <v>78742.82</v>
+      </c>
+      <c r="F35" t="n">
         <v>80239.61</v>
-      </c>
-      <c r="F35" t="n">
-        <v>78742.82</v>
       </c>
       <c r="G35" t="n">
         <v>79586.99</v>
       </c>
       <c r="H35" t="s">
+        <v>66</v>
+      </c>
+      <c r="I35" t="s">
         <v>105</v>
-      </c>
-      <c r="I35" t="s">
-        <v>66</v>
       </c>
       <c r="J35" t="s">
         <v>106</v>
@@ -2273,10 +2273,10 @@
         <v>12</v>
       </c>
       <c r="E36" t="n">
+        <v>49697.94</v>
+      </c>
+      <c r="F36" t="n">
         <v>36916.11</v>
-      </c>
-      <c r="F36" t="n">
-        <v>49697.94</v>
       </c>
       <c r="G36" t="n">
         <v>36413.11</v>
@@ -2305,10 +2305,10 @@
         <v>12</v>
       </c>
       <c r="E37" t="n">
+        <v>77046.24</v>
+      </c>
+      <c r="F37" t="n">
         <v>63529.38</v>
-      </c>
-      <c r="F37" t="n">
-        <v>77046.24</v>
       </c>
       <c r="G37" t="n">
         <v>71384.48</v>
@@ -2337,10 +2337,10 @@
         <v>12</v>
       </c>
       <c r="E38" t="n">
+        <v>67277.61</v>
+      </c>
+      <c r="F38" t="n">
         <v>47427.43</v>
-      </c>
-      <c r="F38" t="n">
-        <v>67277.61</v>
       </c>
       <c r="G38" t="n">
         <v>47427.43</v>
@@ -2352,7 +2352,7 @@
         <v>115</v>
       </c>
       <c r="J38" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -2369,10 +2369,10 @@
         <v>12</v>
       </c>
       <c r="E39" t="n">
+        <v>58425.72</v>
+      </c>
+      <c r="F39" t="n">
         <v>23659.71</v>
-      </c>
-      <c r="F39" t="n">
-        <v>58425.72</v>
       </c>
       <c r="G39" t="n">
         <v>15406.55</v>
@@ -2401,16 +2401,20 @@
         <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>68275.24</v>
-      </c>
-      <c r="F40"/>
+        <v>98049.02</v>
+      </c>
+      <c r="F40" t="n">
+        <v>131996.2</v>
+      </c>
       <c r="G40" t="n">
-        <v>65760.52</v>
+        <v>131996.2</v>
       </c>
       <c r="H40" t="s">
         <v>119</v>
       </c>
-      <c r="I40"/>
+      <c r="I40" t="s">
+        <v>120</v>
+      </c>
       <c r="J40" t="s">
         <v>120</v>
       </c>
@@ -2423,24 +2427,28 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>34372.29</v>
-      </c>
-      <c r="F41"/>
+        <v>-147958.3</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-155121.33</v>
+      </c>
       <c r="G41" t="n">
-        <v>34372.29</v>
+        <v>-155121.33</v>
       </c>
       <c r="H41" t="s">
         <v>121</v>
       </c>
-      <c r="I41"/>
+      <c r="I41" t="s">
+        <v>122</v>
+      </c>
       <c r="J41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42">
@@ -2451,24 +2459,28 @@
         <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>61978.85</v>
-      </c>
-      <c r="F42"/>
+        <v>69626.55</v>
+      </c>
+      <c r="F42" t="n">
+        <v>47163.7</v>
+      </c>
       <c r="G42" t="n">
-        <v>63336.51</v>
+        <v>41541.8</v>
       </c>
       <c r="H42" t="s">
-        <v>122</v>
-      </c>
-      <c r="I42"/>
+        <v>123</v>
+      </c>
+      <c r="I42" t="s">
+        <v>124</v>
+      </c>
       <c r="J42" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
@@ -2479,24 +2491,28 @@
         <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>62598.64</v>
-      </c>
-      <c r="F43"/>
+        <v>48419.84</v>
+      </c>
+      <c r="F43" t="n">
+        <v>48201.12</v>
+      </c>
       <c r="G43" t="n">
-        <v>68394.57</v>
+        <v>46093.54</v>
       </c>
       <c r="H43" t="s">
-        <v>124</v>
-      </c>
-      <c r="I43"/>
+        <v>126</v>
+      </c>
+      <c r="I43" t="s">
+        <v>127</v>
+      </c>
       <c r="J43" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44">
@@ -2507,29 +2523,17 @@
         <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
-      <c r="E44" t="n">
-        <v>131996.2</v>
-      </c>
-      <c r="F44" t="n">
-        <v>98049.02</v>
-      </c>
-      <c r="G44" t="n">
-        <v>131996.2</v>
-      </c>
-      <c r="H44" t="s">
-        <v>126</v>
-      </c>
-      <c r="I44" t="s">
-        <v>127</v>
-      </c>
-      <c r="J44" t="s">
-        <v>126</v>
-      </c>
+      <c r="E44"/>
+      <c r="F44"/>
+      <c r="G44"/>
+      <c r="H44"/>
+      <c r="I44"/>
+      <c r="J44"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2539,28 +2543,24 @@
         <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
-      <c r="E45" t="n">
-        <v>-155121.33</v>
-      </c>
+      <c r="E45"/>
       <c r="F45" t="n">
-        <v>-147958.3</v>
+        <v>68275.24</v>
       </c>
       <c r="G45" t="n">
-        <v>-155121.33</v>
-      </c>
-      <c r="H45" t="s">
-        <v>128</v>
-      </c>
+        <v>65760.52</v>
+      </c>
+      <c r="H45"/>
       <c r="I45" t="s">
         <v>129</v>
       </c>
       <c r="J45" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46">
@@ -2571,28 +2571,24 @@
         <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="E46" t="n">
-        <v>47163.7</v>
-      </c>
+      <c r="E46"/>
       <c r="F46" t="n">
-        <v>69626.55</v>
+        <v>34372.29</v>
       </c>
       <c r="G46" t="n">
-        <v>41541.8</v>
-      </c>
-      <c r="H46" t="s">
-        <v>130</v>
-      </c>
+        <v>34372.29</v>
+      </c>
+      <c r="H46"/>
       <c r="I46" t="s">
         <v>131</v>
       </c>
       <c r="J46" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47">
@@ -2608,23 +2604,19 @@
       <c r="D47" t="s">
         <v>12</v>
       </c>
-      <c r="E47" t="n">
-        <v>48201.12</v>
-      </c>
+      <c r="E47"/>
       <c r="F47" t="n">
-        <v>48419.84</v>
+        <v>61978.85</v>
       </c>
       <c r="G47" t="n">
-        <v>46093.54</v>
-      </c>
-      <c r="H47" t="s">
+        <v>63336.51</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47" t="s">
+        <v>132</v>
+      </c>
+      <c r="J47" t="s">
         <v>133</v>
-      </c>
-      <c r="I47" t="s">
-        <v>134</v>
-      </c>
-      <c r="J47" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="48">
@@ -2635,17 +2627,25 @@
         <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48"/>
-      <c r="F48"/>
-      <c r="G48"/>
+      <c r="F48" t="n">
+        <v>62598.64</v>
+      </c>
+      <c r="G48" t="n">
+        <v>68394.57</v>
+      </c>
       <c r="H48"/>
-      <c r="I48"/>
-      <c r="J48"/>
+      <c r="I48" t="s">
+        <v>134</v>
+      </c>
+      <c r="J48" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2660,17 +2660,17 @@
       <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49"/>
+      <c r="F49" t="n">
         <v>63099.08</v>
       </c>
-      <c r="F49"/>
       <c r="G49" t="n">
         <v>65234.63</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49"/>
+      <c r="I49" t="s">
         <v>136</v>
       </c>
-      <c r="I49"/>
       <c r="J49" t="s">
         <v>137</v>
       </c>
@@ -2689,19 +2689,19 @@
         <v>12</v>
       </c>
       <c r="E50" t="n">
+        <v>69626.55</v>
+      </c>
+      <c r="F50" t="n">
         <v>64050.35</v>
-      </c>
-      <c r="F50" t="n">
-        <v>69626.55</v>
       </c>
       <c r="G50" t="n">
         <v>68284.84</v>
       </c>
       <c r="H50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" t="s">
         <v>138</v>
-      </c>
-      <c r="I50" t="s">
-        <v>131</v>
       </c>
       <c r="J50" t="s">
         <v>139</v>
@@ -2721,10 +2721,10 @@
         <v>12</v>
       </c>
       <c r="E51" t="n">
+        <v>65807.23</v>
+      </c>
+      <c r="F51" t="n">
         <v>61103.75</v>
-      </c>
-      <c r="F51" t="n">
-        <v>65807.23</v>
       </c>
       <c r="G51" t="n">
         <v>61725.44</v>
@@ -2753,10 +2753,10 @@
         <v>12</v>
       </c>
       <c r="E52" t="n">
+        <v>53251.85</v>
+      </c>
+      <c r="F52" t="n">
         <v>52946.44</v>
-      </c>
-      <c r="F52" t="n">
-        <v>53251.85</v>
       </c>
       <c r="G52" t="n">
         <v>49839.57</v>
@@ -2785,10 +2785,10 @@
         <v>12</v>
       </c>
       <c r="E53" t="n">
+        <v>32529.52</v>
+      </c>
+      <c r="F53" t="n">
         <v>127496.19</v>
-      </c>
-      <c r="F53" t="n">
-        <v>32529.52</v>
       </c>
       <c r="G53" t="n">
         <v>127496.19</v>
@@ -2800,7 +2800,7 @@
         <v>148</v>
       </c>
       <c r="J53" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54">
@@ -2817,10 +2817,10 @@
         <v>12</v>
       </c>
       <c r="E54" t="n">
+        <v>43416.39</v>
+      </c>
+      <c r="F54" t="n">
         <v>26117.08</v>
-      </c>
-      <c r="F54" t="n">
-        <v>43416.39</v>
       </c>
       <c r="G54" t="n">
         <v>26568.06</v>
@@ -2832,7 +2832,7 @@
         <v>150</v>
       </c>
       <c r="J54" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55">
@@ -2849,10 +2849,10 @@
         <v>12</v>
       </c>
       <c r="E55" t="n">
+        <v>57614.93</v>
+      </c>
+      <c r="F55" t="n">
         <v>57435.69</v>
-      </c>
-      <c r="F55" t="n">
-        <v>57614.93</v>
       </c>
       <c r="G55" t="n">
         <v>58782.49</v>
@@ -2881,10 +2881,10 @@
         <v>12</v>
       </c>
       <c r="E56" t="n">
+        <v>37827.05</v>
+      </c>
+      <c r="F56" t="n">
         <v>36689.68</v>
-      </c>
-      <c r="F56" t="n">
-        <v>37827.05</v>
       </c>
       <c r="G56" t="n">
         <v>36730.33</v>
@@ -2913,18 +2913,22 @@
         <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>45869.78</v>
-      </c>
-      <c r="F57"/>
+        <v>64264.57</v>
+      </c>
+      <c r="F57" t="n">
+        <v>108940.15</v>
+      </c>
       <c r="G57" t="n">
-        <v>51225.88</v>
+        <v>112556.86</v>
       </c>
       <c r="H57" t="s">
-        <v>83</v>
-      </c>
-      <c r="I57"/>
+        <v>157</v>
+      </c>
+      <c r="I57" t="s">
+        <v>158</v>
+      </c>
       <c r="J57" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="58">
@@ -2935,24 +2939,28 @@
         <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="n">
-        <v>44350.96</v>
-      </c>
-      <c r="F58"/>
+        <v>60509.46</v>
+      </c>
+      <c r="F58" t="n">
+        <v>62311.75</v>
+      </c>
       <c r="G58" t="n">
-        <v>46758.12</v>
+        <v>59985.74</v>
       </c>
       <c r="H58" t="s">
-        <v>158</v>
-      </c>
-      <c r="I58"/>
+        <v>160</v>
+      </c>
+      <c r="I58" t="s">
+        <v>161</v>
+      </c>
       <c r="J58" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59">
@@ -2963,24 +2971,28 @@
         <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
       <c r="E59" t="n">
-        <v>47052.87</v>
-      </c>
-      <c r="F59"/>
+        <v>46818.94</v>
+      </c>
+      <c r="F59" t="n">
+        <v>58224.97</v>
+      </c>
       <c r="G59" t="n">
-        <v>47745.82</v>
+        <v>55513.29</v>
       </c>
       <c r="H59" t="s">
-        <v>52</v>
-      </c>
-      <c r="I59"/>
+        <v>163</v>
+      </c>
+      <c r="I59" t="s">
+        <v>164</v>
+      </c>
       <c r="J59" t="s">
-        <v>18</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60">
@@ -2991,24 +3003,28 @@
         <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>48300.84</v>
-      </c>
-      <c r="F60"/>
+        <v>48459.64</v>
+      </c>
+      <c r="F60" t="n">
+        <v>49057.05</v>
+      </c>
       <c r="G60" t="n">
-        <v>55536.5</v>
+        <v>47869.67</v>
       </c>
       <c r="H60" t="s">
-        <v>160</v>
-      </c>
-      <c r="I60"/>
+        <v>109</v>
+      </c>
+      <c r="I60" t="s">
+        <v>165</v>
+      </c>
       <c r="J60" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61">
@@ -3019,29 +3035,17 @@
         <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
-      <c r="E61" t="n">
-        <v>108940.15</v>
-      </c>
-      <c r="F61" t="n">
-        <v>64264.57</v>
-      </c>
-      <c r="G61" t="n">
-        <v>112556.86</v>
-      </c>
-      <c r="H61" t="s">
-        <v>162</v>
-      </c>
-      <c r="I61" t="s">
-        <v>163</v>
-      </c>
-      <c r="J61" t="s">
-        <v>164</v>
-      </c>
+      <c r="E61"/>
+      <c r="F61"/>
+      <c r="G61"/>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3051,25 +3055,21 @@
         <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
-      <c r="E62" t="n">
-        <v>62311.75</v>
-      </c>
+      <c r="E62"/>
       <c r="F62" t="n">
-        <v>60509.46</v>
+        <v>45869.78</v>
       </c>
       <c r="G62" t="n">
-        <v>59985.74</v>
-      </c>
-      <c r="H62" t="s">
-        <v>165</v>
-      </c>
+        <v>51225.88</v>
+      </c>
+      <c r="H62"/>
       <c r="I62" t="s">
-        <v>166</v>
+        <v>94</v>
       </c>
       <c r="J62" t="s">
         <v>167</v>
@@ -3083,28 +3083,24 @@
         <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
-      <c r="E63" t="n">
-        <v>58224.97</v>
-      </c>
+      <c r="E63"/>
       <c r="F63" t="n">
-        <v>46818.94</v>
+        <v>44350.96</v>
       </c>
       <c r="G63" t="n">
-        <v>55513.29</v>
-      </c>
-      <c r="H63" t="s">
+        <v>46758.12</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63" t="s">
         <v>168</v>
       </c>
-      <c r="I63" t="s">
+      <c r="J63" t="s">
         <v>169</v>
-      </c>
-      <c r="J63" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="64">
@@ -3120,23 +3116,19 @@
       <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="E64" t="n">
-        <v>49057.05</v>
-      </c>
+      <c r="E64"/>
       <c r="F64" t="n">
-        <v>48459.64</v>
+        <v>47052.87</v>
       </c>
       <c r="G64" t="n">
-        <v>47869.67</v>
-      </c>
-      <c r="H64" t="s">
-        <v>170</v>
-      </c>
+        <v>47745.82</v>
+      </c>
+      <c r="H64"/>
       <c r="I64" t="s">
-        <v>108</v>
+        <v>42</v>
       </c>
       <c r="J64" t="s">
-        <v>171</v>
+        <v>17</v>
       </c>
     </row>
     <row r="65">
@@ -3147,17 +3139,25 @@
         <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
       <c r="E65"/>
-      <c r="F65"/>
-      <c r="G65"/>
+      <c r="F65" t="n">
+        <v>48300.84</v>
+      </c>
+      <c r="G65" t="n">
+        <v>55536.5</v>
+      </c>
       <c r="H65"/>
-      <c r="I65"/>
-      <c r="J65"/>
+      <c r="I65" t="s">
+        <v>170</v>
+      </c>
+      <c r="J65" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -3172,17 +3172,17 @@
       <c r="D66" t="s">
         <v>12</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66"/>
+      <c r="F66" t="n">
         <v>48453.93</v>
       </c>
-      <c r="F66"/>
       <c r="G66" t="n">
         <v>50054.67</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66"/>
+      <c r="I66" t="s">
         <v>172</v>
       </c>
-      <c r="I66"/>
       <c r="J66" t="s">
         <v>173</v>
       </c>
@@ -3201,19 +3201,19 @@
         <v>12</v>
       </c>
       <c r="E67" t="n">
+        <v>46818.94</v>
+      </c>
+      <c r="F67" t="n">
         <v>50528.38</v>
-      </c>
-      <c r="F67" t="n">
-        <v>46818.94</v>
       </c>
       <c r="G67" t="n">
         <v>51130.42</v>
       </c>
       <c r="H67" t="s">
+        <v>163</v>
+      </c>
+      <c r="I67" t="s">
         <v>156</v>
-      </c>
-      <c r="I67" t="s">
-        <v>169</v>
       </c>
       <c r="J67" t="s">
         <v>174</v>
@@ -3233,10 +3233,10 @@
         <v>12</v>
       </c>
       <c r="E68" t="n">
+        <v>44463.31</v>
+      </c>
+      <c r="F68" t="n">
         <v>48794.35</v>
-      </c>
-      <c r="F68" t="n">
-        <v>44463.31</v>
       </c>
       <c r="G68" t="n">
         <v>48956.91</v>
@@ -3265,10 +3265,10 @@
         <v>12</v>
       </c>
       <c r="E69" t="n">
+        <v>50387.25</v>
+      </c>
+      <c r="F69" t="n">
         <v>52104.69</v>
-      </c>
-      <c r="F69" t="n">
-        <v>50387.25</v>
       </c>
       <c r="G69" t="n">
         <v>51528.76</v>
@@ -3297,10 +3297,10 @@
         <v>12</v>
       </c>
       <c r="E70" t="n">
+        <v>29283.3</v>
+      </c>
+      <c r="F70" t="n">
         <v>87769.91</v>
-      </c>
-      <c r="F70" t="n">
-        <v>29283.3</v>
       </c>
       <c r="G70" t="n">
         <v>72477.14</v>
@@ -3329,19 +3329,19 @@
         <v>12</v>
       </c>
       <c r="E71" t="n">
+        <v>78879.34</v>
+      </c>
+      <c r="F71" t="n">
         <v>78222.89</v>
-      </c>
-      <c r="F71" t="n">
-        <v>78879.34</v>
       </c>
       <c r="G71" t="n">
         <v>81398.2</v>
       </c>
       <c r="H71" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="I71" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="J71" t="s">
         <v>186</v>
@@ -3361,10 +3361,10 @@
         <v>12</v>
       </c>
       <c r="E72" t="n">
+        <v>48732.37</v>
+      </c>
+      <c r="F72" t="n">
         <v>50682.76</v>
-      </c>
-      <c r="F72" t="n">
-        <v>48732.37</v>
       </c>
       <c r="G72" t="n">
         <v>50961.69</v>
@@ -3393,22 +3393,22 @@
         <v>12</v>
       </c>
       <c r="E73" t="n">
+        <v>63133.17</v>
+      </c>
+      <c r="F73" t="n">
         <v>40111.32</v>
-      </c>
-      <c r="F73" t="n">
-        <v>63133.17</v>
       </c>
       <c r="G73" t="n">
         <v>40564.48</v>
       </c>
       <c r="H73" t="s">
+        <v>190</v>
+      </c>
+      <c r="I73" t="s">
         <v>59</v>
       </c>
-      <c r="I73" t="s">
-        <v>190</v>
-      </c>
       <c r="J73" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="74">
@@ -3425,16 +3425,20 @@
         <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>68084.36</v>
-      </c>
-      <c r="F74"/>
+        <v>92742.29</v>
+      </c>
+      <c r="F74" t="n">
+        <v>203177.15</v>
+      </c>
       <c r="G74" t="n">
-        <v>67272.93</v>
+        <v>203177.15</v>
       </c>
       <c r="H74" t="s">
         <v>191</v>
       </c>
-      <c r="I74"/>
+      <c r="I74" t="s">
+        <v>192</v>
+      </c>
       <c r="J74" t="s">
         <v>192</v>
       </c>
@@ -3447,22 +3451,26 @@
         <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
       <c r="E75" t="n">
-        <v>59561.91</v>
-      </c>
-      <c r="F75"/>
+        <v>16001.71</v>
+      </c>
+      <c r="F75" t="n">
+        <v>93833.59</v>
+      </c>
       <c r="G75" t="n">
-        <v>65314.04</v>
+        <v>93833.59</v>
       </c>
       <c r="H75" t="s">
         <v>193</v>
       </c>
-      <c r="I75"/>
+      <c r="I75" t="s">
+        <v>194</v>
+      </c>
       <c r="J75" t="s">
         <v>194</v>
       </c>
@@ -3475,24 +3483,28 @@
         <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
       <c r="E76" t="n">
-        <v>54394.15</v>
-      </c>
-      <c r="F76"/>
+        <v>49059.12</v>
+      </c>
+      <c r="F76" t="n">
+        <v>67443.67</v>
+      </c>
       <c r="G76" t="n">
-        <v>61604.5</v>
+        <v>63842.21</v>
       </c>
       <c r="H76" t="s">
         <v>195</v>
       </c>
-      <c r="I76"/>
+      <c r="I76" t="s">
+        <v>196</v>
+      </c>
       <c r="J76" t="s">
-        <v>86</v>
+        <v>197</v>
       </c>
     </row>
     <row r="77">
@@ -3503,24 +3515,28 @@
         <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
       <c r="E77" t="n">
-        <v>35023.65</v>
-      </c>
-      <c r="F77"/>
+        <v>56924.43</v>
+      </c>
+      <c r="F77" t="n">
+        <v>57747.89</v>
+      </c>
       <c r="G77" t="n">
-        <v>35007.13</v>
+        <v>55131.56</v>
       </c>
       <c r="H77" t="s">
-        <v>196</v>
-      </c>
-      <c r="I77"/>
+        <v>198</v>
+      </c>
+      <c r="I77" t="s">
+        <v>199</v>
+      </c>
       <c r="J77" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -3531,29 +3547,17 @@
         <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
-      <c r="E78" t="n">
-        <v>203177.15</v>
-      </c>
-      <c r="F78" t="n">
-        <v>92742.29</v>
-      </c>
-      <c r="G78" t="n">
-        <v>203177.15</v>
-      </c>
-      <c r="H78" t="s">
-        <v>197</v>
-      </c>
-      <c r="I78" t="s">
-        <v>198</v>
-      </c>
-      <c r="J78" t="s">
-        <v>197</v>
-      </c>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+      <c r="I78"/>
+      <c r="J78"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3563,28 +3567,24 @@
         <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
-      <c r="E79" t="n">
-        <v>93833.59</v>
-      </c>
+      <c r="E79"/>
       <c r="F79" t="n">
-        <v>16001.71</v>
+        <v>68084.36</v>
       </c>
       <c r="G79" t="n">
-        <v>93833.59</v>
-      </c>
-      <c r="H79" t="s">
-        <v>199</v>
-      </c>
+        <v>67272.93</v>
+      </c>
+      <c r="H79"/>
       <c r="I79" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J79" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80">
@@ -3595,28 +3595,24 @@
         <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
-      <c r="E80" t="n">
-        <v>67443.67</v>
-      </c>
+      <c r="E80"/>
       <c r="F80" t="n">
-        <v>49059.12</v>
+        <v>59561.91</v>
       </c>
       <c r="G80" t="n">
-        <v>63842.21</v>
-      </c>
-      <c r="H80" t="s">
-        <v>201</v>
-      </c>
+        <v>65314.04</v>
+      </c>
+      <c r="H80"/>
       <c r="I80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="J80" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81">
@@ -3632,23 +3628,19 @@
       <c r="D81" t="s">
         <v>12</v>
       </c>
-      <c r="E81" t="n">
-        <v>57747.89</v>
-      </c>
+      <c r="E81"/>
       <c r="F81" t="n">
-        <v>56924.43</v>
+        <v>54394.15</v>
       </c>
       <c r="G81" t="n">
-        <v>55131.56</v>
-      </c>
-      <c r="H81" t="s">
-        <v>204</v>
-      </c>
+        <v>61604.5</v>
+      </c>
+      <c r="H81"/>
       <c r="I81" t="s">
         <v>205</v>
       </c>
       <c r="J81" t="s">
-        <v>206</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82">
@@ -3659,17 +3651,25 @@
         <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
       <c r="E82"/>
-      <c r="F82"/>
-      <c r="G82"/>
+      <c r="F82" t="n">
+        <v>35023.65</v>
+      </c>
+      <c r="G82" t="n">
+        <v>35007.13</v>
+      </c>
       <c r="H82"/>
-      <c r="I82"/>
-      <c r="J82"/>
+      <c r="I82" t="s">
+        <v>206</v>
+      </c>
+      <c r="J82" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3684,17 +3684,17 @@
       <c r="D83" t="s">
         <v>12</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83"/>
+      <c r="F83" t="n">
         <v>55763.13</v>
       </c>
-      <c r="F83"/>
       <c r="G83" t="n">
         <v>60544.14</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83"/>
+      <c r="I83" t="s">
         <v>207</v>
       </c>
-      <c r="I83"/>
       <c r="J83" t="s">
         <v>208</v>
       </c>
@@ -3713,19 +3713,19 @@
         <v>12</v>
       </c>
       <c r="E84" t="n">
+        <v>49059.12</v>
+      </c>
+      <c r="F84" t="n">
         <v>56503.17</v>
-      </c>
-      <c r="F84" t="n">
-        <v>49059.12</v>
       </c>
       <c r="G84" t="n">
         <v>61600.76</v>
       </c>
       <c r="H84" t="s">
+        <v>195</v>
+      </c>
+      <c r="I84" t="s">
         <v>209</v>
-      </c>
-      <c r="I84" t="s">
-        <v>202</v>
       </c>
       <c r="J84" t="s">
         <v>210</v>
@@ -3745,10 +3745,10 @@
         <v>12</v>
       </c>
       <c r="E85" t="n">
+        <v>73009.11</v>
+      </c>
+      <c r="F85" t="n">
         <v>70979.14</v>
-      </c>
-      <c r="F85" t="n">
-        <v>73009.11</v>
       </c>
       <c r="G85" t="n">
         <v>72321.75</v>
@@ -3777,19 +3777,19 @@
         <v>12</v>
       </c>
       <c r="E86" t="n">
+        <v>62710.22</v>
+      </c>
+      <c r="F86" t="n">
         <v>65109.61</v>
-      </c>
-      <c r="F86" t="n">
-        <v>62710.22</v>
       </c>
       <c r="G86" t="n">
         <v>63866.81</v>
       </c>
       <c r="H86" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="I86" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="J86" t="s">
         <v>215</v>
@@ -3977,7 +3977,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
@@ -4009,7 +4009,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>12</v>
@@ -4041,7 +4041,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
@@ -4073,7 +4073,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -4105,7 +4105,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -4271,10 +4271,10 @@
         <v>12</v>
       </c>
       <c r="E15" t="n">
+        <v>3129.8</v>
+      </c>
+      <c r="F15" t="n">
         <v>3066.38</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3129.8</v>
       </c>
       <c r="G15" t="n">
         <v>3129.8</v>
@@ -4286,7 +4286,7 @@
         <v>228</v>
       </c>
       <c r="J15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
@@ -4361,7 +4361,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
@@ -4393,7 +4393,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>12</v>
@@ -4425,7 +4425,7 @@
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
@@ -4457,7 +4457,7 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
@@ -4489,7 +4489,7 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
@@ -4579,10 +4579,10 @@
         <v>12</v>
       </c>
       <c r="E25" t="n">
+        <v>19135.04</v>
+      </c>
+      <c r="F25" t="n">
         <v>18917.41</v>
-      </c>
-      <c r="F25" t="n">
-        <v>19135.04</v>
       </c>
       <c r="G25" t="n">
         <v>19135.04</v>
@@ -4594,7 +4594,7 @@
         <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
@@ -4733,7 +4733,7 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
@@ -4765,7 +4765,7 @@
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
@@ -4797,7 +4797,7 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
@@ -4829,28 +4829,28 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="n">
+        <v>14495.7</v>
+      </c>
+      <c r="F33" t="n">
         <v>14274.39</v>
-      </c>
-      <c r="F33" t="n">
-        <v>14495.7</v>
       </c>
       <c r="G33" t="n">
         <v>14495.7</v>
       </c>
       <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
         <v>245</v>
       </c>
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -4861,7 +4861,7 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
@@ -4960,13 +4960,13 @@
         <v>18234.69</v>
       </c>
       <c r="H37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -5105,7 +5105,7 @@
         <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
@@ -5137,7 +5137,7 @@
         <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
@@ -5169,7 +5169,7 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -5201,25 +5201,25 @@
         <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="n">
+        <v>15037.54</v>
+      </c>
+      <c r="F45" t="n">
         <v>14655.46</v>
-      </c>
-      <c r="F45" t="n">
-        <v>15037.54</v>
       </c>
       <c r="G45" t="n">
         <v>15037.54</v>
       </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="I45" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="J45" t="s">
         <v>254</v>
@@ -5233,7 +5233,7 @@
         <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
@@ -5323,10 +5323,10 @@
         <v>12</v>
       </c>
       <c r="E49" t="n">
+        <v>15168.86</v>
+      </c>
+      <c r="F49" t="n">
         <v>15162.5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>15168.86</v>
       </c>
       <c r="G49" t="n">
         <v>15168.86</v>
@@ -5387,22 +5387,22 @@
         <v>12</v>
       </c>
       <c r="E51" t="n">
+        <v>25539.83</v>
+      </c>
+      <c r="F51" t="n">
         <v>26519.01</v>
-      </c>
-      <c r="F51" t="n">
-        <v>25539.83</v>
       </c>
       <c r="G51" t="n">
         <v>25539.83</v>
       </c>
       <c r="H51" t="s">
+        <v>175</v>
+      </c>
+      <c r="I51" t="s">
         <v>57</v>
       </c>
-      <c r="I51" t="s">
-        <v>176</v>
-      </c>
       <c r="J51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52">
@@ -5419,22 +5419,22 @@
         <v>12</v>
       </c>
       <c r="E52" t="n">
+        <v>12103.9</v>
+      </c>
+      <c r="F52" t="n">
         <v>11052.17</v>
-      </c>
-      <c r="F52" t="n">
-        <v>12103.9</v>
       </c>
       <c r="G52" t="n">
         <v>12103.9</v>
       </c>
       <c r="H52" t="s">
+        <v>182</v>
+      </c>
+      <c r="I52" t="s">
         <v>258</v>
       </c>
-      <c r="I52" t="s">
-        <v>183</v>
-      </c>
       <c r="J52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
@@ -5460,13 +5460,13 @@
         <v>22555.66</v>
       </c>
       <c r="H53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54">
@@ -5477,7 +5477,7 @@
         <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
@@ -5509,7 +5509,7 @@
         <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
@@ -5541,16 +5541,16 @@
         <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="n">
+        <v>19837.44</v>
+      </c>
+      <c r="F56" t="n">
         <v>19752.61</v>
-      </c>
-      <c r="F56" t="n">
-        <v>19837.44</v>
       </c>
       <c r="G56" t="n">
         <v>19837.44</v>
@@ -5562,7 +5562,7 @@
         <v>262</v>
       </c>
       <c r="J56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57">
@@ -5573,7 +5573,7 @@
         <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
@@ -5631,10 +5631,10 @@
         <v>12</v>
       </c>
       <c r="E59" t="n">
+        <v>25182.46</v>
+      </c>
+      <c r="F59" t="n">
         <v>25133.68</v>
-      </c>
-      <c r="F59" t="n">
-        <v>25182.46</v>
       </c>
       <c r="G59" t="n">
         <v>25182.46</v>
@@ -5646,7 +5646,7 @@
         <v>264</v>
       </c>
       <c r="J59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60">
@@ -5663,19 +5663,19 @@
         <v>12</v>
       </c>
       <c r="E60" t="n">
+        <v>20207.3</v>
+      </c>
+      <c r="F60" t="n">
         <v>20205.77</v>
-      </c>
-      <c r="F60" t="n">
-        <v>20207.3</v>
       </c>
       <c r="G60" t="n">
         <v>20207.3</v>
       </c>
       <c r="H60" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I60" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J60" t="s">
         <v>265</v>
@@ -5741,10 +5741,10 @@
         <v>266</v>
       </c>
       <c r="E2" t="n">
+        <v>56650.32</v>
+      </c>
+      <c r="F2" t="n">
         <v>67779.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>56650.32</v>
       </c>
       <c r="G2" t="n">
         <v>98888.6</v>
@@ -5773,10 +5773,10 @@
         <v>266</v>
       </c>
       <c r="E3" t="n">
+        <v>65162.17</v>
+      </c>
+      <c r="F3" t="n">
         <v>66060.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>65162.17</v>
       </c>
       <c r="G3" t="n">
         <v>66997.32</v>
@@ -5805,10 +5805,10 @@
         <v>266</v>
       </c>
       <c r="E4" t="n">
+        <v>67685.51</v>
+      </c>
+      <c r="F4" t="n">
         <v>64933.62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67685.51</v>
       </c>
       <c r="G4" t="n">
         <v>64662.71</v>
@@ -5837,10 +5837,10 @@
         <v>266</v>
       </c>
       <c r="E5" t="n">
+        <v>53969.05</v>
+      </c>
+      <c r="F5" t="n">
         <v>39203.58</v>
-      </c>
-      <c r="F5" t="n">
-        <v>53969.05</v>
       </c>
       <c r="G5" t="n">
         <v>40032.82</v>
@@ -5863,24 +5863,28 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>266</v>
       </c>
       <c r="E6" t="n">
-        <v>58357.01</v>
-      </c>
-      <c r="F6"/>
+        <v>71959.35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100232.03</v>
+      </c>
       <c r="G6" t="n">
-        <v>61429.97</v>
+        <v>102049.11</v>
       </c>
       <c r="H6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I6"/>
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
       <c r="J6" t="s">
-        <v>267</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -5891,24 +5895,28 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>266</v>
       </c>
       <c r="E7" t="n">
-        <v>57374.37</v>
-      </c>
-      <c r="F7"/>
+        <v>67326.12</v>
+      </c>
+      <c r="F7" t="n">
+        <v>86735.41</v>
+      </c>
       <c r="G7" t="n">
-        <v>61364.72</v>
+        <v>88804.43</v>
       </c>
       <c r="H7" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" t="s">
         <v>34</v>
       </c>
-      <c r="I7"/>
       <c r="J7" t="s">
-        <v>221</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -5919,28 +5927,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>266</v>
       </c>
       <c r="E8" t="n">
-        <v>100232.03</v>
+        <v>67034.41</v>
       </c>
       <c r="F8" t="n">
-        <v>71959.35</v>
+        <v>67696.4</v>
       </c>
       <c r="G8" t="n">
-        <v>102049.11</v>
+        <v>67570.55</v>
       </c>
       <c r="H8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" t="s">
         <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -5951,28 +5959,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>266</v>
       </c>
       <c r="E9" t="n">
-        <v>86735.41</v>
+        <v>54340.31</v>
       </c>
       <c r="F9" t="n">
-        <v>67326.12</v>
+        <v>53907.34</v>
       </c>
       <c r="G9" t="n">
-        <v>88804.43</v>
+        <v>52583.17</v>
       </c>
       <c r="H9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -5983,28 +5991,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>266</v>
       </c>
       <c r="E10" t="n">
-        <v>67696.4</v>
+        <v>63569.66</v>
       </c>
       <c r="F10" t="n">
-        <v>67034.41</v>
+        <v>63569.66</v>
       </c>
       <c r="G10" t="n">
-        <v>67570.55</v>
+        <v>63569.66</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -6020,23 +6028,19 @@
       <c r="D11" t="s">
         <v>266</v>
       </c>
-      <c r="E11" t="n">
-        <v>53907.34</v>
-      </c>
+      <c r="E11"/>
       <c r="F11" t="n">
-        <v>54340.31</v>
+        <v>58357.01</v>
       </c>
       <c r="G11" t="n">
-        <v>52583.17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>18</v>
-      </c>
+        <v>61429.97</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="J11" t="s">
-        <v>52</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12">
@@ -6047,28 +6051,24 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="D12" t="s">
         <v>266</v>
       </c>
-      <c r="E12" t="n">
-        <v>63569.66</v>
-      </c>
+      <c r="E12"/>
       <c r="F12" t="n">
-        <v>63569.66</v>
+        <v>57374.37</v>
       </c>
       <c r="G12" t="n">
-        <v>63569.66</v>
-      </c>
-      <c r="H12" t="s">
-        <v>54</v>
-      </c>
+        <v>61364.72</v>
+      </c>
+      <c r="H12"/>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s">
-        <v>54</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13">
@@ -6084,17 +6084,17 @@
       <c r="D13" t="s">
         <v>266</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13"/>
+      <c r="F13" t="n">
         <v>57852.48</v>
       </c>
-      <c r="F13"/>
       <c r="G13" t="n">
         <v>62088.65</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13"/>
+      <c r="I13" t="s">
         <v>56</v>
       </c>
-      <c r="I13"/>
       <c r="J13" t="s">
         <v>57</v>
       </c>
@@ -6113,19 +6113,19 @@
         <v>266</v>
       </c>
       <c r="E14" t="n">
+        <v>67034.41</v>
+      </c>
+      <c r="F14" t="n">
         <v>60891.53</v>
-      </c>
-      <c r="F14" t="n">
-        <v>67034.41</v>
       </c>
       <c r="G14" t="n">
         <v>64060.53</v>
       </c>
       <c r="H14" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" t="s">
         <v>59</v>
-      </c>
-      <c r="I14" t="s">
-        <v>48</v>
       </c>
       <c r="J14" t="s">
         <v>60</v>
@@ -6145,10 +6145,10 @@
         <v>266</v>
       </c>
       <c r="E15" t="n">
+        <v>73958.3</v>
+      </c>
+      <c r="F15" t="n">
         <v>72874.57</v>
-      </c>
-      <c r="F15" t="n">
-        <v>73958.3</v>
       </c>
       <c r="G15" t="n">
         <v>73062.71</v>
@@ -6177,19 +6177,19 @@
         <v>266</v>
       </c>
       <c r="E16" t="n">
+        <v>63569.66</v>
+      </c>
+      <c r="F16" t="n">
         <v>65209.98</v>
-      </c>
-      <c r="F16" t="n">
-        <v>63569.66</v>
       </c>
       <c r="G16" t="n">
         <v>64238.79</v>
       </c>
       <c r="H16" t="s">
+        <v>44</v>
+      </c>
+      <c r="I16" t="s">
         <v>66</v>
-      </c>
-      <c r="I16" t="s">
-        <v>54</v>
       </c>
       <c r="J16" t="s">
         <v>67</v>
@@ -6209,10 +6209,10 @@
         <v>266</v>
       </c>
       <c r="E17" t="n">
+        <v>40709.58</v>
+      </c>
+      <c r="F17" t="n">
         <v>46893.44</v>
-      </c>
-      <c r="F17" t="n">
-        <v>40709.58</v>
       </c>
       <c r="G17" t="n">
         <v>68795.47</v>
@@ -6241,10 +6241,10 @@
         <v>266</v>
       </c>
       <c r="E18" t="n">
+        <v>62918.42</v>
+      </c>
+      <c r="F18" t="n">
         <v>66268.67</v>
-      </c>
-      <c r="F18" t="n">
-        <v>62918.42</v>
       </c>
       <c r="G18" t="n">
         <v>66641.57</v>
@@ -6273,10 +6273,10 @@
         <v>266</v>
       </c>
       <c r="E19" t="n">
+        <v>75620.82</v>
+      </c>
+      <c r="F19" t="n">
         <v>77556.5</v>
-      </c>
-      <c r="F19" t="n">
-        <v>75620.82</v>
       </c>
       <c r="G19" t="n">
         <v>75886.03</v>
@@ -6305,19 +6305,19 @@
         <v>266</v>
       </c>
       <c r="E20" t="n">
+        <v>65147.2</v>
+      </c>
+      <c r="F20" t="n">
         <v>49374.94</v>
-      </c>
-      <c r="F20" t="n">
-        <v>65147.2</v>
       </c>
       <c r="G20" t="n">
         <v>50339.6</v>
       </c>
       <c r="H20" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" t="s">
         <v>66</v>
-      </c>
-      <c r="I20" t="s">
-        <v>78</v>
       </c>
       <c r="J20" t="s">
         <v>79</v>
@@ -6331,24 +6331,28 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D21" t="s">
         <v>266</v>
       </c>
       <c r="E21" t="n">
-        <v>77520.24</v>
-      </c>
-      <c r="F21"/>
+        <v>52719.32</v>
+      </c>
+      <c r="F21" t="n">
+        <v>40049.16</v>
+      </c>
       <c r="G21" t="n">
-        <v>76922.56</v>
+        <v>41866.24</v>
       </c>
       <c r="H21" t="s">
-        <v>269</v>
-      </c>
-      <c r="I21"/>
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
+        <v>81</v>
+      </c>
       <c r="J21" t="s">
-        <v>270</v>
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -6359,24 +6363,28 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
         <v>266</v>
       </c>
       <c r="E22" t="n">
-        <v>59248.27</v>
-      </c>
-      <c r="F22"/>
+        <v>106682.66</v>
+      </c>
+      <c r="F22" t="n">
+        <v>115198.49</v>
+      </c>
       <c r="G22" t="n">
-        <v>74904.15</v>
+        <v>120602.57</v>
       </c>
       <c r="H22" t="s">
-        <v>80</v>
-      </c>
-      <c r="I22"/>
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
       <c r="J22" t="s">
-        <v>271</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -6387,28 +6395,28 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
         <v>266</v>
       </c>
       <c r="E23" t="n">
-        <v>40049.16</v>
+        <v>86928.2</v>
       </c>
       <c r="F23" t="n">
-        <v>52719.32</v>
+        <v>79611.09</v>
       </c>
       <c r="G23" t="n">
-        <v>41866.24</v>
+        <v>76085.86</v>
       </c>
       <c r="H23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I23" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J23" t="s">
-        <v>90</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24">
@@ -6419,28 +6427,28 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
         <v>266</v>
       </c>
       <c r="E24" t="n">
-        <v>115198.49</v>
+        <v>61788.66</v>
       </c>
       <c r="F24" t="n">
-        <v>106682.66</v>
+        <v>59697.38</v>
       </c>
       <c r="G24" t="n">
-        <v>120602.57</v>
+        <v>58151.19</v>
       </c>
       <c r="H24" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I24" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -6451,29 +6459,17 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
         <v>266</v>
       </c>
-      <c r="E25" t="n">
-        <v>79611.09</v>
-      </c>
-      <c r="F25" t="n">
-        <v>86928.2</v>
-      </c>
-      <c r="G25" t="n">
-        <v>76085.86</v>
-      </c>
-      <c r="H25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" t="s">
-        <v>95</v>
-      </c>
-      <c r="J25" t="s">
-        <v>40</v>
-      </c>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -6488,23 +6484,19 @@
       <c r="D26" t="s">
         <v>266</v>
       </c>
-      <c r="E26" t="n">
-        <v>59697.38</v>
-      </c>
+      <c r="E26"/>
       <c r="F26" t="n">
-        <v>61788.66</v>
+        <v>77520.24</v>
       </c>
       <c r="G26" t="n">
-        <v>58151.19</v>
-      </c>
-      <c r="H26" t="s">
-        <v>96</v>
-      </c>
+        <v>76922.56</v>
+      </c>
+      <c r="H26"/>
       <c r="I26" t="s">
-        <v>97</v>
+        <v>269</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27">
@@ -6515,17 +6507,25 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="D27" t="s">
         <v>266</v>
       </c>
       <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
+      <c r="F27" t="n">
+        <v>59248.27</v>
+      </c>
+      <c r="G27" t="n">
+        <v>74904.15</v>
+      </c>
       <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="I27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -6540,17 +6540,17 @@
       <c r="D28" t="s">
         <v>266</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28"/>
+      <c r="F28" t="n">
         <v>75274.59</v>
       </c>
-      <c r="F28"/>
       <c r="G28" t="n">
         <v>76873.76</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28"/>
+      <c r="I28" t="s">
         <v>99</v>
       </c>
-      <c r="I28"/>
       <c r="J28" t="s">
         <v>100</v>
       </c>
@@ -6569,22 +6569,22 @@
         <v>266</v>
       </c>
       <c r="E29" t="n">
+        <v>86928.2</v>
+      </c>
+      <c r="F29" t="n">
         <v>75855.02</v>
-      </c>
-      <c r="F29" t="n">
-        <v>86928.2</v>
       </c>
       <c r="G29" t="n">
         <v>77777.84</v>
       </c>
       <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29" t="s">
         <v>101</v>
       </c>
-      <c r="I29" t="s">
-        <v>95</v>
-      </c>
       <c r="J29" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="30">
@@ -6601,10 +6601,10 @@
         <v>266</v>
       </c>
       <c r="E30" t="n">
+        <v>93167.35</v>
+      </c>
+      <c r="F30" t="n">
         <v>92066.89</v>
-      </c>
-      <c r="F30" t="n">
-        <v>93167.35</v>
       </c>
       <c r="G30" t="n">
         <v>92094.76</v>
@@ -6633,19 +6633,19 @@
         <v>266</v>
       </c>
       <c r="E31" t="n">
+        <v>78742.82</v>
+      </c>
+      <c r="F31" t="n">
         <v>80239.61</v>
-      </c>
-      <c r="F31" t="n">
-        <v>78742.82</v>
       </c>
       <c r="G31" t="n">
         <v>79586.99</v>
       </c>
       <c r="H31" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" t="s">
         <v>105</v>
-      </c>
-      <c r="I31" t="s">
-        <v>66</v>
       </c>
       <c r="J31" t="s">
         <v>106</v>
@@ -6665,10 +6665,10 @@
         <v>266</v>
       </c>
       <c r="E32" t="n">
+        <v>49697.94</v>
+      </c>
+      <c r="F32" t="n">
         <v>36916.11</v>
-      </c>
-      <c r="F32" t="n">
-        <v>49697.94</v>
       </c>
       <c r="G32" t="n">
         <v>36413.11</v>
@@ -6697,10 +6697,10 @@
         <v>266</v>
       </c>
       <c r="E33" t="n">
+        <v>77046.24</v>
+      </c>
+      <c r="F33" t="n">
         <v>63529.38</v>
-      </c>
-      <c r="F33" t="n">
-        <v>77046.24</v>
       </c>
       <c r="G33" t="n">
         <v>71384.48</v>
@@ -6729,10 +6729,10 @@
         <v>266</v>
       </c>
       <c r="E34" t="n">
+        <v>67277.61</v>
+      </c>
+      <c r="F34" t="n">
         <v>47427.43</v>
-      </c>
-      <c r="F34" t="n">
-        <v>67277.61</v>
       </c>
       <c r="G34" t="n">
         <v>47427.43</v>
@@ -6744,7 +6744,7 @@
         <v>115</v>
       </c>
       <c r="J34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -6761,10 +6761,10 @@
         <v>266</v>
       </c>
       <c r="E35" t="n">
+        <v>58425.72</v>
+      </c>
+      <c r="F35" t="n">
         <v>23659.71</v>
-      </c>
-      <c r="F35" t="n">
-        <v>58425.72</v>
       </c>
       <c r="G35" t="n">
         <v>15406.55</v>
@@ -6787,24 +6787,28 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>266</v>
       </c>
       <c r="E36" t="n">
-        <v>58480.71</v>
-      </c>
-      <c r="F36"/>
+        <v>98049.02</v>
+      </c>
+      <c r="F36" t="n">
+        <v>131996.2</v>
+      </c>
       <c r="G36" t="n">
-        <v>62443.56</v>
+        <v>131996.2</v>
       </c>
       <c r="H36" t="s">
-        <v>272</v>
-      </c>
-      <c r="I36"/>
+        <v>119</v>
+      </c>
+      <c r="I36" t="s">
+        <v>120</v>
+      </c>
       <c r="J36" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37">
@@ -6815,24 +6819,28 @@
         <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="D37" t="s">
         <v>266</v>
       </c>
       <c r="E37" t="n">
-        <v>72037.8</v>
-      </c>
-      <c r="F37"/>
+        <v>-147958.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-155121.33</v>
+      </c>
       <c r="G37" t="n">
-        <v>65725.79</v>
+        <v>-155121.33</v>
       </c>
       <c r="H37" t="s">
-        <v>273</v>
-      </c>
-      <c r="I37"/>
+        <v>121</v>
+      </c>
+      <c r="I37" t="s">
+        <v>122</v>
+      </c>
       <c r="J37" t="s">
-        <v>274</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38">
@@ -6843,28 +6851,28 @@
         <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
         <v>266</v>
       </c>
       <c r="E38" t="n">
-        <v>131996.2</v>
+        <v>69626.55</v>
       </c>
       <c r="F38" t="n">
-        <v>98049.02</v>
+        <v>47163.7</v>
       </c>
       <c r="G38" t="n">
-        <v>131996.2</v>
+        <v>41541.8</v>
       </c>
       <c r="H38" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="I38" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="J38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39">
@@ -6875,25 +6883,25 @@
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
         <v>266</v>
       </c>
       <c r="E39" t="n">
-        <v>-155121.33</v>
+        <v>48419.84</v>
       </c>
       <c r="F39" t="n">
-        <v>-147958.3</v>
+        <v>48201.12</v>
       </c>
       <c r="G39" t="n">
-        <v>-155121.33</v>
+        <v>46093.54</v>
       </c>
       <c r="H39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J39" t="s">
         <v>128</v>
@@ -6907,29 +6915,17 @@
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
         <v>266</v>
       </c>
-      <c r="E40" t="n">
-        <v>47163.7</v>
-      </c>
-      <c r="F40" t="n">
-        <v>69626.55</v>
-      </c>
-      <c r="G40" t="n">
-        <v>41541.8</v>
-      </c>
-      <c r="H40" t="s">
-        <v>130</v>
-      </c>
-      <c r="I40" t="s">
-        <v>131</v>
-      </c>
-      <c r="J40" t="s">
-        <v>132</v>
-      </c>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6944,23 +6940,19 @@
       <c r="D41" t="s">
         <v>266</v>
       </c>
-      <c r="E41" t="n">
-        <v>48201.12</v>
-      </c>
+      <c r="E41"/>
       <c r="F41" t="n">
-        <v>48419.84</v>
+        <v>58480.71</v>
       </c>
       <c r="G41" t="n">
-        <v>46093.54</v>
-      </c>
-      <c r="H41" t="s">
-        <v>133</v>
-      </c>
+        <v>62443.56</v>
+      </c>
+      <c r="H41"/>
       <c r="I41" t="s">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="J41" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
     </row>
     <row r="42">
@@ -6971,17 +6963,25 @@
         <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="D42" t="s">
         <v>266</v>
       </c>
       <c r="E42"/>
-      <c r="F42"/>
-      <c r="G42"/>
+      <c r="F42" t="n">
+        <v>72037.8</v>
+      </c>
+      <c r="G42" t="n">
+        <v>65725.79</v>
+      </c>
       <c r="H42"/>
-      <c r="I42"/>
-      <c r="J42"/>
+      <c r="I42" t="s">
+        <v>273</v>
+      </c>
+      <c r="J42" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -6996,17 +6996,17 @@
       <c r="D43" t="s">
         <v>266</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43"/>
+      <c r="F43" t="n">
         <v>63099.08</v>
       </c>
-      <c r="F43"/>
       <c r="G43" t="n">
         <v>65234.63</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43"/>
+      <c r="I43" t="s">
         <v>136</v>
       </c>
-      <c r="I43"/>
       <c r="J43" t="s">
         <v>137</v>
       </c>
@@ -7025,19 +7025,19 @@
         <v>266</v>
       </c>
       <c r="E44" t="n">
+        <v>69626.55</v>
+      </c>
+      <c r="F44" t="n">
         <v>64050.35</v>
-      </c>
-      <c r="F44" t="n">
-        <v>69626.55</v>
       </c>
       <c r="G44" t="n">
         <v>68284.84</v>
       </c>
       <c r="H44" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" t="s">
         <v>138</v>
-      </c>
-      <c r="I44" t="s">
-        <v>131</v>
       </c>
       <c r="J44" t="s">
         <v>139</v>
@@ -7057,10 +7057,10 @@
         <v>266</v>
       </c>
       <c r="E45" t="n">
+        <v>65807.23</v>
+      </c>
+      <c r="F45" t="n">
         <v>61103.75</v>
-      </c>
-      <c r="F45" t="n">
-        <v>65807.23</v>
       </c>
       <c r="G45" t="n">
         <v>61725.44</v>
@@ -7089,10 +7089,10 @@
         <v>266</v>
       </c>
       <c r="E46" t="n">
+        <v>53251.85</v>
+      </c>
+      <c r="F46" t="n">
         <v>52946.44</v>
-      </c>
-      <c r="F46" t="n">
-        <v>53251.85</v>
       </c>
       <c r="G46" t="n">
         <v>49839.57</v>
@@ -7121,10 +7121,10 @@
         <v>266</v>
       </c>
       <c r="E47" t="n">
+        <v>32529.52</v>
+      </c>
+      <c r="F47" t="n">
         <v>127496.19</v>
-      </c>
-      <c r="F47" t="n">
-        <v>32529.52</v>
       </c>
       <c r="G47" t="n">
         <v>127496.19</v>
@@ -7136,7 +7136,7 @@
         <v>148</v>
       </c>
       <c r="J47" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48">
@@ -7153,10 +7153,10 @@
         <v>266</v>
       </c>
       <c r="E48" t="n">
+        <v>43416.39</v>
+      </c>
+      <c r="F48" t="n">
         <v>26117.08</v>
-      </c>
-      <c r="F48" t="n">
-        <v>43416.39</v>
       </c>
       <c r="G48" t="n">
         <v>26568.06</v>
@@ -7168,7 +7168,7 @@
         <v>150</v>
       </c>
       <c r="J48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="49">
@@ -7185,10 +7185,10 @@
         <v>266</v>
       </c>
       <c r="E49" t="n">
+        <v>57614.93</v>
+      </c>
+      <c r="F49" t="n">
         <v>57435.69</v>
-      </c>
-      <c r="F49" t="n">
-        <v>57614.93</v>
       </c>
       <c r="G49" t="n">
         <v>58782.49</v>
@@ -7217,10 +7217,10 @@
         <v>266</v>
       </c>
       <c r="E50" t="n">
+        <v>37827.05</v>
+      </c>
+      <c r="F50" t="n">
         <v>36689.68</v>
-      </c>
-      <c r="F50" t="n">
-        <v>37827.05</v>
       </c>
       <c r="G50" t="n">
         <v>36730.33</v>
@@ -7243,24 +7243,28 @@
         <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D51" t="s">
         <v>266</v>
       </c>
       <c r="E51" t="n">
-        <v>49784.03</v>
-      </c>
-      <c r="F51"/>
+        <v>64264.57</v>
+      </c>
+      <c r="F51" t="n">
+        <v>108940.15</v>
+      </c>
       <c r="G51" t="n">
-        <v>47536.49</v>
+        <v>112556.86</v>
       </c>
       <c r="H51" t="s">
-        <v>207</v>
-      </c>
-      <c r="I51"/>
+        <v>157</v>
+      </c>
+      <c r="I51" t="s">
+        <v>158</v>
+      </c>
       <c r="J51" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="52">
@@ -7271,24 +7275,28 @@
         <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="D52" t="s">
         <v>266</v>
       </c>
       <c r="E52" t="n">
-        <v>46089.56</v>
-      </c>
-      <c r="F52"/>
+        <v>60509.46</v>
+      </c>
+      <c r="F52" t="n">
+        <v>62311.75</v>
+      </c>
       <c r="G52" t="n">
-        <v>54621.87</v>
+        <v>59985.74</v>
       </c>
       <c r="H52" t="s">
-        <v>252</v>
-      </c>
-      <c r="I52"/>
+        <v>160</v>
+      </c>
+      <c r="I52" t="s">
+        <v>161</v>
+      </c>
       <c r="J52" t="s">
-        <v>275</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53">
@@ -7299,28 +7307,28 @@
         <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
         <v>266</v>
       </c>
       <c r="E53" t="n">
-        <v>108940.15</v>
+        <v>46818.94</v>
       </c>
       <c r="F53" t="n">
-        <v>64264.57</v>
+        <v>58224.97</v>
       </c>
       <c r="G53" t="n">
-        <v>112556.86</v>
+        <v>55513.29</v>
       </c>
       <c r="H53" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="I53" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="J53" t="s">
-        <v>164</v>
+        <v>139</v>
       </c>
     </row>
     <row r="54">
@@ -7331,28 +7339,28 @@
         <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
         <v>266</v>
       </c>
       <c r="E54" t="n">
-        <v>62311.75</v>
+        <v>48459.64</v>
       </c>
       <c r="F54" t="n">
-        <v>60509.46</v>
+        <v>49057.05</v>
       </c>
       <c r="G54" t="n">
-        <v>59985.74</v>
+        <v>47869.67</v>
       </c>
       <c r="H54" t="s">
+        <v>109</v>
+      </c>
+      <c r="I54" t="s">
         <v>165</v>
       </c>
-      <c r="I54" t="s">
+      <c r="J54" t="s">
         <v>166</v>
-      </c>
-      <c r="J54" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="55">
@@ -7363,29 +7371,17 @@
         <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
         <v>266</v>
       </c>
-      <c r="E55" t="n">
-        <v>58224.97</v>
-      </c>
-      <c r="F55" t="n">
-        <v>46818.94</v>
-      </c>
-      <c r="G55" t="n">
-        <v>55513.29</v>
-      </c>
-      <c r="H55" t="s">
-        <v>168</v>
-      </c>
-      <c r="I55" t="s">
-        <v>169</v>
-      </c>
-      <c r="J55" t="s">
-        <v>139</v>
-      </c>
+      <c r="E55"/>
+      <c r="F55"/>
+      <c r="G55"/>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7400,23 +7396,19 @@
       <c r="D56" t="s">
         <v>266</v>
       </c>
-      <c r="E56" t="n">
-        <v>49057.05</v>
-      </c>
+      <c r="E56"/>
       <c r="F56" t="n">
-        <v>48459.64</v>
+        <v>49784.03</v>
       </c>
       <c r="G56" t="n">
-        <v>47869.67</v>
-      </c>
-      <c r="H56" t="s">
-        <v>170</v>
-      </c>
+        <v>47536.49</v>
+      </c>
+      <c r="H56"/>
       <c r="I56" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="J56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57">
@@ -7427,17 +7419,25 @@
         <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
         <v>266</v>
       </c>
       <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
+      <c r="F57" t="n">
+        <v>46089.56</v>
+      </c>
+      <c r="G57" t="n">
+        <v>54621.87</v>
+      </c>
       <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
+      <c r="I57" t="s">
+        <v>252</v>
+      </c>
+      <c r="J57" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -7452,17 +7452,17 @@
       <c r="D58" t="s">
         <v>266</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58"/>
+      <c r="F58" t="n">
         <v>48453.93</v>
       </c>
-      <c r="F58"/>
       <c r="G58" t="n">
         <v>50054.67</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58"/>
+      <c r="I58" t="s">
         <v>172</v>
       </c>
-      <c r="I58"/>
       <c r="J58" t="s">
         <v>173</v>
       </c>
@@ -7481,19 +7481,19 @@
         <v>266</v>
       </c>
       <c r="E59" t="n">
+        <v>46818.94</v>
+      </c>
+      <c r="F59" t="n">
         <v>50528.38</v>
-      </c>
-      <c r="F59" t="n">
-        <v>46818.94</v>
       </c>
       <c r="G59" t="n">
         <v>51130.42</v>
       </c>
       <c r="H59" t="s">
+        <v>163</v>
+      </c>
+      <c r="I59" t="s">
         <v>156</v>
-      </c>
-      <c r="I59" t="s">
-        <v>169</v>
       </c>
       <c r="J59" t="s">
         <v>174</v>
@@ -7513,10 +7513,10 @@
         <v>266</v>
       </c>
       <c r="E60" t="n">
+        <v>44463.31</v>
+      </c>
+      <c r="F60" t="n">
         <v>48794.35</v>
-      </c>
-      <c r="F60" t="n">
-        <v>44463.31</v>
       </c>
       <c r="G60" t="n">
         <v>48956.91</v>
@@ -7545,10 +7545,10 @@
         <v>266</v>
       </c>
       <c r="E61" t="n">
+        <v>50387.25</v>
+      </c>
+      <c r="F61" t="n">
         <v>52104.69</v>
-      </c>
-      <c r="F61" t="n">
-        <v>50387.25</v>
       </c>
       <c r="G61" t="n">
         <v>51528.76</v>
@@ -7577,10 +7577,10 @@
         <v>266</v>
       </c>
       <c r="E62" t="n">
+        <v>29283.3</v>
+      </c>
+      <c r="F62" t="n">
         <v>87769.91</v>
-      </c>
-      <c r="F62" t="n">
-        <v>29283.3</v>
       </c>
       <c r="G62" t="n">
         <v>72477.14</v>
@@ -7609,19 +7609,19 @@
         <v>266</v>
       </c>
       <c r="E63" t="n">
+        <v>78879.34</v>
+      </c>
+      <c r="F63" t="n">
         <v>78222.89</v>
-      </c>
-      <c r="F63" t="n">
-        <v>78879.34</v>
       </c>
       <c r="G63" t="n">
         <v>81398.2</v>
       </c>
       <c r="H63" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="I63" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="J63" t="s">
         <v>186</v>
@@ -7641,10 +7641,10 @@
         <v>266</v>
       </c>
       <c r="E64" t="n">
+        <v>48732.37</v>
+      </c>
+      <c r="F64" t="n">
         <v>50682.76</v>
-      </c>
-      <c r="F64" t="n">
-        <v>48732.37</v>
       </c>
       <c r="G64" t="n">
         <v>50961.69</v>
@@ -7673,22 +7673,22 @@
         <v>266</v>
       </c>
       <c r="E65" t="n">
+        <v>63133.17</v>
+      </c>
+      <c r="F65" t="n">
         <v>40111.32</v>
-      </c>
-      <c r="F65" t="n">
-        <v>63133.17</v>
       </c>
       <c r="G65" t="n">
         <v>40564.48</v>
       </c>
       <c r="H65" t="s">
+        <v>190</v>
+      </c>
+      <c r="I65" t="s">
         <v>59</v>
       </c>
-      <c r="I65" t="s">
-        <v>190</v>
-      </c>
       <c r="J65" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66">
@@ -7699,24 +7699,28 @@
         <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="D66" t="s">
         <v>266</v>
       </c>
       <c r="E66" t="n">
-        <v>55025.12</v>
-      </c>
-      <c r="F66"/>
+        <v>92742.29</v>
+      </c>
+      <c r="F66" t="n">
+        <v>203177.15</v>
+      </c>
       <c r="G66" t="n">
-        <v>64051.81</v>
+        <v>203177.15</v>
       </c>
       <c r="H66" t="s">
-        <v>276</v>
-      </c>
-      <c r="I66"/>
+        <v>191</v>
+      </c>
+      <c r="I66" t="s">
+        <v>192</v>
+      </c>
       <c r="J66" t="s">
-        <v>277</v>
+        <v>192</v>
       </c>
     </row>
     <row r="67">
@@ -7727,24 +7731,28 @@
         <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>268</v>
+        <v>32</v>
       </c>
       <c r="D67" t="s">
         <v>266</v>
       </c>
       <c r="E67" t="n">
-        <v>52711.8</v>
-      </c>
-      <c r="F67"/>
+        <v>16001.71</v>
+      </c>
+      <c r="F67" t="n">
+        <v>93833.59</v>
+      </c>
       <c r="G67" t="n">
-        <v>43620.85</v>
+        <v>93833.59</v>
       </c>
       <c r="H67" t="s">
-        <v>202</v>
-      </c>
-      <c r="I67"/>
+        <v>193</v>
+      </c>
+      <c r="I67" t="s">
+        <v>194</v>
+      </c>
       <c r="J67" t="s">
-        <v>278</v>
+        <v>194</v>
       </c>
     </row>
     <row r="68">
@@ -7755,25 +7763,25 @@
         <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D68" t="s">
         <v>266</v>
       </c>
       <c r="E68" t="n">
-        <v>203177.15</v>
+        <v>49059.12</v>
       </c>
       <c r="F68" t="n">
-        <v>92742.29</v>
+        <v>67443.67</v>
       </c>
       <c r="G68" t="n">
-        <v>203177.15</v>
+        <v>63842.21</v>
       </c>
       <c r="H68" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I68" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="J68" t="s">
         <v>197</v>
@@ -7787,28 +7795,28 @@
         <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D69" t="s">
         <v>266</v>
       </c>
       <c r="E69" t="n">
-        <v>93833.59</v>
+        <v>56924.43</v>
       </c>
       <c r="F69" t="n">
-        <v>16001.71</v>
+        <v>57747.89</v>
       </c>
       <c r="G69" t="n">
-        <v>93833.59</v>
+        <v>55131.56</v>
       </c>
       <c r="H69" t="s">
+        <v>198</v>
+      </c>
+      <c r="I69" t="s">
         <v>199</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>200</v>
-      </c>
-      <c r="J69" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="70">
@@ -7819,29 +7827,17 @@
         <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D70" t="s">
         <v>266</v>
       </c>
-      <c r="E70" t="n">
-        <v>67443.67</v>
-      </c>
-      <c r="F70" t="n">
-        <v>49059.12</v>
-      </c>
-      <c r="G70" t="n">
-        <v>63842.21</v>
-      </c>
-      <c r="H70" t="s">
-        <v>201</v>
-      </c>
-      <c r="I70" t="s">
-        <v>202</v>
-      </c>
-      <c r="J70" t="s">
-        <v>203</v>
-      </c>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
+      <c r="H70"/>
+      <c r="I70"/>
+      <c r="J70"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7856,23 +7852,19 @@
       <c r="D71" t="s">
         <v>266</v>
       </c>
-      <c r="E71" t="n">
-        <v>57747.89</v>
-      </c>
+      <c r="E71"/>
       <c r="F71" t="n">
-        <v>56924.43</v>
+        <v>55025.12</v>
       </c>
       <c r="G71" t="n">
-        <v>55131.56</v>
-      </c>
-      <c r="H71" t="s">
-        <v>204</v>
-      </c>
+        <v>64051.81</v>
+      </c>
+      <c r="H71"/>
       <c r="I71" t="s">
-        <v>205</v>
+        <v>276</v>
       </c>
       <c r="J71" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72">
@@ -7883,17 +7875,25 @@
         <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>268</v>
       </c>
       <c r="D72" t="s">
         <v>266</v>
       </c>
       <c r="E72"/>
-      <c r="F72"/>
-      <c r="G72"/>
+      <c r="F72" t="n">
+        <v>52711.8</v>
+      </c>
+      <c r="G72" t="n">
+        <v>43620.85</v>
+      </c>
       <c r="H72"/>
-      <c r="I72"/>
-      <c r="J72"/>
+      <c r="I72" t="s">
+        <v>195</v>
+      </c>
+      <c r="J72" t="s">
+        <v>278</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -7908,17 +7908,17 @@
       <c r="D73" t="s">
         <v>266</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73"/>
+      <c r="F73" t="n">
         <v>55763.13</v>
       </c>
-      <c r="F73"/>
       <c r="G73" t="n">
         <v>60544.14</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73"/>
+      <c r="I73" t="s">
         <v>207</v>
       </c>
-      <c r="I73"/>
       <c r="J73" t="s">
         <v>208</v>
       </c>
@@ -7937,19 +7937,19 @@
         <v>266</v>
       </c>
       <c r="E74" t="n">
+        <v>49059.12</v>
+      </c>
+      <c r="F74" t="n">
         <v>56503.17</v>
-      </c>
-      <c r="F74" t="n">
-        <v>49059.12</v>
       </c>
       <c r="G74" t="n">
         <v>61600.76</v>
       </c>
       <c r="H74" t="s">
+        <v>195</v>
+      </c>
+      <c r="I74" t="s">
         <v>209</v>
-      </c>
-      <c r="I74" t="s">
-        <v>202</v>
       </c>
       <c r="J74" t="s">
         <v>210</v>
@@ -7969,10 +7969,10 @@
         <v>266</v>
       </c>
       <c r="E75" t="n">
+        <v>73009.11</v>
+      </c>
+      <c r="F75" t="n">
         <v>70979.14</v>
-      </c>
-      <c r="F75" t="n">
-        <v>73009.11</v>
       </c>
       <c r="G75" t="n">
         <v>72321.75</v>
@@ -8001,19 +8001,19 @@
         <v>266</v>
       </c>
       <c r="E76" t="n">
+        <v>62710.22</v>
+      </c>
+      <c r="F76" t="n">
         <v>65109.61</v>
-      </c>
-      <c r="F76" t="n">
-        <v>62710.22</v>
       </c>
       <c r="G76" t="n">
         <v>63866.81</v>
       </c>
       <c r="H76" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="I76" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="J76" t="s">
         <v>215</v>
@@ -8201,7 +8201,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>266</v>
@@ -8233,7 +8233,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>266</v>
@@ -8265,7 +8265,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>266</v>
@@ -8297,7 +8297,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>266</v>
@@ -8329,7 +8329,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>266</v>
@@ -8495,10 +8495,10 @@
         <v>266</v>
       </c>
       <c r="E15" t="n">
+        <v>3129.8</v>
+      </c>
+      <c r="F15" t="n">
         <v>3066.38</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3129.8</v>
       </c>
       <c r="G15" t="n">
         <v>3129.8</v>
@@ -8510,7 +8510,7 @@
         <v>228</v>
       </c>
       <c r="J15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
@@ -8585,7 +8585,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>266</v>
@@ -8617,7 +8617,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>266</v>
@@ -8649,7 +8649,7 @@
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>266</v>
@@ -8681,7 +8681,7 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>266</v>
@@ -8713,7 +8713,7 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>266</v>
@@ -8803,10 +8803,10 @@
         <v>266</v>
       </c>
       <c r="E25" t="n">
+        <v>19135.04</v>
+      </c>
+      <c r="F25" t="n">
         <v>18917.41</v>
-      </c>
-      <c r="F25" t="n">
-        <v>19135.04</v>
       </c>
       <c r="G25" t="n">
         <v>19135.04</v>
@@ -8818,7 +8818,7 @@
         <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
@@ -8957,7 +8957,7 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>266</v>
@@ -8989,7 +8989,7 @@
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
         <v>266</v>
@@ -9021,7 +9021,7 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>266</v>
@@ -9053,28 +9053,28 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>266</v>
       </c>
       <c r="E33" t="n">
+        <v>14495.7</v>
+      </c>
+      <c r="F33" t="n">
         <v>14274.39</v>
-      </c>
-      <c r="F33" t="n">
-        <v>14495.7</v>
       </c>
       <c r="G33" t="n">
         <v>14495.7</v>
       </c>
       <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
         <v>245</v>
       </c>
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -9085,7 +9085,7 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>266</v>
@@ -9184,13 +9184,13 @@
         <v>18234.69</v>
       </c>
       <c r="H37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -9329,7 +9329,7 @@
         <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>266</v>
@@ -9361,7 +9361,7 @@
         <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
         <v>266</v>
@@ -9393,7 +9393,7 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
         <v>266</v>
@@ -9425,25 +9425,25 @@
         <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
         <v>266</v>
       </c>
       <c r="E45" t="n">
+        <v>15037.54</v>
+      </c>
+      <c r="F45" t="n">
         <v>14655.46</v>
-      </c>
-      <c r="F45" t="n">
-        <v>15037.54</v>
       </c>
       <c r="G45" t="n">
         <v>15037.54</v>
       </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="I45" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="J45" t="s">
         <v>254</v>
@@ -9457,7 +9457,7 @@
         <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
         <v>266</v>
@@ -9547,10 +9547,10 @@
         <v>266</v>
       </c>
       <c r="E49" t="n">
+        <v>15168.86</v>
+      </c>
+      <c r="F49" t="n">
         <v>15162.5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>15168.86</v>
       </c>
       <c r="G49" t="n">
         <v>15168.86</v>
@@ -9611,22 +9611,22 @@
         <v>266</v>
       </c>
       <c r="E51" t="n">
+        <v>25539.83</v>
+      </c>
+      <c r="F51" t="n">
         <v>26519.01</v>
-      </c>
-      <c r="F51" t="n">
-        <v>25539.83</v>
       </c>
       <c r="G51" t="n">
         <v>25539.83</v>
       </c>
       <c r="H51" t="s">
+        <v>175</v>
+      </c>
+      <c r="I51" t="s">
         <v>57</v>
       </c>
-      <c r="I51" t="s">
-        <v>176</v>
-      </c>
       <c r="J51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52">
@@ -9643,22 +9643,22 @@
         <v>266</v>
       </c>
       <c r="E52" t="n">
+        <v>12103.9</v>
+      </c>
+      <c r="F52" t="n">
         <v>11052.17</v>
-      </c>
-      <c r="F52" t="n">
-        <v>12103.9</v>
       </c>
       <c r="G52" t="n">
         <v>12103.9</v>
       </c>
       <c r="H52" t="s">
+        <v>182</v>
+      </c>
+      <c r="I52" t="s">
         <v>258</v>
       </c>
-      <c r="I52" t="s">
-        <v>183</v>
-      </c>
       <c r="J52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
@@ -9684,13 +9684,13 @@
         <v>22555.66</v>
       </c>
       <c r="H53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54">
@@ -9701,7 +9701,7 @@
         <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
         <v>266</v>
@@ -9733,7 +9733,7 @@
         <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
         <v>266</v>
@@ -9765,16 +9765,16 @@
         <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>266</v>
       </c>
       <c r="E56" t="n">
+        <v>19837.44</v>
+      </c>
+      <c r="F56" t="n">
         <v>19752.61</v>
-      </c>
-      <c r="F56" t="n">
-        <v>19837.44</v>
       </c>
       <c r="G56" t="n">
         <v>19837.44</v>
@@ -9786,7 +9786,7 @@
         <v>262</v>
       </c>
       <c r="J56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57">
@@ -9797,7 +9797,7 @@
         <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
         <v>266</v>
@@ -9855,10 +9855,10 @@
         <v>266</v>
       </c>
       <c r="E59" t="n">
+        <v>25182.46</v>
+      </c>
+      <c r="F59" t="n">
         <v>25133.68</v>
-      </c>
-      <c r="F59" t="n">
-        <v>25182.46</v>
       </c>
       <c r="G59" t="n">
         <v>25182.46</v>
@@ -9870,7 +9870,7 @@
         <v>264</v>
       </c>
       <c r="J59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60">
@@ -9887,19 +9887,19 @@
         <v>266</v>
       </c>
       <c r="E60" t="n">
+        <v>20207.3</v>
+      </c>
+      <c r="F60" t="n">
         <v>20205.77</v>
-      </c>
-      <c r="F60" t="n">
-        <v>20207.3</v>
       </c>
       <c r="G60" t="n">
         <v>20207.3</v>
       </c>
       <c r="H60" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I60" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J60" t="s">
         <v>265</v>
@@ -9965,10 +9965,10 @@
         <v>279</v>
       </c>
       <c r="E2" t="n">
+        <v>56650.32</v>
+      </c>
+      <c r="F2" t="n">
         <v>67779.75</v>
-      </c>
-      <c r="F2" t="n">
-        <v>56650.32</v>
       </c>
       <c r="G2" t="n">
         <v>98888.6</v>
@@ -9997,10 +9997,10 @@
         <v>279</v>
       </c>
       <c r="E3" t="n">
+        <v>65162.17</v>
+      </c>
+      <c r="F3" t="n">
         <v>66060.91</v>
-      </c>
-      <c r="F3" t="n">
-        <v>65162.17</v>
       </c>
       <c r="G3" t="n">
         <v>66997.32</v>
@@ -10029,10 +10029,10 @@
         <v>279</v>
       </c>
       <c r="E4" t="n">
+        <v>67685.51</v>
+      </c>
+      <c r="F4" t="n">
         <v>64933.62</v>
-      </c>
-      <c r="F4" t="n">
-        <v>67685.51</v>
       </c>
       <c r="G4" t="n">
         <v>64662.71</v>
@@ -10061,10 +10061,10 @@
         <v>279</v>
       </c>
       <c r="E5" t="n">
+        <v>53969.05</v>
+      </c>
+      <c r="F5" t="n">
         <v>39203.58</v>
-      </c>
-      <c r="F5" t="n">
-        <v>53969.05</v>
       </c>
       <c r="G5" t="n">
         <v>40032.82</v>
@@ -10087,24 +10087,28 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>279</v>
       </c>
       <c r="E6" t="n">
-        <v>57852.48</v>
-      </c>
-      <c r="F6"/>
+        <v>71959.35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>100232.03</v>
+      </c>
       <c r="G6" t="n">
-        <v>62088.65</v>
+        <v>102049.11</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6"/>
+        <v>29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7">
@@ -10115,28 +10119,28 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>279</v>
       </c>
       <c r="E7" t="n">
-        <v>100232.03</v>
+        <v>67326.12</v>
       </c>
       <c r="F7" t="n">
-        <v>71959.35</v>
+        <v>86735.41</v>
       </c>
       <c r="G7" t="n">
-        <v>102049.11</v>
+        <v>88804.43</v>
       </c>
       <c r="H7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -10147,28 +10151,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>279</v>
       </c>
       <c r="E8" t="n">
-        <v>86735.41</v>
+        <v>67034.41</v>
       </c>
       <c r="F8" t="n">
-        <v>67326.12</v>
+        <v>67696.4</v>
       </c>
       <c r="G8" t="n">
-        <v>88804.43</v>
+        <v>67570.55</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9">
@@ -10179,28 +10183,28 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>279</v>
       </c>
       <c r="E9" t="n">
-        <v>67696.4</v>
+        <v>54340.31</v>
       </c>
       <c r="F9" t="n">
-        <v>67034.41</v>
+        <v>53907.34</v>
       </c>
       <c r="G9" t="n">
-        <v>67570.55</v>
+        <v>52583.17</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10">
@@ -10211,28 +10215,28 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>279</v>
       </c>
       <c r="E10" t="n">
-        <v>53907.34</v>
+        <v>63569.66</v>
       </c>
       <c r="F10" t="n">
-        <v>54340.31</v>
+        <v>63569.66</v>
       </c>
       <c r="G10" t="n">
-        <v>52583.17</v>
+        <v>63569.66</v>
       </c>
       <c r="H10" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="I10" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="J10" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -10243,28 +10247,24 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="D11" t="s">
         <v>279</v>
       </c>
-      <c r="E11" t="n">
-        <v>63569.66</v>
-      </c>
+      <c r="E11"/>
       <c r="F11" t="n">
-        <v>63569.66</v>
+        <v>57852.48</v>
       </c>
       <c r="G11" t="n">
-        <v>63569.66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>54</v>
-      </c>
+        <v>62088.65</v>
+      </c>
+      <c r="H11"/>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
@@ -10280,17 +10280,17 @@
       <c r="D12" t="s">
         <v>279</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12"/>
+      <c r="F12" t="n">
         <v>57852.48</v>
       </c>
-      <c r="F12"/>
       <c r="G12" t="n">
         <v>62088.65</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12"/>
+      <c r="I12" t="s">
         <v>56</v>
       </c>
-      <c r="I12"/>
       <c r="J12" t="s">
         <v>57</v>
       </c>
@@ -10309,19 +10309,19 @@
         <v>279</v>
       </c>
       <c r="E13" t="n">
+        <v>67034.41</v>
+      </c>
+      <c r="F13" t="n">
         <v>60891.53</v>
-      </c>
-      <c r="F13" t="n">
-        <v>67034.41</v>
       </c>
       <c r="G13" t="n">
         <v>64060.53</v>
       </c>
       <c r="H13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" t="s">
         <v>59</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
       </c>
       <c r="J13" t="s">
         <v>60</v>
@@ -10341,10 +10341,10 @@
         <v>279</v>
       </c>
       <c r="E14" t="n">
+        <v>73958.3</v>
+      </c>
+      <c r="F14" t="n">
         <v>72874.57</v>
-      </c>
-      <c r="F14" t="n">
-        <v>73958.3</v>
       </c>
       <c r="G14" t="n">
         <v>73062.71</v>
@@ -10373,19 +10373,19 @@
         <v>279</v>
       </c>
       <c r="E15" t="n">
+        <v>63569.66</v>
+      </c>
+      <c r="F15" t="n">
         <v>65209.98</v>
-      </c>
-      <c r="F15" t="n">
-        <v>63569.66</v>
       </c>
       <c r="G15" t="n">
         <v>64238.79</v>
       </c>
       <c r="H15" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" t="s">
         <v>66</v>
-      </c>
-      <c r="I15" t="s">
-        <v>54</v>
       </c>
       <c r="J15" t="s">
         <v>67</v>
@@ -10405,10 +10405,10 @@
         <v>279</v>
       </c>
       <c r="E16" t="n">
+        <v>40709.58</v>
+      </c>
+      <c r="F16" t="n">
         <v>46893.44</v>
-      </c>
-      <c r="F16" t="n">
-        <v>40709.58</v>
       </c>
       <c r="G16" t="n">
         <v>68795.47</v>
@@ -10437,10 +10437,10 @@
         <v>279</v>
       </c>
       <c r="E17" t="n">
+        <v>62918.42</v>
+      </c>
+      <c r="F17" t="n">
         <v>66268.67</v>
-      </c>
-      <c r="F17" t="n">
-        <v>62918.42</v>
       </c>
       <c r="G17" t="n">
         <v>66641.57</v>
@@ -10469,10 +10469,10 @@
         <v>279</v>
       </c>
       <c r="E18" t="n">
+        <v>75620.82</v>
+      </c>
+      <c r="F18" t="n">
         <v>77556.5</v>
-      </c>
-      <c r="F18" t="n">
-        <v>75620.82</v>
       </c>
       <c r="G18" t="n">
         <v>75886.03</v>
@@ -10501,19 +10501,19 @@
         <v>279</v>
       </c>
       <c r="E19" t="n">
+        <v>65147.2</v>
+      </c>
+      <c r="F19" t="n">
         <v>49374.94</v>
-      </c>
-      <c r="F19" t="n">
-        <v>65147.2</v>
       </c>
       <c r="G19" t="n">
         <v>50339.6</v>
       </c>
       <c r="H19" t="s">
+        <v>78</v>
+      </c>
+      <c r="I19" t="s">
         <v>66</v>
-      </c>
-      <c r="I19" t="s">
-        <v>78</v>
       </c>
       <c r="J19" t="s">
         <v>79</v>
@@ -10527,24 +10527,28 @@
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
         <v>279</v>
       </c>
       <c r="E20" t="n">
-        <v>75274.59</v>
-      </c>
-      <c r="F20"/>
+        <v>52719.32</v>
+      </c>
+      <c r="F20" t="n">
+        <v>40049.16</v>
+      </c>
       <c r="G20" t="n">
-        <v>76873.76</v>
+        <v>41866.24</v>
       </c>
       <c r="H20" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20"/>
+        <v>80</v>
+      </c>
+      <c r="I20" t="s">
+        <v>81</v>
+      </c>
       <c r="J20" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -10555,28 +10559,28 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
         <v>279</v>
       </c>
       <c r="E21" t="n">
-        <v>40049.16</v>
+        <v>106682.66</v>
       </c>
       <c r="F21" t="n">
-        <v>52719.32</v>
+        <v>115198.49</v>
       </c>
       <c r="G21" t="n">
-        <v>41866.24</v>
+        <v>120602.57</v>
       </c>
       <c r="H21" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22">
@@ -10587,28 +10591,28 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
         <v>279</v>
       </c>
       <c r="E22" t="n">
-        <v>115198.49</v>
+        <v>86928.2</v>
       </c>
       <c r="F22" t="n">
-        <v>106682.66</v>
+        <v>79611.09</v>
       </c>
       <c r="G22" t="n">
-        <v>120602.57</v>
+        <v>76085.86</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I22" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23">
@@ -10619,28 +10623,28 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
         <v>279</v>
       </c>
       <c r="E23" t="n">
-        <v>79611.09</v>
+        <v>61788.66</v>
       </c>
       <c r="F23" t="n">
-        <v>86928.2</v>
+        <v>59697.38</v>
       </c>
       <c r="G23" t="n">
-        <v>76085.86</v>
+        <v>58151.19</v>
       </c>
       <c r="H23" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -10651,29 +10655,17 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
         <v>279</v>
       </c>
-      <c r="E24" t="n">
-        <v>59697.38</v>
-      </c>
-      <c r="F24" t="n">
-        <v>61788.66</v>
-      </c>
-      <c r="G24" t="n">
-        <v>58151.19</v>
-      </c>
-      <c r="H24" t="s">
-        <v>96</v>
-      </c>
-      <c r="I24" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" t="s">
-        <v>98</v>
-      </c>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -10683,17 +10675,25 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="D25" t="s">
         <v>279</v>
       </c>
       <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
+      <c r="F25" t="n">
+        <v>75274.59</v>
+      </c>
+      <c r="G25" t="n">
+        <v>76873.76</v>
+      </c>
       <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="I25" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -10708,17 +10708,17 @@
       <c r="D26" t="s">
         <v>279</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26"/>
+      <c r="F26" t="n">
         <v>75274.59</v>
       </c>
-      <c r="F26"/>
       <c r="G26" t="n">
         <v>76873.76</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26"/>
+      <c r="I26" t="s">
         <v>99</v>
       </c>
-      <c r="I26"/>
       <c r="J26" t="s">
         <v>100</v>
       </c>
@@ -10737,22 +10737,22 @@
         <v>279</v>
       </c>
       <c r="E27" t="n">
+        <v>86928.2</v>
+      </c>
+      <c r="F27" t="n">
         <v>75855.02</v>
-      </c>
-      <c r="F27" t="n">
-        <v>86928.2</v>
       </c>
       <c r="G27" t="n">
         <v>77777.84</v>
       </c>
       <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27" t="s">
         <v>101</v>
       </c>
-      <c r="I27" t="s">
-        <v>95</v>
-      </c>
       <c r="J27" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
     </row>
     <row r="28">
@@ -10769,10 +10769,10 @@
         <v>279</v>
       </c>
       <c r="E28" t="n">
+        <v>93167.35</v>
+      </c>
+      <c r="F28" t="n">
         <v>92066.89</v>
-      </c>
-      <c r="F28" t="n">
-        <v>93167.35</v>
       </c>
       <c r="G28" t="n">
         <v>92094.76</v>
@@ -10801,19 +10801,19 @@
         <v>279</v>
       </c>
       <c r="E29" t="n">
+        <v>78742.82</v>
+      </c>
+      <c r="F29" t="n">
         <v>80239.61</v>
-      </c>
-      <c r="F29" t="n">
-        <v>78742.82</v>
       </c>
       <c r="G29" t="n">
         <v>79586.99</v>
       </c>
       <c r="H29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I29" t="s">
         <v>105</v>
-      </c>
-      <c r="I29" t="s">
-        <v>66</v>
       </c>
       <c r="J29" t="s">
         <v>106</v>
@@ -10833,10 +10833,10 @@
         <v>279</v>
       </c>
       <c r="E30" t="n">
+        <v>49697.94</v>
+      </c>
+      <c r="F30" t="n">
         <v>36916.11</v>
-      </c>
-      <c r="F30" t="n">
-        <v>49697.94</v>
       </c>
       <c r="G30" t="n">
         <v>36413.11</v>
@@ -10865,10 +10865,10 @@
         <v>279</v>
       </c>
       <c r="E31" t="n">
+        <v>77046.24</v>
+      </c>
+      <c r="F31" t="n">
         <v>63529.38</v>
-      </c>
-      <c r="F31" t="n">
-        <v>77046.24</v>
       </c>
       <c r="G31" t="n">
         <v>71384.48</v>
@@ -10897,10 +10897,10 @@
         <v>279</v>
       </c>
       <c r="E32" t="n">
+        <v>67277.61</v>
+      </c>
+      <c r="F32" t="n">
         <v>47427.43</v>
-      </c>
-      <c r="F32" t="n">
-        <v>67277.61</v>
       </c>
       <c r="G32" t="n">
         <v>47427.43</v>
@@ -10912,7 +10912,7 @@
         <v>115</v>
       </c>
       <c r="J32" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
@@ -10929,10 +10929,10 @@
         <v>279</v>
       </c>
       <c r="E33" t="n">
+        <v>58425.72</v>
+      </c>
+      <c r="F33" t="n">
         <v>23659.71</v>
-      </c>
-      <c r="F33" t="n">
-        <v>58425.72</v>
       </c>
       <c r="G33" t="n">
         <v>15406.55</v>
@@ -10955,24 +10955,28 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="D34" t="s">
         <v>279</v>
       </c>
       <c r="E34" t="n">
-        <v>63099.08</v>
-      </c>
-      <c r="F34"/>
+        <v>98049.02</v>
+      </c>
+      <c r="F34" t="n">
+        <v>131996.2</v>
+      </c>
       <c r="G34" t="n">
-        <v>65234.63</v>
+        <v>131996.2</v>
       </c>
       <c r="H34" t="s">
-        <v>136</v>
-      </c>
-      <c r="I34"/>
+        <v>119</v>
+      </c>
+      <c r="I34" t="s">
+        <v>120</v>
+      </c>
       <c r="J34" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35">
@@ -10983,28 +10987,28 @@
         <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D35" t="s">
         <v>279</v>
       </c>
       <c r="E35" t="n">
-        <v>131996.2</v>
+        <v>-147958.3</v>
       </c>
       <c r="F35" t="n">
-        <v>98049.02</v>
+        <v>-155121.33</v>
       </c>
       <c r="G35" t="n">
-        <v>131996.2</v>
+        <v>-155121.33</v>
       </c>
       <c r="H35" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I35" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J35" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="36">
@@ -11015,28 +11019,28 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
         <v>279</v>
       </c>
       <c r="E36" t="n">
-        <v>-155121.33</v>
+        <v>69626.55</v>
       </c>
       <c r="F36" t="n">
-        <v>-147958.3</v>
+        <v>47163.7</v>
       </c>
       <c r="G36" t="n">
-        <v>-155121.33</v>
+        <v>41541.8</v>
       </c>
       <c r="H36" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="I36" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J36" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="37">
@@ -11047,28 +11051,28 @@
         <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
         <v>279</v>
       </c>
       <c r="E37" t="n">
-        <v>47163.7</v>
+        <v>48419.84</v>
       </c>
       <c r="F37" t="n">
-        <v>69626.55</v>
+        <v>48201.12</v>
       </c>
       <c r="G37" t="n">
-        <v>41541.8</v>
+        <v>46093.54</v>
       </c>
       <c r="H37" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I37" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="J37" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38">
@@ -11079,29 +11083,17 @@
         <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D38" t="s">
         <v>279</v>
       </c>
-      <c r="E38" t="n">
-        <v>48201.12</v>
-      </c>
-      <c r="F38" t="n">
-        <v>48419.84</v>
-      </c>
-      <c r="G38" t="n">
-        <v>46093.54</v>
-      </c>
-      <c r="H38" t="s">
-        <v>133</v>
-      </c>
-      <c r="I38" t="s">
-        <v>134</v>
-      </c>
-      <c r="J38" t="s">
-        <v>135</v>
-      </c>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -11111,17 +11103,25 @@
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="D39" t="s">
         <v>279</v>
       </c>
       <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
+      <c r="F39" t="n">
+        <v>63099.08</v>
+      </c>
+      <c r="G39" t="n">
+        <v>65234.63</v>
+      </c>
       <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
+      <c r="I39" t="s">
+        <v>136</v>
+      </c>
+      <c r="J39" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -11136,17 +11136,17 @@
       <c r="D40" t="s">
         <v>279</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40"/>
+      <c r="F40" t="n">
         <v>63099.08</v>
       </c>
-      <c r="F40"/>
       <c r="G40" t="n">
         <v>65234.63</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40"/>
+      <c r="I40" t="s">
         <v>136</v>
       </c>
-      <c r="I40"/>
       <c r="J40" t="s">
         <v>137</v>
       </c>
@@ -11165,19 +11165,19 @@
         <v>279</v>
       </c>
       <c r="E41" t="n">
+        <v>69626.55</v>
+      </c>
+      <c r="F41" t="n">
         <v>64050.35</v>
-      </c>
-      <c r="F41" t="n">
-        <v>69626.55</v>
       </c>
       <c r="G41" t="n">
         <v>68284.84</v>
       </c>
       <c r="H41" t="s">
+        <v>123</v>
+      </c>
+      <c r="I41" t="s">
         <v>138</v>
-      </c>
-      <c r="I41" t="s">
-        <v>131</v>
       </c>
       <c r="J41" t="s">
         <v>139</v>
@@ -11197,10 +11197,10 @@
         <v>279</v>
       </c>
       <c r="E42" t="n">
+        <v>65807.23</v>
+      </c>
+      <c r="F42" t="n">
         <v>61103.75</v>
-      </c>
-      <c r="F42" t="n">
-        <v>65807.23</v>
       </c>
       <c r="G42" t="n">
         <v>61725.44</v>
@@ -11229,10 +11229,10 @@
         <v>279</v>
       </c>
       <c r="E43" t="n">
+        <v>53251.85</v>
+      </c>
+      <c r="F43" t="n">
         <v>52946.44</v>
-      </c>
-      <c r="F43" t="n">
-        <v>53251.85</v>
       </c>
       <c r="G43" t="n">
         <v>49839.57</v>
@@ -11261,10 +11261,10 @@
         <v>279</v>
       </c>
       <c r="E44" t="n">
+        <v>32529.52</v>
+      </c>
+      <c r="F44" t="n">
         <v>127496.19</v>
-      </c>
-      <c r="F44" t="n">
-        <v>32529.52</v>
       </c>
       <c r="G44" t="n">
         <v>127496.19</v>
@@ -11276,7 +11276,7 @@
         <v>148</v>
       </c>
       <c r="J44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="45">
@@ -11293,10 +11293,10 @@
         <v>279</v>
       </c>
       <c r="E45" t="n">
+        <v>43416.39</v>
+      </c>
+      <c r="F45" t="n">
         <v>26117.08</v>
-      </c>
-      <c r="F45" t="n">
-        <v>43416.39</v>
       </c>
       <c r="G45" t="n">
         <v>26568.06</v>
@@ -11308,7 +11308,7 @@
         <v>150</v>
       </c>
       <c r="J45" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46">
@@ -11325,10 +11325,10 @@
         <v>279</v>
       </c>
       <c r="E46" t="n">
+        <v>57614.93</v>
+      </c>
+      <c r="F46" t="n">
         <v>57435.69</v>
-      </c>
-      <c r="F46" t="n">
-        <v>57614.93</v>
       </c>
       <c r="G46" t="n">
         <v>58782.49</v>
@@ -11357,10 +11357,10 @@
         <v>279</v>
       </c>
       <c r="E47" t="n">
+        <v>37827.05</v>
+      </c>
+      <c r="F47" t="n">
         <v>36689.68</v>
-      </c>
-      <c r="F47" t="n">
-        <v>37827.05</v>
       </c>
       <c r="G47" t="n">
         <v>36730.33</v>
@@ -11383,24 +11383,28 @@
         <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="D48" t="s">
         <v>279</v>
       </c>
       <c r="E48" t="n">
-        <v>48453.93</v>
-      </c>
-      <c r="F48"/>
+        <v>64264.57</v>
+      </c>
+      <c r="F48" t="n">
+        <v>108940.15</v>
+      </c>
       <c r="G48" t="n">
-        <v>50054.67</v>
+        <v>112556.86</v>
       </c>
       <c r="H48" t="s">
-        <v>172</v>
-      </c>
-      <c r="I48"/>
+        <v>157</v>
+      </c>
+      <c r="I48" t="s">
+        <v>158</v>
+      </c>
       <c r="J48" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49">
@@ -11411,28 +11415,28 @@
         <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D49" t="s">
         <v>279</v>
       </c>
       <c r="E49" t="n">
-        <v>108940.15</v>
+        <v>60509.46</v>
       </c>
       <c r="F49" t="n">
-        <v>64264.57</v>
+        <v>62311.75</v>
       </c>
       <c r="G49" t="n">
-        <v>112556.86</v>
+        <v>59985.74</v>
       </c>
       <c r="H49" t="s">
+        <v>160</v>
+      </c>
+      <c r="I49" t="s">
+        <v>161</v>
+      </c>
+      <c r="J49" t="s">
         <v>162</v>
-      </c>
-      <c r="I49" t="s">
-        <v>163</v>
-      </c>
-      <c r="J49" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="50">
@@ -11443,28 +11447,28 @@
         <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D50" t="s">
         <v>279</v>
       </c>
       <c r="E50" t="n">
-        <v>62311.75</v>
+        <v>46818.94</v>
       </c>
       <c r="F50" t="n">
-        <v>60509.46</v>
+        <v>58224.97</v>
       </c>
       <c r="G50" t="n">
-        <v>59985.74</v>
+        <v>55513.29</v>
       </c>
       <c r="H50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I50" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J50" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
     </row>
     <row r="51">
@@ -11475,28 +11479,28 @@
         <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D51" t="s">
         <v>279</v>
       </c>
       <c r="E51" t="n">
-        <v>58224.97</v>
+        <v>48459.64</v>
       </c>
       <c r="F51" t="n">
-        <v>46818.94</v>
+        <v>49057.05</v>
       </c>
       <c r="G51" t="n">
-        <v>55513.29</v>
+        <v>47869.67</v>
       </c>
       <c r="H51" t="s">
-        <v>168</v>
+        <v>109</v>
       </c>
       <c r="I51" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J51" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52">
@@ -11507,29 +11511,17 @@
         <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D52" t="s">
         <v>279</v>
       </c>
-      <c r="E52" t="n">
-        <v>49057.05</v>
-      </c>
-      <c r="F52" t="n">
-        <v>48459.64</v>
-      </c>
-      <c r="G52" t="n">
-        <v>47869.67</v>
-      </c>
-      <c r="H52" t="s">
-        <v>170</v>
-      </c>
-      <c r="I52" t="s">
-        <v>108</v>
-      </c>
-      <c r="J52" t="s">
-        <v>171</v>
-      </c>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -11539,17 +11531,25 @@
         <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="D53" t="s">
         <v>279</v>
       </c>
       <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
+      <c r="F53" t="n">
+        <v>48453.93</v>
+      </c>
+      <c r="G53" t="n">
+        <v>50054.67</v>
+      </c>
       <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
+      <c r="I53" t="s">
+        <v>172</v>
+      </c>
+      <c r="J53" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -11564,17 +11564,17 @@
       <c r="D54" t="s">
         <v>279</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54"/>
+      <c r="F54" t="n">
         <v>48453.93</v>
       </c>
-      <c r="F54"/>
       <c r="G54" t="n">
         <v>50054.67</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54"/>
+      <c r="I54" t="s">
         <v>172</v>
       </c>
-      <c r="I54"/>
       <c r="J54" t="s">
         <v>173</v>
       </c>
@@ -11593,19 +11593,19 @@
         <v>279</v>
       </c>
       <c r="E55" t="n">
+        <v>46818.94</v>
+      </c>
+      <c r="F55" t="n">
         <v>50528.38</v>
-      </c>
-      <c r="F55" t="n">
-        <v>46818.94</v>
       </c>
       <c r="G55" t="n">
         <v>51130.42</v>
       </c>
       <c r="H55" t="s">
+        <v>163</v>
+      </c>
+      <c r="I55" t="s">
         <v>156</v>
-      </c>
-      <c r="I55" t="s">
-        <v>169</v>
       </c>
       <c r="J55" t="s">
         <v>174</v>
@@ -11625,10 +11625,10 @@
         <v>279</v>
       </c>
       <c r="E56" t="n">
+        <v>44463.31</v>
+      </c>
+      <c r="F56" t="n">
         <v>48794.35</v>
-      </c>
-      <c r="F56" t="n">
-        <v>44463.31</v>
       </c>
       <c r="G56" t="n">
         <v>48956.91</v>
@@ -11657,10 +11657,10 @@
         <v>279</v>
       </c>
       <c r="E57" t="n">
+        <v>50387.25</v>
+      </c>
+      <c r="F57" t="n">
         <v>52104.69</v>
-      </c>
-      <c r="F57" t="n">
-        <v>50387.25</v>
       </c>
       <c r="G57" t="n">
         <v>51528.76</v>
@@ -11689,10 +11689,10 @@
         <v>279</v>
       </c>
       <c r="E58" t="n">
+        <v>29283.3</v>
+      </c>
+      <c r="F58" t="n">
         <v>87769.91</v>
-      </c>
-      <c r="F58" t="n">
-        <v>29283.3</v>
       </c>
       <c r="G58" t="n">
         <v>72477.14</v>
@@ -11721,19 +11721,19 @@
         <v>279</v>
       </c>
       <c r="E59" t="n">
+        <v>78879.34</v>
+      </c>
+      <c r="F59" t="n">
         <v>78222.89</v>
-      </c>
-      <c r="F59" t="n">
-        <v>78879.34</v>
       </c>
       <c r="G59" t="n">
         <v>81398.2</v>
       </c>
       <c r="H59" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="I59" t="s">
-        <v>185</v>
+        <v>130</v>
       </c>
       <c r="J59" t="s">
         <v>186</v>
@@ -11753,10 +11753,10 @@
         <v>279</v>
       </c>
       <c r="E60" t="n">
+        <v>48732.37</v>
+      </c>
+      <c r="F60" t="n">
         <v>50682.76</v>
-      </c>
-      <c r="F60" t="n">
-        <v>48732.37</v>
       </c>
       <c r="G60" t="n">
         <v>50961.69</v>
@@ -11785,22 +11785,22 @@
         <v>279</v>
       </c>
       <c r="E61" t="n">
+        <v>63133.17</v>
+      </c>
+      <c r="F61" t="n">
         <v>40111.32</v>
-      </c>
-      <c r="F61" t="n">
-        <v>63133.17</v>
       </c>
       <c r="G61" t="n">
         <v>40564.48</v>
       </c>
       <c r="H61" t="s">
+        <v>190</v>
+      </c>
+      <c r="I61" t="s">
         <v>59</v>
       </c>
-      <c r="I61" t="s">
-        <v>190</v>
-      </c>
       <c r="J61" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62">
@@ -11811,24 +11811,28 @@
         <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="D62" t="s">
         <v>279</v>
       </c>
       <c r="E62" t="n">
-        <v>55763.13</v>
-      </c>
-      <c r="F62"/>
+        <v>92742.29</v>
+      </c>
+      <c r="F62" t="n">
+        <v>203177.15</v>
+      </c>
       <c r="G62" t="n">
-        <v>60544.14</v>
+        <v>203177.15</v>
       </c>
       <c r="H62" t="s">
-        <v>207</v>
-      </c>
-      <c r="I62"/>
+        <v>191</v>
+      </c>
+      <c r="I62" t="s">
+        <v>192</v>
+      </c>
       <c r="J62" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63">
@@ -11839,28 +11843,28 @@
         <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D63" t="s">
         <v>279</v>
       </c>
       <c r="E63" t="n">
-        <v>203177.15</v>
+        <v>16001.71</v>
       </c>
       <c r="F63" t="n">
-        <v>92742.29</v>
+        <v>93833.59</v>
       </c>
       <c r="G63" t="n">
-        <v>203177.15</v>
+        <v>93833.59</v>
       </c>
       <c r="H63" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I63" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="J63" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="64">
@@ -11871,28 +11875,28 @@
         <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D64" t="s">
         <v>279</v>
       </c>
       <c r="E64" t="n">
-        <v>93833.59</v>
+        <v>49059.12</v>
       </c>
       <c r="F64" t="n">
-        <v>16001.71</v>
+        <v>67443.67</v>
       </c>
       <c r="G64" t="n">
-        <v>93833.59</v>
+        <v>63842.21</v>
       </c>
       <c r="H64" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I64" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J64" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65">
@@ -11903,28 +11907,28 @@
         <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D65" t="s">
         <v>279</v>
       </c>
       <c r="E65" t="n">
-        <v>67443.67</v>
+        <v>56924.43</v>
       </c>
       <c r="F65" t="n">
-        <v>49059.12</v>
+        <v>57747.89</v>
       </c>
       <c r="G65" t="n">
-        <v>63842.21</v>
+        <v>55131.56</v>
       </c>
       <c r="H65" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="I65" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J65" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66">
@@ -11935,29 +11939,17 @@
         <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D66" t="s">
         <v>279</v>
       </c>
-      <c r="E66" t="n">
-        <v>57747.89</v>
-      </c>
-      <c r="F66" t="n">
-        <v>56924.43</v>
-      </c>
-      <c r="G66" t="n">
-        <v>55131.56</v>
-      </c>
-      <c r="H66" t="s">
-        <v>204</v>
-      </c>
-      <c r="I66" t="s">
-        <v>205</v>
-      </c>
-      <c r="J66" t="s">
-        <v>206</v>
-      </c>
+      <c r="E66"/>
+      <c r="F66"/>
+      <c r="G66"/>
+      <c r="H66"/>
+      <c r="I66"/>
+      <c r="J66"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -11967,17 +11959,25 @@
         <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>280</v>
       </c>
       <c r="D67" t="s">
         <v>279</v>
       </c>
       <c r="E67"/>
-      <c r="F67"/>
-      <c r="G67"/>
+      <c r="F67" t="n">
+        <v>55763.13</v>
+      </c>
+      <c r="G67" t="n">
+        <v>60544.14</v>
+      </c>
       <c r="H67"/>
-      <c r="I67"/>
-      <c r="J67"/>
+      <c r="I67" t="s">
+        <v>207</v>
+      </c>
+      <c r="J67" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -11992,17 +11992,17 @@
       <c r="D68" t="s">
         <v>279</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68"/>
+      <c r="F68" t="n">
         <v>55763.13</v>
       </c>
-      <c r="F68"/>
       <c r="G68" t="n">
         <v>60544.14</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68"/>
+      <c r="I68" t="s">
         <v>207</v>
       </c>
-      <c r="I68"/>
       <c r="J68" t="s">
         <v>208</v>
       </c>
@@ -12021,19 +12021,19 @@
         <v>279</v>
       </c>
       <c r="E69" t="n">
+        <v>49059.12</v>
+      </c>
+      <c r="F69" t="n">
         <v>56503.17</v>
-      </c>
-      <c r="F69" t="n">
-        <v>49059.12</v>
       </c>
       <c r="G69" t="n">
         <v>61600.76</v>
       </c>
       <c r="H69" t="s">
+        <v>195</v>
+      </c>
+      <c r="I69" t="s">
         <v>209</v>
-      </c>
-      <c r="I69" t="s">
-        <v>202</v>
       </c>
       <c r="J69" t="s">
         <v>210</v>
@@ -12053,10 +12053,10 @@
         <v>279</v>
       </c>
       <c r="E70" t="n">
+        <v>73009.11</v>
+      </c>
+      <c r="F70" t="n">
         <v>70979.14</v>
-      </c>
-      <c r="F70" t="n">
-        <v>73009.11</v>
       </c>
       <c r="G70" t="n">
         <v>72321.75</v>
@@ -12085,19 +12085,19 @@
         <v>279</v>
       </c>
       <c r="E71" t="n">
+        <v>62710.22</v>
+      </c>
+      <c r="F71" t="n">
         <v>65109.61</v>
-      </c>
-      <c r="F71" t="n">
-        <v>62710.22</v>
       </c>
       <c r="G71" t="n">
         <v>63866.81</v>
       </c>
       <c r="H71" t="s">
-        <v>62</v>
+        <v>214</v>
       </c>
       <c r="I71" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="J71" t="s">
         <v>215</v>
@@ -12285,7 +12285,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>279</v>
@@ -12317,7 +12317,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
         <v>279</v>
@@ -12349,7 +12349,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>279</v>
@@ -12381,7 +12381,7 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
         <v>279</v>
@@ -12413,7 +12413,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
         <v>279</v>
@@ -12579,10 +12579,10 @@
         <v>279</v>
       </c>
       <c r="E15" t="n">
+        <v>3129.8</v>
+      </c>
+      <c r="F15" t="n">
         <v>3066.38</v>
-      </c>
-      <c r="F15" t="n">
-        <v>3129.8</v>
       </c>
       <c r="G15" t="n">
         <v>3129.8</v>
@@ -12594,7 +12594,7 @@
         <v>228</v>
       </c>
       <c r="J15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
@@ -12669,7 +12669,7 @@
         <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>279</v>
@@ -12701,7 +12701,7 @@
         <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
         <v>279</v>
@@ -12733,7 +12733,7 @@
         <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
         <v>279</v>
@@ -12765,7 +12765,7 @@
         <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D21" t="s">
         <v>279</v>
@@ -12797,7 +12797,7 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>279</v>
@@ -12887,10 +12887,10 @@
         <v>279</v>
       </c>
       <c r="E25" t="n">
+        <v>19135.04</v>
+      </c>
+      <c r="F25" t="n">
         <v>18917.41</v>
-      </c>
-      <c r="F25" t="n">
-        <v>19135.04</v>
       </c>
       <c r="G25" t="n">
         <v>19135.04</v>
@@ -12902,7 +12902,7 @@
         <v>237</v>
       </c>
       <c r="J25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26">
@@ -13041,7 +13041,7 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D30" t="s">
         <v>279</v>
@@ -13073,7 +13073,7 @@
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D31" t="s">
         <v>279</v>
@@ -13105,7 +13105,7 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D32" t="s">
         <v>279</v>
@@ -13137,28 +13137,28 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>279</v>
       </c>
       <c r="E33" t="n">
+        <v>14495.7</v>
+      </c>
+      <c r="F33" t="n">
         <v>14274.39</v>
-      </c>
-      <c r="F33" t="n">
-        <v>14495.7</v>
       </c>
       <c r="G33" t="n">
         <v>14495.7</v>
       </c>
       <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
         <v>245</v>
       </c>
-      <c r="I33" t="s">
-        <v>31</v>
-      </c>
       <c r="J33" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34">
@@ -13169,7 +13169,7 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
         <v>279</v>
@@ -13268,13 +13268,13 @@
         <v>18234.69</v>
       </c>
       <c r="H37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="I37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="J37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38">
@@ -13413,7 +13413,7 @@
         <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="D42" t="s">
         <v>279</v>
@@ -13445,7 +13445,7 @@
         <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D43" t="s">
         <v>279</v>
@@ -13477,7 +13477,7 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D44" t="s">
         <v>279</v>
@@ -13509,25 +13509,25 @@
         <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D45" t="s">
         <v>279</v>
       </c>
       <c r="E45" t="n">
+        <v>15037.54</v>
+      </c>
+      <c r="F45" t="n">
         <v>14655.46</v>
-      </c>
-      <c r="F45" t="n">
-        <v>15037.54</v>
       </c>
       <c r="G45" t="n">
         <v>15037.54</v>
       </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>254</v>
       </c>
       <c r="I45" t="s">
-        <v>254</v>
+        <v>150</v>
       </c>
       <c r="J45" t="s">
         <v>254</v>
@@ -13541,7 +13541,7 @@
         <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D46" t="s">
         <v>279</v>
@@ -13631,10 +13631,10 @@
         <v>279</v>
       </c>
       <c r="E49" t="n">
+        <v>15168.86</v>
+      </c>
+      <c r="F49" t="n">
         <v>15162.5</v>
-      </c>
-      <c r="F49" t="n">
-        <v>15168.86</v>
       </c>
       <c r="G49" t="n">
         <v>15168.86</v>
@@ -13695,22 +13695,22 @@
         <v>279</v>
       </c>
       <c r="E51" t="n">
+        <v>25539.83</v>
+      </c>
+      <c r="F51" t="n">
         <v>26519.01</v>
-      </c>
-      <c r="F51" t="n">
-        <v>25539.83</v>
       </c>
       <c r="G51" t="n">
         <v>25539.83</v>
       </c>
       <c r="H51" t="s">
+        <v>175</v>
+      </c>
+      <c r="I51" t="s">
         <v>57</v>
       </c>
-      <c r="I51" t="s">
-        <v>176</v>
-      </c>
       <c r="J51" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="52">
@@ -13727,22 +13727,22 @@
         <v>279</v>
       </c>
       <c r="E52" t="n">
+        <v>12103.9</v>
+      </c>
+      <c r="F52" t="n">
         <v>11052.17</v>
-      </c>
-      <c r="F52" t="n">
-        <v>12103.9</v>
       </c>
       <c r="G52" t="n">
         <v>12103.9</v>
       </c>
       <c r="H52" t="s">
+        <v>182</v>
+      </c>
+      <c r="I52" t="s">
         <v>258</v>
       </c>
-      <c r="I52" t="s">
-        <v>183</v>
-      </c>
       <c r="J52" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="53">
@@ -13768,13 +13768,13 @@
         <v>22555.66</v>
       </c>
       <c r="H53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54">
@@ -13785,7 +13785,7 @@
         <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="D54" t="s">
         <v>279</v>
@@ -13817,7 +13817,7 @@
         <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D55" t="s">
         <v>279</v>
@@ -13849,16 +13849,16 @@
         <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D56" t="s">
         <v>279</v>
       </c>
       <c r="E56" t="n">
+        <v>19837.44</v>
+      </c>
+      <c r="F56" t="n">
         <v>19752.61</v>
-      </c>
-      <c r="F56" t="n">
-        <v>19837.44</v>
       </c>
       <c r="G56" t="n">
         <v>19837.44</v>
@@ -13870,7 +13870,7 @@
         <v>262</v>
       </c>
       <c r="J56" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="57">
@@ -13881,7 +13881,7 @@
         <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D57" t="s">
         <v>279</v>
@@ -13939,10 +13939,10 @@
         <v>279</v>
       </c>
       <c r="E59" t="n">
+        <v>25182.46</v>
+      </c>
+      <c r="F59" t="n">
         <v>25133.68</v>
-      </c>
-      <c r="F59" t="n">
-        <v>25182.46</v>
       </c>
       <c r="G59" t="n">
         <v>25182.46</v>
@@ -13954,7 +13954,7 @@
         <v>264</v>
       </c>
       <c r="J59" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60">
@@ -13971,19 +13971,19 @@
         <v>279</v>
       </c>
       <c r="E60" t="n">
+        <v>20207.3</v>
+      </c>
+      <c r="F60" t="n">
         <v>20205.77</v>
-      </c>
-      <c r="F60" t="n">
-        <v>20207.3</v>
       </c>
       <c r="G60" t="n">
         <v>20207.3</v>
       </c>
       <c r="H60" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="I60" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="J60" t="s">
         <v>265</v>

--- a/median-income-hhsize-tenure/data/differences.xlsx
+++ b/median-income-hhsize-tenure/data/differences.xlsx
@@ -2011,17 +2011,25 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
+      <c r="F27" t="n">
+        <v>61276.23</v>
+      </c>
+      <c r="G27" t="n">
+        <v>57327.37</v>
+      </c>
       <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
+      <c r="I27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -2031,24 +2039,24 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28"/>
       <c r="F28" t="n">
-        <v>61276.23</v>
+        <v>75841.16</v>
       </c>
       <c r="G28" t="n">
-        <v>57327.37</v>
+        <v>76401.24</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29">
@@ -2059,24 +2067,24 @@
         <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29"/>
       <c r="F29" t="n">
-        <v>75841.16</v>
+        <v>73032.18</v>
       </c>
       <c r="G29" t="n">
-        <v>76401.24</v>
+        <v>74883.35</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -2087,24 +2095,24 @@
         <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30"/>
       <c r="F30" t="n">
-        <v>73032.18</v>
+        <v>65550.78</v>
       </c>
       <c r="G30" t="n">
-        <v>74883.35</v>
+        <v>77075.56</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J30" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -2115,24 +2123,24 @@
         <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31"/>
       <c r="F31" t="n">
-        <v>65550.78</v>
+        <v>75274.59</v>
       </c>
       <c r="G31" t="n">
-        <v>77075.56</v>
+        <v>76873.76</v>
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32">
@@ -2143,24 +2151,28 @@
         <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
-      <c r="E32"/>
+      <c r="E32" t="n">
+        <v>86928.2</v>
+      </c>
       <c r="F32" t="n">
-        <v>75274.59</v>
+        <v>75855.02</v>
       </c>
       <c r="G32" t="n">
-        <v>76873.76</v>
-      </c>
-      <c r="H32"/>
+        <v>77777.84</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
       <c r="I32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
@@ -2171,28 +2183,28 @@
         <v>68</v>
       </c>
       <c r="C33" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="n">
-        <v>86928.2</v>
+        <v>93167.35</v>
       </c>
       <c r="F33" t="n">
-        <v>75855.02</v>
+        <v>92066.89</v>
       </c>
       <c r="G33" t="n">
-        <v>77777.84</v>
+        <v>92094.76</v>
       </c>
       <c r="H33" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -2203,28 +2215,28 @@
         <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>93167.35</v>
+        <v>78742.82</v>
       </c>
       <c r="F34" t="n">
-        <v>92066.89</v>
+        <v>80239.61</v>
       </c>
       <c r="G34" t="n">
-        <v>92094.76</v>
+        <v>79586.99</v>
       </c>
       <c r="H34" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="I34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -2232,31 +2244,31 @@
         <v>2023</v>
       </c>
       <c r="B35" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>78742.82</v>
+        <v>49697.94</v>
       </c>
       <c r="F35" t="n">
-        <v>80239.61</v>
+        <v>36916.11</v>
       </c>
       <c r="G35" t="n">
-        <v>79586.99</v>
+        <v>36413.11</v>
       </c>
       <c r="H35" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="I35" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -2267,28 +2279,28 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>49697.94</v>
+        <v>77046.24</v>
       </c>
       <c r="F36" t="n">
-        <v>36916.11</v>
+        <v>63529.38</v>
       </c>
       <c r="G36" t="n">
-        <v>36413.11</v>
+        <v>71384.48</v>
       </c>
       <c r="H36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J36" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37">
@@ -2299,28 +2311,28 @@
         <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>77046.24</v>
+        <v>67277.61</v>
       </c>
       <c r="F37" t="n">
-        <v>63529.38</v>
+        <v>47427.43</v>
       </c>
       <c r="G37" t="n">
-        <v>71384.48</v>
+        <v>47427.43</v>
       </c>
       <c r="H37" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I37" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38">
@@ -2331,28 +2343,28 @@
         <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>67277.61</v>
+        <v>58425.72</v>
       </c>
       <c r="F38" t="n">
-        <v>47427.43</v>
+        <v>23659.71</v>
       </c>
       <c r="G38" t="n">
-        <v>47427.43</v>
+        <v>15406.55</v>
       </c>
       <c r="H38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J38" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39">
@@ -2363,28 +2375,28 @@
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>58425.72</v>
+        <v>98049.02</v>
       </c>
       <c r="F39" t="n">
-        <v>23659.71</v>
+        <v>131996.2</v>
       </c>
       <c r="G39" t="n">
-        <v>15406.55</v>
+        <v>131996.2</v>
       </c>
       <c r="H39" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I39" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -2395,28 +2407,28 @@
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>98049.02</v>
+        <v>-147958.3</v>
       </c>
       <c r="F40" t="n">
-        <v>131996.2</v>
+        <v>-155121.33</v>
       </c>
       <c r="G40" t="n">
-        <v>131996.2</v>
+        <v>-155121.33</v>
       </c>
       <c r="H40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J40" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41">
@@ -2427,28 +2439,28 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>-147958.3</v>
+        <v>69626.55</v>
       </c>
       <c r="F41" t="n">
-        <v>-155121.33</v>
+        <v>47163.7</v>
       </c>
       <c r="G41" t="n">
-        <v>-155121.33</v>
+        <v>41541.8</v>
       </c>
       <c r="H41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I41" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J41" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42">
@@ -2459,28 +2471,28 @@
         <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>69626.55</v>
+        <v>48419.84</v>
       </c>
       <c r="F42" t="n">
-        <v>47163.7</v>
+        <v>48201.12</v>
       </c>
       <c r="G42" t="n">
-        <v>41541.8</v>
+        <v>46093.54</v>
       </c>
       <c r="H42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I42" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J42" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="43">
@@ -2491,28 +2503,24 @@
         <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
-      <c r="E43" t="n">
-        <v>48419.84</v>
-      </c>
+      <c r="E43"/>
       <c r="F43" t="n">
-        <v>48201.12</v>
+        <v>68275.24</v>
       </c>
       <c r="G43" t="n">
-        <v>46093.54</v>
-      </c>
-      <c r="H43" t="s">
-        <v>126</v>
-      </c>
+        <v>65760.52</v>
+      </c>
+      <c r="H43"/>
       <c r="I43" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J43" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="44">
@@ -2523,17 +2531,25 @@
         <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
       </c>
       <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
+      <c r="F44" t="n">
+        <v>34372.29</v>
+      </c>
+      <c r="G44" t="n">
+        <v>34372.29</v>
+      </c>
       <c r="H44"/>
-      <c r="I44"/>
-      <c r="J44"/>
+      <c r="I44" t="s">
+        <v>131</v>
+      </c>
+      <c r="J44" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2543,24 +2559,24 @@
         <v>107</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45"/>
       <c r="F45" t="n">
-        <v>68275.24</v>
+        <v>61978.85</v>
       </c>
       <c r="G45" t="n">
-        <v>65760.52</v>
+        <v>63336.51</v>
       </c>
       <c r="H45"/>
       <c r="I45" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="J45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46">
@@ -2571,24 +2587,24 @@
         <v>107</v>
       </c>
       <c r="C46" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
       <c r="E46"/>
       <c r="F46" t="n">
-        <v>34372.29</v>
+        <v>62598.64</v>
       </c>
       <c r="G46" t="n">
-        <v>34372.29</v>
+        <v>68394.57</v>
       </c>
       <c r="H46"/>
       <c r="I46" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="J46" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47">
@@ -2599,24 +2615,24 @@
         <v>107</v>
       </c>
       <c r="C47" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47"/>
       <c r="F47" t="n">
-        <v>61978.85</v>
+        <v>63099.08</v>
       </c>
       <c r="G47" t="n">
-        <v>63336.51</v>
+        <v>65234.63</v>
       </c>
       <c r="H47"/>
       <c r="I47" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="J47" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48">
@@ -2627,24 +2643,28 @@
         <v>107</v>
       </c>
       <c r="C48" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
-      <c r="E48"/>
+      <c r="E48" t="n">
+        <v>69626.55</v>
+      </c>
       <c r="F48" t="n">
-        <v>62598.64</v>
+        <v>64050.35</v>
       </c>
       <c r="G48" t="n">
-        <v>68394.57</v>
-      </c>
-      <c r="H48"/>
+        <v>68284.84</v>
+      </c>
+      <c r="H48" t="s">
+        <v>123</v>
+      </c>
       <c r="I48" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="J48" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49">
@@ -2655,24 +2675,28 @@
         <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
-      <c r="E49"/>
+      <c r="E49" t="n">
+        <v>65807.23</v>
+      </c>
       <c r="F49" t="n">
-        <v>63099.08</v>
+        <v>61103.75</v>
       </c>
       <c r="G49" t="n">
-        <v>65234.63</v>
-      </c>
-      <c r="H49"/>
+        <v>61725.44</v>
+      </c>
+      <c r="H49" t="s">
+        <v>140</v>
+      </c>
       <c r="I49" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J49" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50">
@@ -2683,28 +2707,28 @@
         <v>107</v>
       </c>
       <c r="C50" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>69626.55</v>
+        <v>53251.85</v>
       </c>
       <c r="F50" t="n">
-        <v>64050.35</v>
+        <v>52946.44</v>
       </c>
       <c r="G50" t="n">
-        <v>68284.84</v>
+        <v>49839.57</v>
       </c>
       <c r="H50" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I50" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J50" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51">
@@ -2712,31 +2736,31 @@
         <v>2023</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="n">
-        <v>65807.23</v>
+        <v>32529.52</v>
       </c>
       <c r="F51" t="n">
-        <v>61103.75</v>
+        <v>127496.19</v>
       </c>
       <c r="G51" t="n">
-        <v>61725.44</v>
+        <v>127496.19</v>
       </c>
       <c r="H51" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I51" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J51" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52">
@@ -2744,31 +2768,31 @@
         <v>2023</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>53251.85</v>
+        <v>43416.39</v>
       </c>
       <c r="F52" t="n">
-        <v>52946.44</v>
+        <v>26117.08</v>
       </c>
       <c r="G52" t="n">
-        <v>49839.57</v>
+        <v>26568.06</v>
       </c>
       <c r="H52" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I52" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J52" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53">
@@ -2779,28 +2803,28 @@
         <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="n">
-        <v>32529.52</v>
+        <v>57614.93</v>
       </c>
       <c r="F53" t="n">
-        <v>127496.19</v>
+        <v>57435.69</v>
       </c>
       <c r="G53" t="n">
-        <v>127496.19</v>
+        <v>58782.49</v>
       </c>
       <c r="H53" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I53" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J53" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="54">
@@ -2811,28 +2835,28 @@
         <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>43416.39</v>
+        <v>37827.05</v>
       </c>
       <c r="F54" t="n">
-        <v>26117.08</v>
+        <v>36689.68</v>
       </c>
       <c r="G54" t="n">
-        <v>26568.06</v>
+        <v>36730.33</v>
       </c>
       <c r="H54" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I54" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J54" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="55">
@@ -2843,28 +2867,28 @@
         <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>57614.93</v>
+        <v>64264.57</v>
       </c>
       <c r="F55" t="n">
-        <v>57435.69</v>
+        <v>108940.15</v>
       </c>
       <c r="G55" t="n">
-        <v>58782.49</v>
+        <v>112556.86</v>
       </c>
       <c r="H55" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I55" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J55" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="56">
@@ -2875,28 +2899,28 @@
         <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>37827.05</v>
+        <v>60509.46</v>
       </c>
       <c r="F56" t="n">
-        <v>36689.68</v>
+        <v>62311.75</v>
       </c>
       <c r="G56" t="n">
-        <v>36730.33</v>
+        <v>59985.74</v>
       </c>
       <c r="H56" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I56" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J56" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57">
@@ -2907,28 +2931,28 @@
         <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D57" t="s">
         <v>12</v>
       </c>
       <c r="E57" t="n">
-        <v>64264.57</v>
+        <v>46818.94</v>
       </c>
       <c r="F57" t="n">
-        <v>108940.15</v>
+        <v>58224.97</v>
       </c>
       <c r="G57" t="n">
-        <v>112556.86</v>
+        <v>55513.29</v>
       </c>
       <c r="H57" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I57" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J57" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
@@ -2939,28 +2963,28 @@
         <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D58" t="s">
         <v>12</v>
       </c>
       <c r="E58" t="n">
-        <v>60509.46</v>
+        <v>48459.64</v>
       </c>
       <c r="F58" t="n">
-        <v>62311.75</v>
+        <v>49057.05</v>
       </c>
       <c r="G58" t="n">
-        <v>59985.74</v>
+        <v>47869.67</v>
       </c>
       <c r="H58" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="I58" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J58" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59">
@@ -2971,28 +2995,24 @@
         <v>146</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="D59" t="s">
         <v>12</v>
       </c>
-      <c r="E59" t="n">
-        <v>46818.94</v>
-      </c>
+      <c r="E59"/>
       <c r="F59" t="n">
-        <v>58224.97</v>
+        <v>45869.78</v>
       </c>
       <c r="G59" t="n">
-        <v>55513.29</v>
-      </c>
-      <c r="H59" t="s">
-        <v>163</v>
-      </c>
+        <v>51225.88</v>
+      </c>
+      <c r="H59"/>
       <c r="I59" t="s">
-        <v>164</v>
+        <v>94</v>
       </c>
       <c r="J59" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60">
@@ -3003,28 +3023,24 @@
         <v>146</v>
       </c>
       <c r="C60" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D60" t="s">
         <v>12</v>
       </c>
-      <c r="E60" t="n">
-        <v>48459.64</v>
-      </c>
+      <c r="E60"/>
       <c r="F60" t="n">
-        <v>49057.05</v>
+        <v>44350.96</v>
       </c>
       <c r="G60" t="n">
-        <v>47869.67</v>
-      </c>
-      <c r="H60" t="s">
-        <v>109</v>
-      </c>
+        <v>46758.12</v>
+      </c>
+      <c r="H60"/>
       <c r="I60" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="J60" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="61">
@@ -3035,17 +3051,25 @@
         <v>146</v>
       </c>
       <c r="C61" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D61" t="s">
         <v>12</v>
       </c>
       <c r="E61"/>
-      <c r="F61"/>
-      <c r="G61"/>
+      <c r="F61" t="n">
+        <v>47052.87</v>
+      </c>
+      <c r="G61" t="n">
+        <v>47745.82</v>
+      </c>
       <c r="H61"/>
-      <c r="I61"/>
-      <c r="J61"/>
+      <c r="I61" t="s">
+        <v>42</v>
+      </c>
+      <c r="J61" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -3055,24 +3079,24 @@
         <v>146</v>
       </c>
       <c r="C62" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D62" t="s">
         <v>12</v>
       </c>
       <c r="E62"/>
       <c r="F62" t="n">
-        <v>45869.78</v>
+        <v>48300.84</v>
       </c>
       <c r="G62" t="n">
-        <v>51225.88</v>
+        <v>55536.5</v>
       </c>
       <c r="H62"/>
       <c r="I62" t="s">
-        <v>94</v>
+        <v>170</v>
       </c>
       <c r="J62" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="63">
@@ -3083,24 +3107,24 @@
         <v>146</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="D63" t="s">
         <v>12</v>
       </c>
       <c r="E63"/>
       <c r="F63" t="n">
-        <v>44350.96</v>
+        <v>48453.93</v>
       </c>
       <c r="G63" t="n">
-        <v>46758.12</v>
+        <v>50054.67</v>
       </c>
       <c r="H63"/>
       <c r="I63" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J63" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64">
@@ -3111,24 +3135,28 @@
         <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D64" t="s">
         <v>12</v>
       </c>
-      <c r="E64"/>
+      <c r="E64" t="n">
+        <v>46818.94</v>
+      </c>
       <c r="F64" t="n">
-        <v>47052.87</v>
+        <v>50528.38</v>
       </c>
       <c r="G64" t="n">
-        <v>47745.82</v>
-      </c>
-      <c r="H64"/>
+        <v>51130.42</v>
+      </c>
+      <c r="H64" t="s">
+        <v>163</v>
+      </c>
       <c r="I64" t="s">
-        <v>42</v>
+        <v>156</v>
       </c>
       <c r="J64" t="s">
-        <v>17</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
@@ -3139,24 +3167,28 @@
         <v>146</v>
       </c>
       <c r="C65" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D65" t="s">
         <v>12</v>
       </c>
-      <c r="E65"/>
+      <c r="E65" t="n">
+        <v>44463.31</v>
+      </c>
       <c r="F65" t="n">
-        <v>48300.84</v>
+        <v>48794.35</v>
       </c>
       <c r="G65" t="n">
-        <v>55536.5</v>
-      </c>
-      <c r="H65"/>
+        <v>48956.91</v>
+      </c>
+      <c r="H65" t="s">
+        <v>175</v>
+      </c>
       <c r="I65" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="J65" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66">
@@ -3167,24 +3199,28 @@
         <v>146</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
         <v>12</v>
       </c>
-      <c r="E66"/>
+      <c r="E66" t="n">
+        <v>50387.25</v>
+      </c>
       <c r="F66" t="n">
-        <v>48453.93</v>
+        <v>52104.69</v>
       </c>
       <c r="G66" t="n">
-        <v>50054.67</v>
-      </c>
-      <c r="H66"/>
+        <v>51528.76</v>
+      </c>
+      <c r="H66" t="s">
+        <v>178</v>
+      </c>
       <c r="I66" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J66" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="67">
@@ -3192,31 +3228,31 @@
         <v>2023</v>
       </c>
       <c r="B67" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D67" t="s">
         <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>46818.94</v>
+        <v>29283.3</v>
       </c>
       <c r="F67" t="n">
-        <v>50528.38</v>
+        <v>87769.91</v>
       </c>
       <c r="G67" t="n">
-        <v>51130.42</v>
+        <v>72477.14</v>
       </c>
       <c r="H67" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="I67" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="J67" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68">
@@ -3224,31 +3260,31 @@
         <v>2023</v>
       </c>
       <c r="B68" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
         <v>12</v>
       </c>
       <c r="E68" t="n">
-        <v>44463.31</v>
+        <v>78879.34</v>
       </c>
       <c r="F68" t="n">
-        <v>48794.35</v>
+        <v>78222.89</v>
       </c>
       <c r="G68" t="n">
-        <v>48956.91</v>
+        <v>81398.2</v>
       </c>
       <c r="H68" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I68" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="J68" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69">
@@ -3256,31 +3292,31 @@
         <v>2023</v>
       </c>
       <c r="B69" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>50387.25</v>
+        <v>48732.37</v>
       </c>
       <c r="F69" t="n">
-        <v>52104.69</v>
+        <v>50682.76</v>
       </c>
       <c r="G69" t="n">
-        <v>51528.76</v>
+        <v>50961.69</v>
       </c>
       <c r="H69" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I69" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J69" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70">
@@ -3291,28 +3327,28 @@
         <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D70" t="s">
         <v>12</v>
       </c>
       <c r="E70" t="n">
-        <v>29283.3</v>
+        <v>63133.17</v>
       </c>
       <c r="F70" t="n">
-        <v>87769.91</v>
+        <v>40111.32</v>
       </c>
       <c r="G70" t="n">
-        <v>72477.14</v>
+        <v>40564.48</v>
       </c>
       <c r="H70" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I70" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="J70" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71">
@@ -3323,28 +3359,28 @@
         <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D71" t="s">
         <v>12</v>
       </c>
       <c r="E71" t="n">
-        <v>78879.34</v>
+        <v>92742.29</v>
       </c>
       <c r="F71" t="n">
-        <v>78222.89</v>
+        <v>203177.15</v>
       </c>
       <c r="G71" t="n">
-        <v>81398.2</v>
+        <v>203177.15</v>
       </c>
       <c r="H71" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I71" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="J71" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="72">
@@ -3355,28 +3391,28 @@
         <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D72" t="s">
         <v>12</v>
       </c>
       <c r="E72" t="n">
-        <v>48732.37</v>
+        <v>16001.71</v>
       </c>
       <c r="F72" t="n">
-        <v>50682.76</v>
+        <v>93833.59</v>
       </c>
       <c r="G72" t="n">
-        <v>50961.69</v>
+        <v>93833.59</v>
       </c>
       <c r="H72" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I72" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J72" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="73">
@@ -3387,28 +3423,28 @@
         <v>181</v>
       </c>
       <c r="C73" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D73" t="s">
         <v>12</v>
       </c>
       <c r="E73" t="n">
-        <v>63133.17</v>
+        <v>49059.12</v>
       </c>
       <c r="F73" t="n">
-        <v>40111.32</v>
+        <v>67443.67</v>
       </c>
       <c r="G73" t="n">
-        <v>40564.48</v>
+        <v>63842.21</v>
       </c>
       <c r="H73" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I73" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="J73" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="74">
@@ -3419,28 +3455,28 @@
         <v>181</v>
       </c>
       <c r="C74" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D74" t="s">
         <v>12</v>
       </c>
       <c r="E74" t="n">
-        <v>92742.29</v>
+        <v>56924.43</v>
       </c>
       <c r="F74" t="n">
-        <v>203177.15</v>
+        <v>57747.89</v>
       </c>
       <c r="G74" t="n">
-        <v>203177.15</v>
+        <v>55131.56</v>
       </c>
       <c r="H74" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I74" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J74" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -3451,28 +3487,24 @@
         <v>181</v>
       </c>
       <c r="C75" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="D75" t="s">
         <v>12</v>
       </c>
-      <c r="E75" t="n">
-        <v>16001.71</v>
-      </c>
+      <c r="E75"/>
       <c r="F75" t="n">
-        <v>93833.59</v>
+        <v>68084.36</v>
       </c>
       <c r="G75" t="n">
-        <v>93833.59</v>
-      </c>
-      <c r="H75" t="s">
-        <v>193</v>
-      </c>
+        <v>67272.93</v>
+      </c>
+      <c r="H75"/>
       <c r="I75" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="J75" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76">
@@ -3483,28 +3515,24 @@
         <v>181</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D76" t="s">
         <v>12</v>
       </c>
-      <c r="E76" t="n">
-        <v>49059.12</v>
-      </c>
+      <c r="E76"/>
       <c r="F76" t="n">
-        <v>67443.67</v>
+        <v>59561.91</v>
       </c>
       <c r="G76" t="n">
-        <v>63842.21</v>
-      </c>
-      <c r="H76" t="s">
-        <v>195</v>
-      </c>
+        <v>65314.04</v>
+      </c>
+      <c r="H76"/>
       <c r="I76" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="J76" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77">
@@ -3515,28 +3543,24 @@
         <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D77" t="s">
         <v>12</v>
       </c>
-      <c r="E77" t="n">
-        <v>56924.43</v>
-      </c>
+      <c r="E77"/>
       <c r="F77" t="n">
-        <v>57747.89</v>
+        <v>54394.15</v>
       </c>
       <c r="G77" t="n">
-        <v>55131.56</v>
-      </c>
-      <c r="H77" t="s">
-        <v>198</v>
-      </c>
+        <v>61604.5</v>
+      </c>
+      <c r="H77"/>
       <c r="I77" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="J77" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78">
@@ -3547,17 +3571,25 @@
         <v>181</v>
       </c>
       <c r="C78" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D78" t="s">
         <v>12</v>
       </c>
       <c r="E78"/>
-      <c r="F78"/>
-      <c r="G78"/>
+      <c r="F78" t="n">
+        <v>35023.65</v>
+      </c>
+      <c r="G78" t="n">
+        <v>35007.13</v>
+      </c>
       <c r="H78"/>
-      <c r="I78"/>
-      <c r="J78"/>
+      <c r="I78" t="s">
+        <v>206</v>
+      </c>
+      <c r="J78" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3567,24 +3599,24 @@
         <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D79" t="s">
         <v>12</v>
       </c>
       <c r="E79"/>
       <c r="F79" t="n">
-        <v>68084.36</v>
+        <v>55763.13</v>
       </c>
       <c r="G79" t="n">
-        <v>67272.93</v>
+        <v>60544.14</v>
       </c>
       <c r="H79"/>
       <c r="I79" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="J79" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="80">
@@ -3595,24 +3627,28 @@
         <v>181</v>
       </c>
       <c r="C80" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D80" t="s">
         <v>12</v>
       </c>
-      <c r="E80"/>
+      <c r="E80" t="n">
+        <v>49059.12</v>
+      </c>
       <c r="F80" t="n">
-        <v>59561.91</v>
+        <v>56503.17</v>
       </c>
       <c r="G80" t="n">
-        <v>65314.04</v>
-      </c>
-      <c r="H80"/>
+        <v>61600.76</v>
+      </c>
+      <c r="H80" t="s">
+        <v>195</v>
+      </c>
       <c r="I80" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="J80" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="81">
@@ -3623,24 +3659,28 @@
         <v>181</v>
       </c>
       <c r="C81" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D81" t="s">
         <v>12</v>
       </c>
-      <c r="E81"/>
+      <c r="E81" t="n">
+        <v>73009.11</v>
+      </c>
       <c r="F81" t="n">
-        <v>54394.15</v>
+        <v>70979.14</v>
       </c>
       <c r="G81" t="n">
-        <v>61604.5</v>
-      </c>
-      <c r="H81"/>
+        <v>72321.75</v>
+      </c>
+      <c r="H81" t="s">
+        <v>211</v>
+      </c>
       <c r="I81" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="J81" t="s">
-        <v>97</v>
+        <v>213</v>
       </c>
     </row>
     <row r="82">
@@ -3651,147 +3691,27 @@
         <v>181</v>
       </c>
       <c r="C82" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="D82" t="s">
         <v>12</v>
       </c>
-      <c r="E82"/>
+      <c r="E82" t="n">
+        <v>62710.22</v>
+      </c>
       <c r="F82" t="n">
-        <v>35023.65</v>
+        <v>65109.61</v>
       </c>
       <c r="G82" t="n">
-        <v>35007.13</v>
-      </c>
-      <c r="H82"/>
+        <v>63866.81</v>
+      </c>
+      <c r="H82" t="s">
+        <v>214</v>
+      </c>
       <c r="I82" t="s">
-        <v>206</v>
+        <v>63</v>
       </c>
       <c r="J82" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B83" t="s">
-        <v>181</v>
-      </c>
-      <c r="C83" t="s">
-        <v>55</v>
-      </c>
-      <c r="D83" t="s">
-        <v>12</v>
-      </c>
-      <c r="E83"/>
-      <c r="F83" t="n">
-        <v>55763.13</v>
-      </c>
-      <c r="G83" t="n">
-        <v>60544.14</v>
-      </c>
-      <c r="H83"/>
-      <c r="I83" t="s">
-        <v>207</v>
-      </c>
-      <c r="J83" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B84" t="s">
-        <v>181</v>
-      </c>
-      <c r="C84" t="s">
-        <v>58</v>
-      </c>
-      <c r="D84" t="s">
-        <v>12</v>
-      </c>
-      <c r="E84" t="n">
-        <v>49059.12</v>
-      </c>
-      <c r="F84" t="n">
-        <v>56503.17</v>
-      </c>
-      <c r="G84" t="n">
-        <v>61600.76</v>
-      </c>
-      <c r="H84" t="s">
-        <v>195</v>
-      </c>
-      <c r="I84" t="s">
-        <v>209</v>
-      </c>
-      <c r="J84" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B85" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" t="s">
-        <v>61</v>
-      </c>
-      <c r="D85" t="s">
-        <v>12</v>
-      </c>
-      <c r="E85" t="n">
-        <v>73009.11</v>
-      </c>
-      <c r="F85" t="n">
-        <v>70979.14</v>
-      </c>
-      <c r="G85" t="n">
-        <v>72321.75</v>
-      </c>
-      <c r="H85" t="s">
-        <v>211</v>
-      </c>
-      <c r="I85" t="s">
-        <v>212</v>
-      </c>
-      <c r="J85" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B86" t="s">
-        <v>181</v>
-      </c>
-      <c r="C86" t="s">
-        <v>65</v>
-      </c>
-      <c r="D86" t="s">
-        <v>12</v>
-      </c>
-      <c r="E86" t="n">
-        <v>62710.22</v>
-      </c>
-      <c r="F86" t="n">
-        <v>65109.61</v>
-      </c>
-      <c r="G86" t="n">
-        <v>63866.81</v>
-      </c>
-      <c r="H86" t="s">
-        <v>214</v>
-      </c>
-      <c r="I86" t="s">
-        <v>63</v>
-      </c>
-      <c r="J86" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4489,17 +4409,29 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>12</v>
       </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="E22" t="n">
+        <v>21151.61</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21151.61</v>
+      </c>
+      <c r="G22" t="n">
+        <v>21151.61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>233</v>
+      </c>
+      <c r="I22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -4509,28 +4441,28 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>21151.61</v>
+        <v>26896.11</v>
       </c>
       <c r="F23" t="n">
-        <v>21151.61</v>
+        <v>26896.11</v>
       </c>
       <c r="G23" t="n">
-        <v>21151.61</v>
+        <v>26896.11</v>
       </c>
       <c r="H23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
@@ -4541,28 +4473,28 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>12</v>
       </c>
       <c r="E24" t="n">
-        <v>26896.11</v>
+        <v>19135.04</v>
       </c>
       <c r="F24" t="n">
-        <v>26896.11</v>
+        <v>18917.41</v>
       </c>
       <c r="G24" t="n">
-        <v>26896.11</v>
+        <v>19135.04</v>
       </c>
       <c r="H24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
@@ -4570,31 +4502,31 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>12</v>
       </c>
       <c r="E25" t="n">
-        <v>19135.04</v>
+        <v>-19358.39</v>
       </c>
       <c r="F25" t="n">
-        <v>18917.41</v>
+        <v>-19358.39</v>
       </c>
       <c r="G25" t="n">
-        <v>19135.04</v>
+        <v>-19358.39</v>
       </c>
       <c r="H25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -4605,28 +4537,28 @@
         <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>-19358.39</v>
+        <v>39144.4</v>
       </c>
       <c r="F26" t="n">
-        <v>-19358.39</v>
+        <v>39144.4</v>
       </c>
       <c r="G26" t="n">
-        <v>-19358.39</v>
+        <v>39144.4</v>
       </c>
       <c r="H26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
@@ -4637,28 +4569,28 @@
         <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>39144.4</v>
+        <v>134162</v>
       </c>
       <c r="F27" t="n">
-        <v>39144.4</v>
+        <v>134162</v>
       </c>
       <c r="G27" t="n">
-        <v>39144.4</v>
+        <v>134162</v>
       </c>
       <c r="H27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -4669,28 +4601,28 @@
         <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>134162</v>
+        <v>11413.66</v>
       </c>
       <c r="F28" t="n">
-        <v>134162</v>
+        <v>11413.66</v>
       </c>
       <c r="G28" t="n">
-        <v>134162</v>
+        <v>11413.66</v>
       </c>
       <c r="H28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
@@ -4701,28 +4633,28 @@
         <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="n">
-        <v>11413.66</v>
+        <v>-29954.4</v>
       </c>
       <c r="F29" t="n">
-        <v>11413.66</v>
+        <v>-29954.4</v>
       </c>
       <c r="G29" t="n">
-        <v>11413.66</v>
+        <v>-29954.4</v>
       </c>
       <c r="H29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
@@ -4733,28 +4665,28 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
         <v>12</v>
       </c>
       <c r="E30" t="n">
-        <v>-29954.4</v>
+        <v>65257.09</v>
       </c>
       <c r="F30" t="n">
-        <v>-29954.4</v>
+        <v>65257.09</v>
       </c>
       <c r="G30" t="n">
-        <v>-29954.4</v>
+        <v>65257.09</v>
       </c>
       <c r="H30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
@@ -4765,28 +4697,28 @@
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
         <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>65257.09</v>
+        <v>44882.01</v>
       </c>
       <c r="F31" t="n">
-        <v>65257.09</v>
+        <v>44882.01</v>
       </c>
       <c r="G31" t="n">
-        <v>65257.09</v>
+        <v>44882.01</v>
       </c>
       <c r="H31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
@@ -4797,28 +4729,28 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>12</v>
       </c>
       <c r="E32" t="n">
-        <v>44882.01</v>
+        <v>14495.7</v>
       </c>
       <c r="F32" t="n">
-        <v>44882.01</v>
+        <v>14274.39</v>
       </c>
       <c r="G32" t="n">
-        <v>44882.01</v>
+        <v>14495.7</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -4829,28 +4761,28 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>12</v>
       </c>
       <c r="E33" t="n">
-        <v>14495.7</v>
+        <v>44882.01</v>
       </c>
       <c r="F33" t="n">
-        <v>14274.39</v>
+        <v>44882.01</v>
       </c>
       <c r="G33" t="n">
-        <v>14495.7</v>
+        <v>44882.01</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>244</v>
       </c>
       <c r="I33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
@@ -4861,17 +4793,29 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
+      <c r="E34" t="n">
+        <v>33150.23</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33150.23</v>
+      </c>
+      <c r="G34" t="n">
+        <v>33150.23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -4881,28 +4825,28 @@
         <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
         <v>12</v>
       </c>
       <c r="E35" t="n">
-        <v>44882.01</v>
+        <v>18234.69</v>
       </c>
       <c r="F35" t="n">
-        <v>44882.01</v>
+        <v>18234.69</v>
       </c>
       <c r="G35" t="n">
-        <v>44882.01</v>
+        <v>18234.69</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -4910,31 +4854,31 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>33150.23</v>
+        <v>9174.22</v>
       </c>
       <c r="F36" t="n">
-        <v>33150.23</v>
+        <v>9174.22</v>
       </c>
       <c r="G36" t="n">
-        <v>33150.23</v>
+        <v>9174.22</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
@@ -4942,31 +4886,31 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="n">
-        <v>18234.69</v>
+        <v>22794.67</v>
       </c>
       <c r="F37" t="n">
-        <v>18234.69</v>
+        <v>22794.67</v>
       </c>
       <c r="G37" t="n">
-        <v>18234.69</v>
+        <v>22794.67</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38">
@@ -4977,28 +4921,28 @@
         <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>9174.22</v>
+        <v>45972.28</v>
       </c>
       <c r="F38" t="n">
-        <v>9174.22</v>
+        <v>45972.28</v>
       </c>
       <c r="G38" t="n">
-        <v>9174.22</v>
+        <v>45972.28</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39">
@@ -5009,28 +4953,28 @@
         <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>12</v>
       </c>
       <c r="E39" t="n">
-        <v>22794.67</v>
+        <v>10671.23</v>
       </c>
       <c r="F39" t="n">
-        <v>22794.67</v>
+        <v>10671.23</v>
       </c>
       <c r="G39" t="n">
-        <v>22794.67</v>
+        <v>10671.23</v>
       </c>
       <c r="H39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40">
@@ -5041,28 +4985,28 @@
         <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>45972.28</v>
+        <v>-35202.76</v>
       </c>
       <c r="F40" t="n">
-        <v>45972.28</v>
+        <v>-35202.76</v>
       </c>
       <c r="G40" t="n">
-        <v>45972.28</v>
+        <v>-35202.76</v>
       </c>
       <c r="H40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41">
@@ -5073,28 +5017,28 @@
         <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
         <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>10671.23</v>
+        <v>25316.01</v>
       </c>
       <c r="F41" t="n">
-        <v>10671.23</v>
+        <v>25316.01</v>
       </c>
       <c r="G41" t="n">
-        <v>10671.23</v>
+        <v>25316.01</v>
       </c>
       <c r="H41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42">
@@ -5105,28 +5049,28 @@
         <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
         <v>12</v>
       </c>
       <c r="E42" t="n">
-        <v>-35202.76</v>
+        <v>25487.95</v>
       </c>
       <c r="F42" t="n">
-        <v>-35202.76</v>
+        <v>25487.95</v>
       </c>
       <c r="G42" t="n">
-        <v>-35202.76</v>
+        <v>25487.95</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43">
@@ -5137,28 +5081,28 @@
         <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
         <v>12</v>
       </c>
       <c r="E43" t="n">
-        <v>25316.01</v>
+        <v>15037.54</v>
       </c>
       <c r="F43" t="n">
-        <v>25316.01</v>
+        <v>14655.46</v>
       </c>
       <c r="G43" t="n">
-        <v>25316.01</v>
+        <v>15037.54</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I43" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="J43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44">
@@ -5169,7 +5113,7 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>12</v>
@@ -5201,28 +5145,28 @@
         <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
         <v>12</v>
       </c>
       <c r="E45" t="n">
-        <v>15037.54</v>
+        <v>18023.33</v>
       </c>
       <c r="F45" t="n">
-        <v>14655.46</v>
+        <v>18023.33</v>
       </c>
       <c r="G45" t="n">
-        <v>15037.54</v>
+        <v>18023.33</v>
       </c>
       <c r="H45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="J45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46">
@@ -5233,48 +5177,60 @@
         <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
         <v>12</v>
       </c>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
+      <c r="E46" t="n">
+        <v>15168.86</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15162.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>15168.86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" t="s">
+        <v>256</v>
+      </c>
+      <c r="J46" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>12</v>
       </c>
       <c r="E47" t="n">
-        <v>25487.95</v>
+        <v>16196.82</v>
       </c>
       <c r="F47" t="n">
-        <v>25487.95</v>
+        <v>16196.82</v>
       </c>
       <c r="G47" t="n">
-        <v>25487.95</v>
+        <v>16196.82</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
@@ -5282,31 +5238,31 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
       </c>
       <c r="E48" t="n">
-        <v>18023.33</v>
+        <v>25539.83</v>
       </c>
       <c r="F48" t="n">
-        <v>18023.33</v>
+        <v>26519.01</v>
       </c>
       <c r="G48" t="n">
-        <v>18023.33</v>
+        <v>25539.83</v>
       </c>
       <c r="H48" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="I48" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49">
@@ -5314,31 +5270,31 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
         <v>12</v>
       </c>
       <c r="E49" t="n">
-        <v>15168.86</v>
+        <v>12103.9</v>
       </c>
       <c r="F49" t="n">
-        <v>15162.5</v>
+        <v>11052.17</v>
       </c>
       <c r="G49" t="n">
-        <v>15168.86</v>
+        <v>12103.9</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="I49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J49" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50">
@@ -5349,28 +5305,28 @@
         <v>181</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="n">
-        <v>16196.82</v>
+        <v>22555.66</v>
       </c>
       <c r="F50" t="n">
-        <v>16196.82</v>
+        <v>22555.66</v>
       </c>
       <c r="G50" t="n">
-        <v>16196.82</v>
+        <v>22555.66</v>
       </c>
       <c r="H50" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="I50" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="J50" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51">
@@ -5381,28 +5337,28 @@
         <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>12</v>
       </c>
       <c r="E51" t="n">
-        <v>25539.83</v>
+        <v>14245.68</v>
       </c>
       <c r="F51" t="n">
-        <v>26519.01</v>
+        <v>14245.68</v>
       </c>
       <c r="G51" t="n">
-        <v>25539.83</v>
+        <v>14245.68</v>
       </c>
       <c r="H51" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="I51" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="J51" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52">
@@ -5413,28 +5369,28 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>12103.9</v>
+        <v>23828</v>
       </c>
       <c r="F52" t="n">
-        <v>11052.17</v>
+        <v>23828</v>
       </c>
       <c r="G52" t="n">
-        <v>12103.9</v>
+        <v>23828</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="I52" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J52" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53">
@@ -5445,28 +5401,28 @@
         <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="n">
-        <v>22555.66</v>
+        <v>19837.44</v>
       </c>
       <c r="F53" t="n">
-        <v>22555.66</v>
+        <v>19752.61</v>
       </c>
       <c r="G53" t="n">
-        <v>22555.66</v>
+        <v>19837.44</v>
       </c>
       <c r="H53" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="J53" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54">
@@ -5477,28 +5433,28 @@
         <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
         <v>12</v>
       </c>
       <c r="E54" t="n">
-        <v>14245.68</v>
+        <v>23828</v>
       </c>
       <c r="F54" t="n">
-        <v>14245.68</v>
+        <v>23828</v>
       </c>
       <c r="G54" t="n">
-        <v>14245.68</v>
+        <v>23828</v>
       </c>
       <c r="H54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55">
@@ -5509,28 +5465,28 @@
         <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
         <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>23828</v>
+        <v>25182.46</v>
       </c>
       <c r="F55" t="n">
-        <v>23828</v>
+        <v>25133.68</v>
       </c>
       <c r="G55" t="n">
-        <v>23828</v>
+        <v>25182.46</v>
       </c>
       <c r="H55" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I55" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J55" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56">
@@ -5541,143 +5497,27 @@
         <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>19837.44</v>
+        <v>20207.3</v>
       </c>
       <c r="F56" t="n">
-        <v>19752.61</v>
+        <v>20205.77</v>
       </c>
       <c r="G56" t="n">
-        <v>19837.44</v>
+        <v>20207.3</v>
       </c>
       <c r="H56" t="s">
+        <v>265</v>
+      </c>
+      <c r="I56" t="s">
         <v>261</v>
       </c>
-      <c r="I56" t="s">
-        <v>262</v>
-      </c>
       <c r="J56" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B57" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B58" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" t="n">
-        <v>23828</v>
-      </c>
-      <c r="F58" t="n">
-        <v>23828</v>
-      </c>
-      <c r="G58" t="n">
-        <v>23828</v>
-      </c>
-      <c r="H58" t="s">
-        <v>260</v>
-      </c>
-      <c r="I58" t="s">
-        <v>260</v>
-      </c>
-      <c r="J58" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B59" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" t="n">
-        <v>25182.46</v>
-      </c>
-      <c r="F59" t="n">
-        <v>25133.68</v>
-      </c>
-      <c r="G59" t="n">
-        <v>25182.46</v>
-      </c>
-      <c r="H59" t="s">
-        <v>263</v>
-      </c>
-      <c r="I59" t="s">
-        <v>264</v>
-      </c>
-      <c r="J59" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B60" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" t="n">
-        <v>20207.3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>20205.77</v>
-      </c>
-      <c r="G60" t="n">
-        <v>20207.3</v>
-      </c>
-      <c r="H60" t="s">
-        <v>265</v>
-      </c>
-      <c r="I60" t="s">
-        <v>261</v>
-      </c>
-      <c r="J60" t="s">
         <v>265</v>
       </c>
     </row>
@@ -6459,17 +6299,25 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D25" t="s">
         <v>266</v>
       </c>
       <c r="E25"/>
-      <c r="F25"/>
-      <c r="G25"/>
+      <c r="F25" t="n">
+        <v>77520.24</v>
+      </c>
+      <c r="G25" t="n">
+        <v>76922.56</v>
+      </c>
       <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25"/>
+      <c r="I25" t="s">
+        <v>269</v>
+      </c>
+      <c r="J25" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -6479,24 +6327,24 @@
         <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>50</v>
+        <v>268</v>
       </c>
       <c r="D26" t="s">
         <v>266</v>
       </c>
       <c r="E26"/>
       <c r="F26" t="n">
-        <v>77520.24</v>
+        <v>59248.27</v>
       </c>
       <c r="G26" t="n">
-        <v>76922.56</v>
+        <v>74904.15</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>269</v>
+        <v>91</v>
       </c>
       <c r="J26" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27">
@@ -6507,24 +6355,24 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>266</v>
       </c>
       <c r="E27"/>
       <c r="F27" t="n">
-        <v>59248.27</v>
+        <v>75274.59</v>
       </c>
       <c r="G27" t="n">
-        <v>74904.15</v>
+        <v>76873.76</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J27" t="s">
-        <v>271</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
@@ -6535,24 +6383,28 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D28" t="s">
         <v>266</v>
       </c>
-      <c r="E28"/>
+      <c r="E28" t="n">
+        <v>86928.2</v>
+      </c>
       <c r="F28" t="n">
-        <v>75274.59</v>
+        <v>75855.02</v>
       </c>
       <c r="G28" t="n">
-        <v>76873.76</v>
-      </c>
-      <c r="H28"/>
+        <v>77777.84</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
       <c r="I28" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J28" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -6563,28 +6415,28 @@
         <v>68</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D29" t="s">
         <v>266</v>
       </c>
       <c r="E29" t="n">
-        <v>86928.2</v>
+        <v>93167.35</v>
       </c>
       <c r="F29" t="n">
-        <v>75855.02</v>
+        <v>92066.89</v>
       </c>
       <c r="G29" t="n">
-        <v>77777.84</v>
+        <v>92094.76</v>
       </c>
       <c r="H29" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="I29" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J29" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -6595,28 +6447,28 @@
         <v>68</v>
       </c>
       <c r="C30" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D30" t="s">
         <v>266</v>
       </c>
       <c r="E30" t="n">
-        <v>93167.35</v>
+        <v>78742.82</v>
       </c>
       <c r="F30" t="n">
-        <v>92066.89</v>
+        <v>80239.61</v>
       </c>
       <c r="G30" t="n">
-        <v>92094.76</v>
+        <v>79586.99</v>
       </c>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="I30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J30" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31">
@@ -6624,31 +6476,31 @@
         <v>2023</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D31" t="s">
         <v>266</v>
       </c>
       <c r="E31" t="n">
-        <v>78742.82</v>
+        <v>49697.94</v>
       </c>
       <c r="F31" t="n">
-        <v>80239.61</v>
+        <v>36916.11</v>
       </c>
       <c r="G31" t="n">
-        <v>79586.99</v>
+        <v>36413.11</v>
       </c>
       <c r="H31" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="I31" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -6659,28 +6511,28 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
         <v>266</v>
       </c>
       <c r="E32" t="n">
-        <v>49697.94</v>
+        <v>77046.24</v>
       </c>
       <c r="F32" t="n">
-        <v>36916.11</v>
+        <v>63529.38</v>
       </c>
       <c r="G32" t="n">
-        <v>36413.11</v>
+        <v>71384.48</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I32" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J32" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33">
@@ -6691,28 +6543,28 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D33" t="s">
         <v>266</v>
       </c>
       <c r="E33" t="n">
-        <v>77046.24</v>
+        <v>67277.61</v>
       </c>
       <c r="F33" t="n">
-        <v>63529.38</v>
+        <v>47427.43</v>
       </c>
       <c r="G33" t="n">
-        <v>71384.48</v>
+        <v>47427.43</v>
       </c>
       <c r="H33" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I33" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="34">
@@ -6723,28 +6575,28 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>266</v>
       </c>
       <c r="E34" t="n">
-        <v>67277.61</v>
+        <v>58425.72</v>
       </c>
       <c r="F34" t="n">
-        <v>47427.43</v>
+        <v>23659.71</v>
       </c>
       <c r="G34" t="n">
-        <v>47427.43</v>
+        <v>15406.55</v>
       </c>
       <c r="H34" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I34" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J34" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35">
@@ -6755,28 +6607,28 @@
         <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D35" t="s">
         <v>266</v>
       </c>
       <c r="E35" t="n">
-        <v>58425.72</v>
+        <v>98049.02</v>
       </c>
       <c r="F35" t="n">
-        <v>23659.71</v>
+        <v>131996.2</v>
       </c>
       <c r="G35" t="n">
-        <v>15406.55</v>
+        <v>131996.2</v>
       </c>
       <c r="H35" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I35" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="36">
@@ -6787,28 +6639,28 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D36" t="s">
         <v>266</v>
       </c>
       <c r="E36" t="n">
-        <v>98049.02</v>
+        <v>-147958.3</v>
       </c>
       <c r="F36" t="n">
-        <v>131996.2</v>
+        <v>-155121.33</v>
       </c>
       <c r="G36" t="n">
-        <v>131996.2</v>
+        <v>-155121.33</v>
       </c>
       <c r="H36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J36" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37">
@@ -6819,28 +6671,28 @@
         <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D37" t="s">
         <v>266</v>
       </c>
       <c r="E37" t="n">
-        <v>-147958.3</v>
+        <v>69626.55</v>
       </c>
       <c r="F37" t="n">
-        <v>-155121.33</v>
+        <v>47163.7</v>
       </c>
       <c r="G37" t="n">
-        <v>-155121.33</v>
+        <v>41541.8</v>
       </c>
       <c r="H37" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I37" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J37" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -6851,28 +6703,28 @@
         <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
         <v>266</v>
       </c>
       <c r="E38" t="n">
-        <v>69626.55</v>
+        <v>48419.84</v>
       </c>
       <c r="F38" t="n">
-        <v>47163.7</v>
+        <v>48201.12</v>
       </c>
       <c r="G38" t="n">
-        <v>41541.8</v>
+        <v>46093.54</v>
       </c>
       <c r="H38" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I38" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J38" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39">
@@ -6883,28 +6735,24 @@
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
         <v>266</v>
       </c>
-      <c r="E39" t="n">
-        <v>48419.84</v>
-      </c>
+      <c r="E39"/>
       <c r="F39" t="n">
-        <v>48201.12</v>
+        <v>58480.71</v>
       </c>
       <c r="G39" t="n">
-        <v>46093.54</v>
-      </c>
-      <c r="H39" t="s">
-        <v>126</v>
-      </c>
+        <v>62443.56</v>
+      </c>
+      <c r="H39"/>
       <c r="I39" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
       <c r="J39" t="s">
-        <v>128</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40">
@@ -6915,17 +6763,25 @@
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>268</v>
       </c>
       <c r="D40" t="s">
         <v>266</v>
       </c>
       <c r="E40"/>
-      <c r="F40"/>
-      <c r="G40"/>
+      <c r="F40" t="n">
+        <v>72037.8</v>
+      </c>
+      <c r="G40" t="n">
+        <v>65725.79</v>
+      </c>
       <c r="H40"/>
-      <c r="I40"/>
-      <c r="J40"/>
+      <c r="I40" t="s">
+        <v>273</v>
+      </c>
+      <c r="J40" t="s">
+        <v>274</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -6935,24 +6791,24 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
         <v>266</v>
       </c>
       <c r="E41"/>
       <c r="F41" t="n">
-        <v>58480.71</v>
+        <v>63099.08</v>
       </c>
       <c r="G41" t="n">
-        <v>62443.56</v>
+        <v>65234.63</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>272</v>
+        <v>136</v>
       </c>
       <c r="J41" t="s">
-        <v>37</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42">
@@ -6963,24 +6819,28 @@
         <v>107</v>
       </c>
       <c r="C42" t="s">
-        <v>268</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
         <v>266</v>
       </c>
-      <c r="E42"/>
+      <c r="E42" t="n">
+        <v>69626.55</v>
+      </c>
       <c r="F42" t="n">
-        <v>72037.8</v>
+        <v>64050.35</v>
       </c>
       <c r="G42" t="n">
-        <v>65725.79</v>
-      </c>
-      <c r="H42"/>
+        <v>68284.84</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
       <c r="I42" t="s">
-        <v>273</v>
+        <v>138</v>
       </c>
       <c r="J42" t="s">
-        <v>274</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43">
@@ -6991,24 +6851,28 @@
         <v>107</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D43" t="s">
         <v>266</v>
       </c>
-      <c r="E43"/>
+      <c r="E43" t="n">
+        <v>65807.23</v>
+      </c>
       <c r="F43" t="n">
-        <v>63099.08</v>
+        <v>61103.75</v>
       </c>
       <c r="G43" t="n">
-        <v>65234.63</v>
-      </c>
-      <c r="H43"/>
+        <v>61725.44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>140</v>
+      </c>
       <c r="I43" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J43" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="44">
@@ -7019,28 +6883,28 @@
         <v>107</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D44" t="s">
         <v>266</v>
       </c>
       <c r="E44" t="n">
-        <v>69626.55</v>
+        <v>53251.85</v>
       </c>
       <c r="F44" t="n">
-        <v>64050.35</v>
+        <v>52946.44</v>
       </c>
       <c r="G44" t="n">
-        <v>68284.84</v>
+        <v>49839.57</v>
       </c>
       <c r="H44" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I44" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J44" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="45">
@@ -7048,31 +6912,31 @@
         <v>2023</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D45" t="s">
         <v>266</v>
       </c>
       <c r="E45" t="n">
-        <v>65807.23</v>
+        <v>32529.52</v>
       </c>
       <c r="F45" t="n">
-        <v>61103.75</v>
+        <v>127496.19</v>
       </c>
       <c r="G45" t="n">
-        <v>61725.44</v>
+        <v>127496.19</v>
       </c>
       <c r="H45" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J45" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46">
@@ -7080,31 +6944,31 @@
         <v>2023</v>
       </c>
       <c r="B46" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D46" t="s">
         <v>266</v>
       </c>
       <c r="E46" t="n">
-        <v>53251.85</v>
+        <v>43416.39</v>
       </c>
       <c r="F46" t="n">
-        <v>52946.44</v>
+        <v>26117.08</v>
       </c>
       <c r="G46" t="n">
-        <v>49839.57</v>
+        <v>26568.06</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I46" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J46" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47">
@@ -7115,28 +6979,28 @@
         <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
         <v>266</v>
       </c>
       <c r="E47" t="n">
-        <v>32529.52</v>
+        <v>57614.93</v>
       </c>
       <c r="F47" t="n">
-        <v>127496.19</v>
+        <v>57435.69</v>
       </c>
       <c r="G47" t="n">
-        <v>127496.19</v>
+        <v>58782.49</v>
       </c>
       <c r="H47" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I47" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J47" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="48">
@@ -7147,28 +7011,28 @@
         <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D48" t="s">
         <v>266</v>
       </c>
       <c r="E48" t="n">
-        <v>43416.39</v>
+        <v>37827.05</v>
       </c>
       <c r="F48" t="n">
-        <v>26117.08</v>
+        <v>36689.68</v>
       </c>
       <c r="G48" t="n">
-        <v>26568.06</v>
+        <v>36730.33</v>
       </c>
       <c r="H48" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I48" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J48" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49">
@@ -7179,28 +7043,28 @@
         <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D49" t="s">
         <v>266</v>
       </c>
       <c r="E49" t="n">
-        <v>57614.93</v>
+        <v>64264.57</v>
       </c>
       <c r="F49" t="n">
-        <v>57435.69</v>
+        <v>108940.15</v>
       </c>
       <c r="G49" t="n">
-        <v>58782.49</v>
+        <v>112556.86</v>
       </c>
       <c r="H49" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I49" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J49" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50">
@@ -7211,28 +7075,28 @@
         <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D50" t="s">
         <v>266</v>
       </c>
       <c r="E50" t="n">
-        <v>37827.05</v>
+        <v>60509.46</v>
       </c>
       <c r="F50" t="n">
-        <v>36689.68</v>
+        <v>62311.75</v>
       </c>
       <c r="G50" t="n">
-        <v>36730.33</v>
+        <v>59985.74</v>
       </c>
       <c r="H50" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I50" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J50" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51">
@@ -7243,28 +7107,28 @@
         <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D51" t="s">
         <v>266</v>
       </c>
       <c r="E51" t="n">
-        <v>64264.57</v>
+        <v>46818.94</v>
       </c>
       <c r="F51" t="n">
-        <v>108940.15</v>
+        <v>58224.97</v>
       </c>
       <c r="G51" t="n">
-        <v>112556.86</v>
+        <v>55513.29</v>
       </c>
       <c r="H51" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I51" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J51" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52">
@@ -7275,28 +7139,28 @@
         <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
         <v>266</v>
       </c>
       <c r="E52" t="n">
-        <v>60509.46</v>
+        <v>48459.64</v>
       </c>
       <c r="F52" t="n">
-        <v>62311.75</v>
+        <v>49057.05</v>
       </c>
       <c r="G52" t="n">
-        <v>59985.74</v>
+        <v>47869.67</v>
       </c>
       <c r="H52" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="I52" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J52" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53">
@@ -7307,28 +7171,24 @@
         <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D53" t="s">
         <v>266</v>
       </c>
-      <c r="E53" t="n">
-        <v>46818.94</v>
-      </c>
+      <c r="E53"/>
       <c r="F53" t="n">
-        <v>58224.97</v>
+        <v>49784.03</v>
       </c>
       <c r="G53" t="n">
-        <v>55513.29</v>
-      </c>
-      <c r="H53" t="s">
-        <v>163</v>
-      </c>
+        <v>47536.49</v>
+      </c>
+      <c r="H53"/>
       <c r="I53" t="s">
-        <v>164</v>
+        <v>207</v>
       </c>
       <c r="J53" t="s">
-        <v>139</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54">
@@ -7339,28 +7199,24 @@
         <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>268</v>
       </c>
       <c r="D54" t="s">
         <v>266</v>
       </c>
-      <c r="E54" t="n">
-        <v>48459.64</v>
-      </c>
+      <c r="E54"/>
       <c r="F54" t="n">
-        <v>49057.05</v>
+        <v>46089.56</v>
       </c>
       <c r="G54" t="n">
-        <v>47869.67</v>
-      </c>
-      <c r="H54" t="s">
-        <v>109</v>
-      </c>
+        <v>54621.87</v>
+      </c>
+      <c r="H54"/>
       <c r="I54" t="s">
-        <v>165</v>
+        <v>252</v>
       </c>
       <c r="J54" t="s">
-        <v>166</v>
+        <v>275</v>
       </c>
     </row>
     <row r="55">
@@ -7371,17 +7227,25 @@
         <v>146</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D55" t="s">
         <v>266</v>
       </c>
       <c r="E55"/>
-      <c r="F55"/>
-      <c r="G55"/>
+      <c r="F55" t="n">
+        <v>48453.93</v>
+      </c>
+      <c r="G55" t="n">
+        <v>50054.67</v>
+      </c>
       <c r="H55"/>
-      <c r="I55"/>
-      <c r="J55"/>
+      <c r="I55" t="s">
+        <v>172</v>
+      </c>
+      <c r="J55" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7391,24 +7255,28 @@
         <v>146</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D56" t="s">
         <v>266</v>
       </c>
-      <c r="E56"/>
+      <c r="E56" t="n">
+        <v>46818.94</v>
+      </c>
       <c r="F56" t="n">
-        <v>49784.03</v>
+        <v>50528.38</v>
       </c>
       <c r="G56" t="n">
-        <v>47536.49</v>
-      </c>
-      <c r="H56"/>
+        <v>51130.42</v>
+      </c>
+      <c r="H56" t="s">
+        <v>163</v>
+      </c>
       <c r="I56" t="s">
-        <v>207</v>
+        <v>156</v>
       </c>
       <c r="J56" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="57">
@@ -7419,24 +7287,28 @@
         <v>146</v>
       </c>
       <c r="C57" t="s">
-        <v>268</v>
+        <v>61</v>
       </c>
       <c r="D57" t="s">
         <v>266</v>
       </c>
-      <c r="E57"/>
+      <c r="E57" t="n">
+        <v>44463.31</v>
+      </c>
       <c r="F57" t="n">
-        <v>46089.56</v>
+        <v>48794.35</v>
       </c>
       <c r="G57" t="n">
-        <v>54621.87</v>
-      </c>
-      <c r="H57"/>
+        <v>48956.91</v>
+      </c>
+      <c r="H57" t="s">
+        <v>175</v>
+      </c>
       <c r="I57" t="s">
-        <v>252</v>
+        <v>176</v>
       </c>
       <c r="J57" t="s">
-        <v>275</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58">
@@ -7447,24 +7319,28 @@
         <v>146</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
         <v>266</v>
       </c>
-      <c r="E58"/>
+      <c r="E58" t="n">
+        <v>50387.25</v>
+      </c>
       <c r="F58" t="n">
-        <v>48453.93</v>
+        <v>52104.69</v>
       </c>
       <c r="G58" t="n">
-        <v>50054.67</v>
-      </c>
-      <c r="H58"/>
+        <v>51528.76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>178</v>
+      </c>
       <c r="I58" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J58" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59">
@@ -7472,31 +7348,31 @@
         <v>2023</v>
       </c>
       <c r="B59" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D59" t="s">
         <v>266</v>
       </c>
       <c r="E59" t="n">
-        <v>46818.94</v>
+        <v>29283.3</v>
       </c>
       <c r="F59" t="n">
-        <v>50528.38</v>
+        <v>87769.91</v>
       </c>
       <c r="G59" t="n">
-        <v>51130.42</v>
+        <v>72477.14</v>
       </c>
       <c r="H59" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="I59" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="J59" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="60">
@@ -7504,31 +7380,31 @@
         <v>2023</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D60" t="s">
         <v>266</v>
       </c>
       <c r="E60" t="n">
-        <v>44463.31</v>
+        <v>78879.34</v>
       </c>
       <c r="F60" t="n">
-        <v>48794.35</v>
+        <v>78222.89</v>
       </c>
       <c r="G60" t="n">
-        <v>48956.91</v>
+        <v>81398.2</v>
       </c>
       <c r="H60" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I60" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="J60" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61">
@@ -7536,31 +7412,31 @@
         <v>2023</v>
       </c>
       <c r="B61" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
         <v>266</v>
       </c>
       <c r="E61" t="n">
-        <v>50387.25</v>
+        <v>48732.37</v>
       </c>
       <c r="F61" t="n">
-        <v>52104.69</v>
+        <v>50682.76</v>
       </c>
       <c r="G61" t="n">
-        <v>51528.76</v>
+        <v>50961.69</v>
       </c>
       <c r="H61" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I61" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J61" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62">
@@ -7571,28 +7447,28 @@
         <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
         <v>266</v>
       </c>
       <c r="E62" t="n">
-        <v>29283.3</v>
+        <v>63133.17</v>
       </c>
       <c r="F62" t="n">
-        <v>87769.91</v>
+        <v>40111.32</v>
       </c>
       <c r="G62" t="n">
-        <v>72477.14</v>
+        <v>40564.48</v>
       </c>
       <c r="H62" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I62" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="J62" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63">
@@ -7603,28 +7479,28 @@
         <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D63" t="s">
         <v>266</v>
       </c>
       <c r="E63" t="n">
-        <v>78879.34</v>
+        <v>92742.29</v>
       </c>
       <c r="F63" t="n">
-        <v>78222.89</v>
+        <v>203177.15</v>
       </c>
       <c r="G63" t="n">
-        <v>81398.2</v>
+        <v>203177.15</v>
       </c>
       <c r="H63" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I63" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="J63" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64">
@@ -7635,28 +7511,28 @@
         <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D64" t="s">
         <v>266</v>
       </c>
       <c r="E64" t="n">
-        <v>48732.37</v>
+        <v>16001.71</v>
       </c>
       <c r="F64" t="n">
-        <v>50682.76</v>
+        <v>93833.59</v>
       </c>
       <c r="G64" t="n">
-        <v>50961.69</v>
+        <v>93833.59</v>
       </c>
       <c r="H64" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I64" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J64" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65">
@@ -7667,28 +7543,28 @@
         <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s">
         <v>266</v>
       </c>
       <c r="E65" t="n">
-        <v>63133.17</v>
+        <v>49059.12</v>
       </c>
       <c r="F65" t="n">
-        <v>40111.32</v>
+        <v>67443.67</v>
       </c>
       <c r="G65" t="n">
-        <v>40564.48</v>
+        <v>63842.21</v>
       </c>
       <c r="H65" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I65" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="J65" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66">
@@ -7699,28 +7575,28 @@
         <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
         <v>266</v>
       </c>
       <c r="E66" t="n">
-        <v>92742.29</v>
+        <v>56924.43</v>
       </c>
       <c r="F66" t="n">
-        <v>203177.15</v>
+        <v>57747.89</v>
       </c>
       <c r="G66" t="n">
-        <v>203177.15</v>
+        <v>55131.56</v>
       </c>
       <c r="H66" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I66" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J66" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67">
@@ -7731,28 +7607,24 @@
         <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="D67" t="s">
         <v>266</v>
       </c>
-      <c r="E67" t="n">
-        <v>16001.71</v>
-      </c>
+      <c r="E67"/>
       <c r="F67" t="n">
-        <v>93833.59</v>
+        <v>55025.12</v>
       </c>
       <c r="G67" t="n">
-        <v>93833.59</v>
-      </c>
-      <c r="H67" t="s">
-        <v>193</v>
-      </c>
+        <v>64051.81</v>
+      </c>
+      <c r="H67"/>
       <c r="I67" t="s">
-        <v>194</v>
+        <v>276</v>
       </c>
       <c r="J67" t="s">
-        <v>194</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68">
@@ -7763,28 +7635,24 @@
         <v>181</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>268</v>
       </c>
       <c r="D68" t="s">
         <v>266</v>
       </c>
-      <c r="E68" t="n">
-        <v>49059.12</v>
-      </c>
+      <c r="E68"/>
       <c r="F68" t="n">
-        <v>67443.67</v>
+        <v>52711.8</v>
       </c>
       <c r="G68" t="n">
-        <v>63842.21</v>
-      </c>
-      <c r="H68" t="s">
+        <v>43620.85</v>
+      </c>
+      <c r="H68"/>
+      <c r="I68" t="s">
         <v>195</v>
       </c>
-      <c r="I68" t="s">
-        <v>196</v>
-      </c>
       <c r="J68" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69">
@@ -7795,28 +7663,24 @@
         <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D69" t="s">
         <v>266</v>
       </c>
-      <c r="E69" t="n">
-        <v>56924.43</v>
-      </c>
+      <c r="E69"/>
       <c r="F69" t="n">
-        <v>57747.89</v>
+        <v>55763.13</v>
       </c>
       <c r="G69" t="n">
-        <v>55131.56</v>
-      </c>
-      <c r="H69" t="s">
-        <v>198</v>
-      </c>
+        <v>60544.14</v>
+      </c>
+      <c r="H69"/>
       <c r="I69" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="J69" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="70">
@@ -7827,17 +7691,29 @@
         <v>181</v>
       </c>
       <c r="C70" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D70" t="s">
         <v>266</v>
       </c>
-      <c r="E70"/>
-      <c r="F70"/>
-      <c r="G70"/>
-      <c r="H70"/>
-      <c r="I70"/>
-      <c r="J70"/>
+      <c r="E70" t="n">
+        <v>49059.12</v>
+      </c>
+      <c r="F70" t="n">
+        <v>56503.17</v>
+      </c>
+      <c r="G70" t="n">
+        <v>61600.76</v>
+      </c>
+      <c r="H70" t="s">
+        <v>195</v>
+      </c>
+      <c r="I70" t="s">
+        <v>209</v>
+      </c>
+      <c r="J70" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -7847,24 +7723,28 @@
         <v>181</v>
       </c>
       <c r="C71" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="D71" t="s">
         <v>266</v>
       </c>
-      <c r="E71"/>
+      <c r="E71" t="n">
+        <v>73009.11</v>
+      </c>
       <c r="F71" t="n">
-        <v>55025.12</v>
+        <v>70979.14</v>
       </c>
       <c r="G71" t="n">
-        <v>64051.81</v>
-      </c>
-      <c r="H71"/>
+        <v>72321.75</v>
+      </c>
+      <c r="H71" t="s">
+        <v>211</v>
+      </c>
       <c r="I71" t="s">
-        <v>276</v>
+        <v>212</v>
       </c>
       <c r="J71" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
     </row>
     <row r="72">
@@ -7875,147 +7755,27 @@
         <v>181</v>
       </c>
       <c r="C72" t="s">
-        <v>268</v>
+        <v>65</v>
       </c>
       <c r="D72" t="s">
         <v>266</v>
       </c>
-      <c r="E72"/>
+      <c r="E72" t="n">
+        <v>62710.22</v>
+      </c>
       <c r="F72" t="n">
-        <v>52711.8</v>
+        <v>65109.61</v>
       </c>
       <c r="G72" t="n">
-        <v>43620.85</v>
-      </c>
-      <c r="H72"/>
+        <v>63866.81</v>
+      </c>
+      <c r="H72" t="s">
+        <v>214</v>
+      </c>
       <c r="I72" t="s">
-        <v>195</v>
+        <v>63</v>
       </c>
       <c r="J72" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B73" t="s">
-        <v>181</v>
-      </c>
-      <c r="C73" t="s">
-        <v>55</v>
-      </c>
-      <c r="D73" t="s">
-        <v>266</v>
-      </c>
-      <c r="E73"/>
-      <c r="F73" t="n">
-        <v>55763.13</v>
-      </c>
-      <c r="G73" t="n">
-        <v>60544.14</v>
-      </c>
-      <c r="H73"/>
-      <c r="I73" t="s">
-        <v>207</v>
-      </c>
-      <c r="J73" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B74" t="s">
-        <v>181</v>
-      </c>
-      <c r="C74" t="s">
-        <v>58</v>
-      </c>
-      <c r="D74" t="s">
-        <v>266</v>
-      </c>
-      <c r="E74" t="n">
-        <v>49059.12</v>
-      </c>
-      <c r="F74" t="n">
-        <v>56503.17</v>
-      </c>
-      <c r="G74" t="n">
-        <v>61600.76</v>
-      </c>
-      <c r="H74" t="s">
-        <v>195</v>
-      </c>
-      <c r="I74" t="s">
-        <v>209</v>
-      </c>
-      <c r="J74" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C75" t="s">
-        <v>61</v>
-      </c>
-      <c r="D75" t="s">
-        <v>266</v>
-      </c>
-      <c r="E75" t="n">
-        <v>73009.11</v>
-      </c>
-      <c r="F75" t="n">
-        <v>70979.14</v>
-      </c>
-      <c r="G75" t="n">
-        <v>72321.75</v>
-      </c>
-      <c r="H75" t="s">
-        <v>211</v>
-      </c>
-      <c r="I75" t="s">
-        <v>212</v>
-      </c>
-      <c r="J75" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B76" t="s">
-        <v>181</v>
-      </c>
-      <c r="C76" t="s">
-        <v>65</v>
-      </c>
-      <c r="D76" t="s">
-        <v>266</v>
-      </c>
-      <c r="E76" t="n">
-        <v>62710.22</v>
-      </c>
-      <c r="F76" t="n">
-        <v>65109.61</v>
-      </c>
-      <c r="G76" t="n">
-        <v>63866.81</v>
-      </c>
-      <c r="H76" t="s">
-        <v>214</v>
-      </c>
-      <c r="I76" t="s">
-        <v>63</v>
-      </c>
-      <c r="J76" t="s">
         <v>215</v>
       </c>
     </row>
@@ -8713,17 +8473,29 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>266</v>
       </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="E22" t="n">
+        <v>21151.61</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21151.61</v>
+      </c>
+      <c r="G22" t="n">
+        <v>21151.61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>233</v>
+      </c>
+      <c r="I22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -8733,28 +8505,28 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>266</v>
       </c>
       <c r="E23" t="n">
-        <v>21151.61</v>
+        <v>26896.11</v>
       </c>
       <c r="F23" t="n">
-        <v>21151.61</v>
+        <v>26896.11</v>
       </c>
       <c r="G23" t="n">
-        <v>21151.61</v>
+        <v>26896.11</v>
       </c>
       <c r="H23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
@@ -8765,28 +8537,28 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>266</v>
       </c>
       <c r="E24" t="n">
-        <v>26896.11</v>
+        <v>19135.04</v>
       </c>
       <c r="F24" t="n">
-        <v>26896.11</v>
+        <v>18917.41</v>
       </c>
       <c r="G24" t="n">
-        <v>26896.11</v>
+        <v>19135.04</v>
       </c>
       <c r="H24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
@@ -8794,31 +8566,31 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>266</v>
       </c>
       <c r="E25" t="n">
-        <v>19135.04</v>
+        <v>-19358.39</v>
       </c>
       <c r="F25" t="n">
-        <v>18917.41</v>
+        <v>-19358.39</v>
       </c>
       <c r="G25" t="n">
-        <v>19135.04</v>
+        <v>-19358.39</v>
       </c>
       <c r="H25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -8829,28 +8601,28 @@
         <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>266</v>
       </c>
       <c r="E26" t="n">
-        <v>-19358.39</v>
+        <v>39144.4</v>
       </c>
       <c r="F26" t="n">
-        <v>-19358.39</v>
+        <v>39144.4</v>
       </c>
       <c r="G26" t="n">
-        <v>-19358.39</v>
+        <v>39144.4</v>
       </c>
       <c r="H26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
@@ -8861,28 +8633,28 @@
         <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>266</v>
       </c>
       <c r="E27" t="n">
-        <v>39144.4</v>
+        <v>134162</v>
       </c>
       <c r="F27" t="n">
-        <v>39144.4</v>
+        <v>134162</v>
       </c>
       <c r="G27" t="n">
-        <v>39144.4</v>
+        <v>134162</v>
       </c>
       <c r="H27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -8893,28 +8665,28 @@
         <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>266</v>
       </c>
       <c r="E28" t="n">
-        <v>134162</v>
+        <v>11413.66</v>
       </c>
       <c r="F28" t="n">
-        <v>134162</v>
+        <v>11413.66</v>
       </c>
       <c r="G28" t="n">
-        <v>134162</v>
+        <v>11413.66</v>
       </c>
       <c r="H28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
@@ -8925,28 +8697,28 @@
         <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>266</v>
       </c>
       <c r="E29" t="n">
-        <v>11413.66</v>
+        <v>-29954.4</v>
       </c>
       <c r="F29" t="n">
-        <v>11413.66</v>
+        <v>-29954.4</v>
       </c>
       <c r="G29" t="n">
-        <v>11413.66</v>
+        <v>-29954.4</v>
       </c>
       <c r="H29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
@@ -8957,28 +8729,28 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
         <v>266</v>
       </c>
       <c r="E30" t="n">
-        <v>-29954.4</v>
+        <v>65257.09</v>
       </c>
       <c r="F30" t="n">
-        <v>-29954.4</v>
+        <v>65257.09</v>
       </c>
       <c r="G30" t="n">
-        <v>-29954.4</v>
+        <v>65257.09</v>
       </c>
       <c r="H30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
@@ -8989,28 +8761,28 @@
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
         <v>266</v>
       </c>
       <c r="E31" t="n">
-        <v>65257.09</v>
+        <v>44882.01</v>
       </c>
       <c r="F31" t="n">
-        <v>65257.09</v>
+        <v>44882.01</v>
       </c>
       <c r="G31" t="n">
-        <v>65257.09</v>
+        <v>44882.01</v>
       </c>
       <c r="H31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
@@ -9021,28 +8793,28 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>266</v>
       </c>
       <c r="E32" t="n">
-        <v>44882.01</v>
+        <v>14495.7</v>
       </c>
       <c r="F32" t="n">
-        <v>44882.01</v>
+        <v>14274.39</v>
       </c>
       <c r="G32" t="n">
-        <v>44882.01</v>
+        <v>14495.7</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -9053,28 +8825,28 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>266</v>
       </c>
       <c r="E33" t="n">
-        <v>14495.7</v>
+        <v>44882.01</v>
       </c>
       <c r="F33" t="n">
-        <v>14274.39</v>
+        <v>44882.01</v>
       </c>
       <c r="G33" t="n">
-        <v>14495.7</v>
+        <v>44882.01</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>244</v>
       </c>
       <c r="I33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
@@ -9085,17 +8857,29 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
         <v>266</v>
       </c>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
+      <c r="E34" t="n">
+        <v>33150.23</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33150.23</v>
+      </c>
+      <c r="G34" t="n">
+        <v>33150.23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -9105,28 +8889,28 @@
         <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
         <v>266</v>
       </c>
       <c r="E35" t="n">
-        <v>44882.01</v>
+        <v>18234.69</v>
       </c>
       <c r="F35" t="n">
-        <v>44882.01</v>
+        <v>18234.69</v>
       </c>
       <c r="G35" t="n">
-        <v>44882.01</v>
+        <v>18234.69</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -9134,31 +8918,31 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
         <v>266</v>
       </c>
       <c r="E36" t="n">
-        <v>33150.23</v>
+        <v>9174.22</v>
       </c>
       <c r="F36" t="n">
-        <v>33150.23</v>
+        <v>9174.22</v>
       </c>
       <c r="G36" t="n">
-        <v>33150.23</v>
+        <v>9174.22</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
@@ -9166,31 +8950,31 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>266</v>
       </c>
       <c r="E37" t="n">
-        <v>18234.69</v>
+        <v>22794.67</v>
       </c>
       <c r="F37" t="n">
-        <v>18234.69</v>
+        <v>22794.67</v>
       </c>
       <c r="G37" t="n">
-        <v>18234.69</v>
+        <v>22794.67</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38">
@@ -9201,28 +8985,28 @@
         <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>266</v>
       </c>
       <c r="E38" t="n">
-        <v>9174.22</v>
+        <v>45972.28</v>
       </c>
       <c r="F38" t="n">
-        <v>9174.22</v>
+        <v>45972.28</v>
       </c>
       <c r="G38" t="n">
-        <v>9174.22</v>
+        <v>45972.28</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39">
@@ -9233,28 +9017,28 @@
         <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>266</v>
       </c>
       <c r="E39" t="n">
-        <v>22794.67</v>
+        <v>10671.23</v>
       </c>
       <c r="F39" t="n">
-        <v>22794.67</v>
+        <v>10671.23</v>
       </c>
       <c r="G39" t="n">
-        <v>22794.67</v>
+        <v>10671.23</v>
       </c>
       <c r="H39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40">
@@ -9265,28 +9049,28 @@
         <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>266</v>
       </c>
       <c r="E40" t="n">
-        <v>45972.28</v>
+        <v>-35202.76</v>
       </c>
       <c r="F40" t="n">
-        <v>45972.28</v>
+        <v>-35202.76</v>
       </c>
       <c r="G40" t="n">
-        <v>45972.28</v>
+        <v>-35202.76</v>
       </c>
       <c r="H40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41">
@@ -9297,28 +9081,28 @@
         <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
         <v>266</v>
       </c>
       <c r="E41" t="n">
-        <v>10671.23</v>
+        <v>25316.01</v>
       </c>
       <c r="F41" t="n">
-        <v>10671.23</v>
+        <v>25316.01</v>
       </c>
       <c r="G41" t="n">
-        <v>10671.23</v>
+        <v>25316.01</v>
       </c>
       <c r="H41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42">
@@ -9329,28 +9113,28 @@
         <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
         <v>266</v>
       </c>
       <c r="E42" t="n">
-        <v>-35202.76</v>
+        <v>25487.95</v>
       </c>
       <c r="F42" t="n">
-        <v>-35202.76</v>
+        <v>25487.95</v>
       </c>
       <c r="G42" t="n">
-        <v>-35202.76</v>
+        <v>25487.95</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43">
@@ -9361,28 +9145,28 @@
         <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
         <v>266</v>
       </c>
       <c r="E43" t="n">
-        <v>25316.01</v>
+        <v>15037.54</v>
       </c>
       <c r="F43" t="n">
-        <v>25316.01</v>
+        <v>14655.46</v>
       </c>
       <c r="G43" t="n">
-        <v>25316.01</v>
+        <v>15037.54</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I43" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="J43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44">
@@ -9393,7 +9177,7 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>266</v>
@@ -9425,28 +9209,28 @@
         <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
         <v>266</v>
       </c>
       <c r="E45" t="n">
-        <v>15037.54</v>
+        <v>18023.33</v>
       </c>
       <c r="F45" t="n">
-        <v>14655.46</v>
+        <v>18023.33</v>
       </c>
       <c r="G45" t="n">
-        <v>15037.54</v>
+        <v>18023.33</v>
       </c>
       <c r="H45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="J45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46">
@@ -9457,48 +9241,60 @@
         <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
         <v>266</v>
       </c>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
+      <c r="E46" t="n">
+        <v>15168.86</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15162.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>15168.86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" t="s">
+        <v>256</v>
+      </c>
+      <c r="J46" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>266</v>
       </c>
       <c r="E47" t="n">
-        <v>25487.95</v>
+        <v>16196.82</v>
       </c>
       <c r="F47" t="n">
-        <v>25487.95</v>
+        <v>16196.82</v>
       </c>
       <c r="G47" t="n">
-        <v>25487.95</v>
+        <v>16196.82</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
@@ -9506,31 +9302,31 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>266</v>
       </c>
       <c r="E48" t="n">
-        <v>18023.33</v>
+        <v>25539.83</v>
       </c>
       <c r="F48" t="n">
-        <v>18023.33</v>
+        <v>26519.01</v>
       </c>
       <c r="G48" t="n">
-        <v>18023.33</v>
+        <v>25539.83</v>
       </c>
       <c r="H48" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="I48" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49">
@@ -9538,31 +9334,31 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
         <v>266</v>
       </c>
       <c r="E49" t="n">
-        <v>15168.86</v>
+        <v>12103.9</v>
       </c>
       <c r="F49" t="n">
-        <v>15162.5</v>
+        <v>11052.17</v>
       </c>
       <c r="G49" t="n">
-        <v>15168.86</v>
+        <v>12103.9</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="I49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J49" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50">
@@ -9573,28 +9369,28 @@
         <v>181</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
         <v>266</v>
       </c>
       <c r="E50" t="n">
-        <v>16196.82</v>
+        <v>22555.66</v>
       </c>
       <c r="F50" t="n">
-        <v>16196.82</v>
+        <v>22555.66</v>
       </c>
       <c r="G50" t="n">
-        <v>16196.82</v>
+        <v>22555.66</v>
       </c>
       <c r="H50" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="I50" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="J50" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51">
@@ -9605,28 +9401,28 @@
         <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>266</v>
       </c>
       <c r="E51" t="n">
-        <v>25539.83</v>
+        <v>14245.68</v>
       </c>
       <c r="F51" t="n">
-        <v>26519.01</v>
+        <v>14245.68</v>
       </c>
       <c r="G51" t="n">
-        <v>25539.83</v>
+        <v>14245.68</v>
       </c>
       <c r="H51" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="I51" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="J51" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52">
@@ -9637,28 +9433,28 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
         <v>266</v>
       </c>
       <c r="E52" t="n">
-        <v>12103.9</v>
+        <v>23828</v>
       </c>
       <c r="F52" t="n">
-        <v>11052.17</v>
+        <v>23828</v>
       </c>
       <c r="G52" t="n">
-        <v>12103.9</v>
+        <v>23828</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="I52" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J52" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53">
@@ -9669,28 +9465,28 @@
         <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>266</v>
       </c>
       <c r="E53" t="n">
-        <v>22555.66</v>
+        <v>19837.44</v>
       </c>
       <c r="F53" t="n">
-        <v>22555.66</v>
+        <v>19752.61</v>
       </c>
       <c r="G53" t="n">
-        <v>22555.66</v>
+        <v>19837.44</v>
       </c>
       <c r="H53" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="J53" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54">
@@ -9701,28 +9497,28 @@
         <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
         <v>266</v>
       </c>
       <c r="E54" t="n">
-        <v>14245.68</v>
+        <v>23828</v>
       </c>
       <c r="F54" t="n">
-        <v>14245.68</v>
+        <v>23828</v>
       </c>
       <c r="G54" t="n">
-        <v>14245.68</v>
+        <v>23828</v>
       </c>
       <c r="H54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55">
@@ -9733,28 +9529,28 @@
         <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
         <v>266</v>
       </c>
       <c r="E55" t="n">
-        <v>23828</v>
+        <v>25182.46</v>
       </c>
       <c r="F55" t="n">
-        <v>23828</v>
+        <v>25133.68</v>
       </c>
       <c r="G55" t="n">
-        <v>23828</v>
+        <v>25182.46</v>
       </c>
       <c r="H55" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I55" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J55" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56">
@@ -9765,143 +9561,27 @@
         <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>266</v>
       </c>
       <c r="E56" t="n">
-        <v>19837.44</v>
+        <v>20207.3</v>
       </c>
       <c r="F56" t="n">
-        <v>19752.61</v>
+        <v>20205.77</v>
       </c>
       <c r="G56" t="n">
-        <v>19837.44</v>
+        <v>20207.3</v>
       </c>
       <c r="H56" t="s">
+        <v>265</v>
+      </c>
+      <c r="I56" t="s">
         <v>261</v>
       </c>
-      <c r="I56" t="s">
-        <v>262</v>
-      </c>
       <c r="J56" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B57" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" t="s">
-        <v>266</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B58" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" t="s">
-        <v>266</v>
-      </c>
-      <c r="E58" t="n">
-        <v>23828</v>
-      </c>
-      <c r="F58" t="n">
-        <v>23828</v>
-      </c>
-      <c r="G58" t="n">
-        <v>23828</v>
-      </c>
-      <c r="H58" t="s">
-        <v>260</v>
-      </c>
-      <c r="I58" t="s">
-        <v>260</v>
-      </c>
-      <c r="J58" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B59" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>266</v>
-      </c>
-      <c r="E59" t="n">
-        <v>25182.46</v>
-      </c>
-      <c r="F59" t="n">
-        <v>25133.68</v>
-      </c>
-      <c r="G59" t="n">
-        <v>25182.46</v>
-      </c>
-      <c r="H59" t="s">
-        <v>263</v>
-      </c>
-      <c r="I59" t="s">
-        <v>264</v>
-      </c>
-      <c r="J59" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B60" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>266</v>
-      </c>
-      <c r="E60" t="n">
-        <v>20207.3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>20205.77</v>
-      </c>
-      <c r="G60" t="n">
-        <v>20207.3</v>
-      </c>
-      <c r="H60" t="s">
-        <v>265</v>
-      </c>
-      <c r="I60" t="s">
-        <v>261</v>
-      </c>
-      <c r="J60" t="s">
         <v>265</v>
       </c>
     </row>
@@ -10655,17 +10335,25 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>280</v>
       </c>
       <c r="D24" t="s">
         <v>279</v>
       </c>
       <c r="E24"/>
-      <c r="F24"/>
-      <c r="G24"/>
+      <c r="F24" t="n">
+        <v>75274.59</v>
+      </c>
+      <c r="G24" t="n">
+        <v>76873.76</v>
+      </c>
       <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24"/>
+      <c r="I24" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -10675,7 +10363,7 @@
         <v>68</v>
       </c>
       <c r="C25" t="s">
-        <v>280</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>279</v>
@@ -10703,24 +10391,28 @@
         <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D26" t="s">
         <v>279</v>
       </c>
-      <c r="E26"/>
+      <c r="E26" t="n">
+        <v>86928.2</v>
+      </c>
       <c r="F26" t="n">
-        <v>75274.59</v>
+        <v>75855.02</v>
       </c>
       <c r="G26" t="n">
-        <v>76873.76</v>
-      </c>
-      <c r="H26"/>
+        <v>77777.84</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
       <c r="I26" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J26" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -10731,28 +10423,28 @@
         <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
         <v>279</v>
       </c>
       <c r="E27" t="n">
-        <v>86928.2</v>
+        <v>93167.35</v>
       </c>
       <c r="F27" t="n">
-        <v>75855.02</v>
+        <v>92066.89</v>
       </c>
       <c r="G27" t="n">
-        <v>77777.84</v>
+        <v>92094.76</v>
       </c>
       <c r="H27" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="I27" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="J27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -10763,28 +10455,28 @@
         <v>68</v>
       </c>
       <c r="C28" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D28" t="s">
         <v>279</v>
       </c>
       <c r="E28" t="n">
-        <v>93167.35</v>
+        <v>78742.82</v>
       </c>
       <c r="F28" t="n">
-        <v>92066.89</v>
+        <v>80239.61</v>
       </c>
       <c r="G28" t="n">
-        <v>92094.76</v>
+        <v>79586.99</v>
       </c>
       <c r="H28" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="I28" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J28" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -10792,31 +10484,31 @@
         <v>2023</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D29" t="s">
         <v>279</v>
       </c>
       <c r="E29" t="n">
-        <v>78742.82</v>
+        <v>49697.94</v>
       </c>
       <c r="F29" t="n">
-        <v>80239.61</v>
+        <v>36916.11</v>
       </c>
       <c r="G29" t="n">
-        <v>79586.99</v>
+        <v>36413.11</v>
       </c>
       <c r="H29" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="I29" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -10827,28 +10519,28 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s">
         <v>279</v>
       </c>
       <c r="E30" t="n">
-        <v>49697.94</v>
+        <v>77046.24</v>
       </c>
       <c r="F30" t="n">
-        <v>36916.11</v>
+        <v>63529.38</v>
       </c>
       <c r="G30" t="n">
-        <v>36413.11</v>
+        <v>71384.48</v>
       </c>
       <c r="H30" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="I30" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J30" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
@@ -10859,28 +10551,28 @@
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D31" t="s">
         <v>279</v>
       </c>
       <c r="E31" t="n">
-        <v>77046.24</v>
+        <v>67277.61</v>
       </c>
       <c r="F31" t="n">
-        <v>63529.38</v>
+        <v>47427.43</v>
       </c>
       <c r="G31" t="n">
-        <v>71384.48</v>
+        <v>47427.43</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="I31" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="J31" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -10891,28 +10583,28 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>279</v>
       </c>
       <c r="E32" t="n">
-        <v>67277.61</v>
+        <v>58425.72</v>
       </c>
       <c r="F32" t="n">
-        <v>47427.43</v>
+        <v>23659.71</v>
       </c>
       <c r="G32" t="n">
-        <v>47427.43</v>
+        <v>15406.55</v>
       </c>
       <c r="H32" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I32" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="J32" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33">
@@ -10923,28 +10615,28 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D33" t="s">
         <v>279</v>
       </c>
       <c r="E33" t="n">
-        <v>58425.72</v>
+        <v>98049.02</v>
       </c>
       <c r="F33" t="n">
-        <v>23659.71</v>
+        <v>131996.2</v>
       </c>
       <c r="G33" t="n">
-        <v>15406.55</v>
+        <v>131996.2</v>
       </c>
       <c r="H33" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="I33" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J33" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34">
@@ -10955,28 +10647,28 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D34" t="s">
         <v>279</v>
       </c>
       <c r="E34" t="n">
-        <v>98049.02</v>
+        <v>-147958.3</v>
       </c>
       <c r="F34" t="n">
-        <v>131996.2</v>
+        <v>-155121.33</v>
       </c>
       <c r="G34" t="n">
-        <v>131996.2</v>
+        <v>-155121.33</v>
       </c>
       <c r="H34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="J34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -10987,28 +10679,28 @@
         <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
         <v>279</v>
       </c>
       <c r="E35" t="n">
-        <v>-147958.3</v>
+        <v>69626.55</v>
       </c>
       <c r="F35" t="n">
-        <v>-155121.33</v>
+        <v>47163.7</v>
       </c>
       <c r="G35" t="n">
-        <v>-155121.33</v>
+        <v>41541.8</v>
       </c>
       <c r="H35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I35" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="J35" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -11019,28 +10711,28 @@
         <v>107</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
         <v>279</v>
       </c>
       <c r="E36" t="n">
-        <v>69626.55</v>
+        <v>48419.84</v>
       </c>
       <c r="F36" t="n">
-        <v>47163.7</v>
+        <v>48201.12</v>
       </c>
       <c r="G36" t="n">
-        <v>41541.8</v>
+        <v>46093.54</v>
       </c>
       <c r="H36" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="I36" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="J36" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37">
@@ -11051,28 +10743,24 @@
         <v>107</v>
       </c>
       <c r="C37" t="s">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="D37" t="s">
         <v>279</v>
       </c>
-      <c r="E37" t="n">
-        <v>48419.84</v>
-      </c>
+      <c r="E37"/>
       <c r="F37" t="n">
-        <v>48201.12</v>
+        <v>63099.08</v>
       </c>
       <c r="G37" t="n">
-        <v>46093.54</v>
-      </c>
-      <c r="H37" t="s">
-        <v>126</v>
-      </c>
+        <v>65234.63</v>
+      </c>
+      <c r="H37"/>
       <c r="I37" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="J37" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38">
@@ -11083,17 +10771,25 @@
         <v>107</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
         <v>279</v>
       </c>
       <c r="E38"/>
-      <c r="F38"/>
-      <c r="G38"/>
+      <c r="F38" t="n">
+        <v>63099.08</v>
+      </c>
+      <c r="G38" t="n">
+        <v>65234.63</v>
+      </c>
       <c r="H38"/>
-      <c r="I38"/>
-      <c r="J38"/>
+      <c r="I38" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -11103,24 +10799,28 @@
         <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>280</v>
+        <v>58</v>
       </c>
       <c r="D39" t="s">
         <v>279</v>
       </c>
-      <c r="E39"/>
+      <c r="E39" t="n">
+        <v>69626.55</v>
+      </c>
       <c r="F39" t="n">
-        <v>63099.08</v>
+        <v>64050.35</v>
       </c>
       <c r="G39" t="n">
-        <v>65234.63</v>
-      </c>
-      <c r="H39"/>
+        <v>68284.84</v>
+      </c>
+      <c r="H39" t="s">
+        <v>123</v>
+      </c>
       <c r="I39" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="J39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40">
@@ -11131,24 +10831,28 @@
         <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D40" t="s">
         <v>279</v>
       </c>
-      <c r="E40"/>
+      <c r="E40" t="n">
+        <v>65807.23</v>
+      </c>
       <c r="F40" t="n">
-        <v>63099.08</v>
+        <v>61103.75</v>
       </c>
       <c r="G40" t="n">
-        <v>65234.63</v>
-      </c>
-      <c r="H40"/>
+        <v>61725.44</v>
+      </c>
+      <c r="H40" t="s">
+        <v>140</v>
+      </c>
       <c r="I40" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41">
@@ -11159,28 +10863,28 @@
         <v>107</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D41" t="s">
         <v>279</v>
       </c>
       <c r="E41" t="n">
-        <v>69626.55</v>
+        <v>53251.85</v>
       </c>
       <c r="F41" t="n">
-        <v>64050.35</v>
+        <v>52946.44</v>
       </c>
       <c r="G41" t="n">
-        <v>68284.84</v>
+        <v>49839.57</v>
       </c>
       <c r="H41" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="I41" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="J41" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42">
@@ -11188,31 +10892,31 @@
         <v>2023</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D42" t="s">
         <v>279</v>
       </c>
       <c r="E42" t="n">
-        <v>65807.23</v>
+        <v>32529.52</v>
       </c>
       <c r="F42" t="n">
-        <v>61103.75</v>
+        <v>127496.19</v>
       </c>
       <c r="G42" t="n">
-        <v>61725.44</v>
+        <v>127496.19</v>
       </c>
       <c r="H42" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="I42" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="J42" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43">
@@ -11220,31 +10924,31 @@
         <v>2023</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D43" t="s">
         <v>279</v>
       </c>
       <c r="E43" t="n">
-        <v>53251.85</v>
+        <v>43416.39</v>
       </c>
       <c r="F43" t="n">
-        <v>52946.44</v>
+        <v>26117.08</v>
       </c>
       <c r="G43" t="n">
-        <v>49839.57</v>
+        <v>26568.06</v>
       </c>
       <c r="H43" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="I43" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="J43" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44">
@@ -11255,28 +10959,28 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D44" t="s">
         <v>279</v>
       </c>
       <c r="E44" t="n">
-        <v>32529.52</v>
+        <v>57614.93</v>
       </c>
       <c r="F44" t="n">
-        <v>127496.19</v>
+        <v>57435.69</v>
       </c>
       <c r="G44" t="n">
-        <v>127496.19</v>
+        <v>58782.49</v>
       </c>
       <c r="H44" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="I44" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="J44" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="45">
@@ -11287,28 +10991,28 @@
         <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D45" t="s">
         <v>279</v>
       </c>
       <c r="E45" t="n">
-        <v>43416.39</v>
+        <v>37827.05</v>
       </c>
       <c r="F45" t="n">
-        <v>26117.08</v>
+        <v>36689.68</v>
       </c>
       <c r="G45" t="n">
-        <v>26568.06</v>
+        <v>36730.33</v>
       </c>
       <c r="H45" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="J45" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46">
@@ -11319,28 +11023,28 @@
         <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D46" t="s">
         <v>279</v>
       </c>
       <c r="E46" t="n">
-        <v>57614.93</v>
+        <v>64264.57</v>
       </c>
       <c r="F46" t="n">
-        <v>57435.69</v>
+        <v>108940.15</v>
       </c>
       <c r="G46" t="n">
-        <v>58782.49</v>
+        <v>112556.86</v>
       </c>
       <c r="H46" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I46" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J46" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47">
@@ -11351,28 +11055,28 @@
         <v>146</v>
       </c>
       <c r="C47" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D47" t="s">
         <v>279</v>
       </c>
       <c r="E47" t="n">
-        <v>37827.05</v>
+        <v>60509.46</v>
       </c>
       <c r="F47" t="n">
-        <v>36689.68</v>
+        <v>62311.75</v>
       </c>
       <c r="G47" t="n">
-        <v>36730.33</v>
+        <v>59985.74</v>
       </c>
       <c r="H47" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="I47" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="J47" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48">
@@ -11383,28 +11087,28 @@
         <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D48" t="s">
         <v>279</v>
       </c>
       <c r="E48" t="n">
-        <v>64264.57</v>
+        <v>46818.94</v>
       </c>
       <c r="F48" t="n">
-        <v>108940.15</v>
+        <v>58224.97</v>
       </c>
       <c r="G48" t="n">
-        <v>112556.86</v>
+        <v>55513.29</v>
       </c>
       <c r="H48" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I48" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J48" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49">
@@ -11415,28 +11119,28 @@
         <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D49" t="s">
         <v>279</v>
       </c>
       <c r="E49" t="n">
-        <v>60509.46</v>
+        <v>48459.64</v>
       </c>
       <c r="F49" t="n">
-        <v>62311.75</v>
+        <v>49057.05</v>
       </c>
       <c r="G49" t="n">
-        <v>59985.74</v>
+        <v>47869.67</v>
       </c>
       <c r="H49" t="s">
-        <v>160</v>
+        <v>109</v>
       </c>
       <c r="I49" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="J49" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50">
@@ -11447,28 +11151,24 @@
         <v>146</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="D50" t="s">
         <v>279</v>
       </c>
-      <c r="E50" t="n">
-        <v>46818.94</v>
-      </c>
+      <c r="E50"/>
       <c r="F50" t="n">
-        <v>58224.97</v>
+        <v>48453.93</v>
       </c>
       <c r="G50" t="n">
-        <v>55513.29</v>
-      </c>
-      <c r="H50" t="s">
-        <v>163</v>
-      </c>
+        <v>50054.67</v>
+      </c>
+      <c r="H50"/>
       <c r="I50" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="J50" t="s">
-        <v>139</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51">
@@ -11479,28 +11179,24 @@
         <v>146</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D51" t="s">
         <v>279</v>
       </c>
-      <c r="E51" t="n">
-        <v>48459.64</v>
-      </c>
+      <c r="E51"/>
       <c r="F51" t="n">
-        <v>49057.05</v>
+        <v>48453.93</v>
       </c>
       <c r="G51" t="n">
-        <v>47869.67</v>
-      </c>
-      <c r="H51" t="s">
-        <v>109</v>
-      </c>
+        <v>50054.67</v>
+      </c>
+      <c r="H51"/>
       <c r="I51" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="J51" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52">
@@ -11511,17 +11207,29 @@
         <v>146</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D52" t="s">
         <v>279</v>
       </c>
-      <c r="E52"/>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
+      <c r="E52" t="n">
+        <v>46818.94</v>
+      </c>
+      <c r="F52" t="n">
+        <v>50528.38</v>
+      </c>
+      <c r="G52" t="n">
+        <v>51130.42</v>
+      </c>
+      <c r="H52" t="s">
+        <v>163</v>
+      </c>
+      <c r="I52" t="s">
+        <v>156</v>
+      </c>
+      <c r="J52" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -11531,24 +11239,28 @@
         <v>146</v>
       </c>
       <c r="C53" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="D53" t="s">
         <v>279</v>
       </c>
-      <c r="E53"/>
+      <c r="E53" t="n">
+        <v>44463.31</v>
+      </c>
       <c r="F53" t="n">
-        <v>48453.93</v>
+        <v>48794.35</v>
       </c>
       <c r="G53" t="n">
-        <v>50054.67</v>
-      </c>
-      <c r="H53"/>
+        <v>48956.91</v>
+      </c>
+      <c r="H53" t="s">
+        <v>175</v>
+      </c>
       <c r="I53" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="J53" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="54">
@@ -11559,24 +11271,28 @@
         <v>146</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
         <v>279</v>
       </c>
-      <c r="E54"/>
+      <c r="E54" t="n">
+        <v>50387.25</v>
+      </c>
       <c r="F54" t="n">
-        <v>48453.93</v>
+        <v>52104.69</v>
       </c>
       <c r="G54" t="n">
-        <v>50054.67</v>
-      </c>
-      <c r="H54"/>
+        <v>51528.76</v>
+      </c>
+      <c r="H54" t="s">
+        <v>178</v>
+      </c>
       <c r="I54" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="J54" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="55">
@@ -11584,31 +11300,31 @@
         <v>2023</v>
       </c>
       <c r="B55" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D55" t="s">
         <v>279</v>
       </c>
       <c r="E55" t="n">
-        <v>46818.94</v>
+        <v>29283.3</v>
       </c>
       <c r="F55" t="n">
-        <v>50528.38</v>
+        <v>87769.91</v>
       </c>
       <c r="G55" t="n">
-        <v>51130.42</v>
+        <v>72477.14</v>
       </c>
       <c r="H55" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="I55" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="J55" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56">
@@ -11616,31 +11332,31 @@
         <v>2023</v>
       </c>
       <c r="B56" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D56" t="s">
         <v>279</v>
       </c>
       <c r="E56" t="n">
-        <v>44463.31</v>
+        <v>78879.34</v>
       </c>
       <c r="F56" t="n">
-        <v>48794.35</v>
+        <v>78222.89</v>
       </c>
       <c r="G56" t="n">
-        <v>48956.91</v>
+        <v>81398.2</v>
       </c>
       <c r="H56" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="I56" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="J56" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57">
@@ -11648,31 +11364,31 @@
         <v>2023</v>
       </c>
       <c r="B57" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D57" t="s">
         <v>279</v>
       </c>
       <c r="E57" t="n">
-        <v>50387.25</v>
+        <v>48732.37</v>
       </c>
       <c r="F57" t="n">
-        <v>52104.69</v>
+        <v>50682.76</v>
       </c>
       <c r="G57" t="n">
-        <v>51528.76</v>
+        <v>50961.69</v>
       </c>
       <c r="H57" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="I57" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="J57" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58">
@@ -11683,28 +11399,28 @@
         <v>181</v>
       </c>
       <c r="C58" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D58" t="s">
         <v>279</v>
       </c>
       <c r="E58" t="n">
-        <v>29283.3</v>
+        <v>63133.17</v>
       </c>
       <c r="F58" t="n">
-        <v>87769.91</v>
+        <v>40111.32</v>
       </c>
       <c r="G58" t="n">
-        <v>72477.14</v>
+        <v>40564.48</v>
       </c>
       <c r="H58" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="I58" t="s">
-        <v>183</v>
+        <v>59</v>
       </c>
       <c r="J58" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
@@ -11715,28 +11431,28 @@
         <v>181</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D59" t="s">
         <v>279</v>
       </c>
       <c r="E59" t="n">
-        <v>78879.34</v>
+        <v>92742.29</v>
       </c>
       <c r="F59" t="n">
-        <v>78222.89</v>
+        <v>203177.15</v>
       </c>
       <c r="G59" t="n">
-        <v>81398.2</v>
+        <v>203177.15</v>
       </c>
       <c r="H59" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="I59" t="s">
-        <v>130</v>
+        <v>192</v>
       </c>
       <c r="J59" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60">
@@ -11747,28 +11463,28 @@
         <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D60" t="s">
         <v>279</v>
       </c>
       <c r="E60" t="n">
-        <v>48732.37</v>
+        <v>16001.71</v>
       </c>
       <c r="F60" t="n">
-        <v>50682.76</v>
+        <v>93833.59</v>
       </c>
       <c r="G60" t="n">
-        <v>50961.69</v>
+        <v>93833.59</v>
       </c>
       <c r="H60" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="I60" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="J60" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61">
@@ -11779,28 +11495,28 @@
         <v>181</v>
       </c>
       <c r="C61" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D61" t="s">
         <v>279</v>
       </c>
       <c r="E61" t="n">
-        <v>63133.17</v>
+        <v>49059.12</v>
       </c>
       <c r="F61" t="n">
-        <v>40111.32</v>
+        <v>67443.67</v>
       </c>
       <c r="G61" t="n">
-        <v>40564.48</v>
+        <v>63842.21</v>
       </c>
       <c r="H61" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="I61" t="s">
-        <v>59</v>
+        <v>196</v>
       </c>
       <c r="J61" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62">
@@ -11811,28 +11527,28 @@
         <v>181</v>
       </c>
       <c r="C62" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D62" t="s">
         <v>279</v>
       </c>
       <c r="E62" t="n">
-        <v>92742.29</v>
+        <v>56924.43</v>
       </c>
       <c r="F62" t="n">
-        <v>203177.15</v>
+        <v>57747.89</v>
       </c>
       <c r="G62" t="n">
-        <v>203177.15</v>
+        <v>55131.56</v>
       </c>
       <c r="H62" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="I62" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="J62" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63">
@@ -11843,28 +11559,24 @@
         <v>181</v>
       </c>
       <c r="C63" t="s">
-        <v>32</v>
+        <v>280</v>
       </c>
       <c r="D63" t="s">
         <v>279</v>
       </c>
-      <c r="E63" t="n">
-        <v>16001.71</v>
-      </c>
+      <c r="E63"/>
       <c r="F63" t="n">
-        <v>93833.59</v>
+        <v>55763.13</v>
       </c>
       <c r="G63" t="n">
-        <v>93833.59</v>
-      </c>
-      <c r="H63" t="s">
-        <v>193</v>
-      </c>
+        <v>60544.14</v>
+      </c>
+      <c r="H63"/>
       <c r="I63" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="J63" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64">
@@ -11875,28 +11587,24 @@
         <v>181</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D64" t="s">
         <v>279</v>
       </c>
-      <c r="E64" t="n">
-        <v>49059.12</v>
-      </c>
+      <c r="E64"/>
       <c r="F64" t="n">
-        <v>67443.67</v>
+        <v>55763.13</v>
       </c>
       <c r="G64" t="n">
-        <v>63842.21</v>
-      </c>
-      <c r="H64" t="s">
-        <v>195</v>
-      </c>
+        <v>60544.14</v>
+      </c>
+      <c r="H64"/>
       <c r="I64" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="J64" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65">
@@ -11907,28 +11615,28 @@
         <v>181</v>
       </c>
       <c r="C65" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D65" t="s">
         <v>279</v>
       </c>
       <c r="E65" t="n">
-        <v>56924.43</v>
+        <v>49059.12</v>
       </c>
       <c r="F65" t="n">
-        <v>57747.89</v>
+        <v>56503.17</v>
       </c>
       <c r="G65" t="n">
-        <v>55131.56</v>
+        <v>61600.76</v>
       </c>
       <c r="H65" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I65" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="J65" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="66">
@@ -11939,17 +11647,29 @@
         <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D66" t="s">
         <v>279</v>
       </c>
-      <c r="E66"/>
-      <c r="F66"/>
-      <c r="G66"/>
-      <c r="H66"/>
-      <c r="I66"/>
-      <c r="J66"/>
+      <c r="E66" t="n">
+        <v>73009.11</v>
+      </c>
+      <c r="F66" t="n">
+        <v>70979.14</v>
+      </c>
+      <c r="G66" t="n">
+        <v>72321.75</v>
+      </c>
+      <c r="H66" t="s">
+        <v>211</v>
+      </c>
+      <c r="I66" t="s">
+        <v>212</v>
+      </c>
+      <c r="J66" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -11959,147 +11679,27 @@
         <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>280</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
         <v>279</v>
       </c>
-      <c r="E67"/>
+      <c r="E67" t="n">
+        <v>62710.22</v>
+      </c>
       <c r="F67" t="n">
-        <v>55763.13</v>
+        <v>65109.61</v>
       </c>
       <c r="G67" t="n">
-        <v>60544.14</v>
-      </c>
-      <c r="H67"/>
+        <v>63866.81</v>
+      </c>
+      <c r="H67" t="s">
+        <v>214</v>
+      </c>
       <c r="I67" t="s">
-        <v>207</v>
+        <v>63</v>
       </c>
       <c r="J67" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B68" t="s">
-        <v>181</v>
-      </c>
-      <c r="C68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D68" t="s">
-        <v>279</v>
-      </c>
-      <c r="E68"/>
-      <c r="F68" t="n">
-        <v>55763.13</v>
-      </c>
-      <c r="G68" t="n">
-        <v>60544.14</v>
-      </c>
-      <c r="H68"/>
-      <c r="I68" t="s">
-        <v>207</v>
-      </c>
-      <c r="J68" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B69" t="s">
-        <v>181</v>
-      </c>
-      <c r="C69" t="s">
-        <v>58</v>
-      </c>
-      <c r="D69" t="s">
-        <v>279</v>
-      </c>
-      <c r="E69" t="n">
-        <v>49059.12</v>
-      </c>
-      <c r="F69" t="n">
-        <v>56503.17</v>
-      </c>
-      <c r="G69" t="n">
-        <v>61600.76</v>
-      </c>
-      <c r="H69" t="s">
-        <v>195</v>
-      </c>
-      <c r="I69" t="s">
-        <v>209</v>
-      </c>
-      <c r="J69" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B70" t="s">
-        <v>181</v>
-      </c>
-      <c r="C70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D70" t="s">
-        <v>279</v>
-      </c>
-      <c r="E70" t="n">
-        <v>73009.11</v>
-      </c>
-      <c r="F70" t="n">
-        <v>70979.14</v>
-      </c>
-      <c r="G70" t="n">
-        <v>72321.75</v>
-      </c>
-      <c r="H70" t="s">
-        <v>211</v>
-      </c>
-      <c r="I70" t="s">
-        <v>212</v>
-      </c>
-      <c r="J70" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B71" t="s">
-        <v>181</v>
-      </c>
-      <c r="C71" t="s">
-        <v>65</v>
-      </c>
-      <c r="D71" t="s">
-        <v>279</v>
-      </c>
-      <c r="E71" t="n">
-        <v>62710.22</v>
-      </c>
-      <c r="F71" t="n">
-        <v>65109.61</v>
-      </c>
-      <c r="G71" t="n">
-        <v>63866.81</v>
-      </c>
-      <c r="H71" t="s">
-        <v>214</v>
-      </c>
-      <c r="I71" t="s">
-        <v>63</v>
-      </c>
-      <c r="J71" t="s">
         <v>215</v>
       </c>
     </row>
@@ -12797,17 +12397,29 @@
         <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
         <v>279</v>
       </c>
-      <c r="E22"/>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22"/>
+      <c r="E22" t="n">
+        <v>21151.61</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21151.61</v>
+      </c>
+      <c r="G22" t="n">
+        <v>21151.61</v>
+      </c>
+      <c r="H22" t="s">
+        <v>233</v>
+      </c>
+      <c r="I22" t="s">
+        <v>233</v>
+      </c>
+      <c r="J22" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -12817,28 +12429,28 @@
         <v>68</v>
       </c>
       <c r="C23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
         <v>279</v>
       </c>
       <c r="E23" t="n">
-        <v>21151.61</v>
+        <v>26896.11</v>
       </c>
       <c r="F23" t="n">
-        <v>21151.61</v>
+        <v>26896.11</v>
       </c>
       <c r="G23" t="n">
-        <v>21151.61</v>
+        <v>26896.11</v>
       </c>
       <c r="H23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="I23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="J23" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
@@ -12849,28 +12461,28 @@
         <v>68</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
         <v>279</v>
       </c>
       <c r="E24" t="n">
-        <v>26896.11</v>
+        <v>19135.04</v>
       </c>
       <c r="F24" t="n">
-        <v>26896.11</v>
+        <v>18917.41</v>
       </c>
       <c r="G24" t="n">
-        <v>26896.11</v>
+        <v>19135.04</v>
       </c>
       <c r="H24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I24" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="25">
@@ -12878,31 +12490,31 @@
         <v>2023</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="C25" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="D25" t="s">
         <v>279</v>
       </c>
       <c r="E25" t="n">
-        <v>19135.04</v>
+        <v>-19358.39</v>
       </c>
       <c r="F25" t="n">
-        <v>18917.41</v>
+        <v>-19358.39</v>
       </c>
       <c r="G25" t="n">
-        <v>19135.04</v>
+        <v>-19358.39</v>
       </c>
       <c r="H25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="I25" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J25" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26">
@@ -12913,28 +12525,28 @@
         <v>107</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
         <v>279</v>
       </c>
       <c r="E26" t="n">
-        <v>-19358.39</v>
+        <v>39144.4</v>
       </c>
       <c r="F26" t="n">
-        <v>-19358.39</v>
+        <v>39144.4</v>
       </c>
       <c r="G26" t="n">
-        <v>-19358.39</v>
+        <v>39144.4</v>
       </c>
       <c r="H26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="I26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="J26" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27">
@@ -12945,28 +12557,28 @@
         <v>107</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
         <v>279</v>
       </c>
       <c r="E27" t="n">
-        <v>39144.4</v>
+        <v>134162</v>
       </c>
       <c r="F27" t="n">
-        <v>39144.4</v>
+        <v>134162</v>
       </c>
       <c r="G27" t="n">
-        <v>39144.4</v>
+        <v>134162</v>
       </c>
       <c r="H27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="J27" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="28">
@@ -12977,28 +12589,28 @@
         <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>279</v>
       </c>
       <c r="E28" t="n">
-        <v>134162</v>
+        <v>11413.66</v>
       </c>
       <c r="F28" t="n">
-        <v>134162</v>
+        <v>11413.66</v>
       </c>
       <c r="G28" t="n">
-        <v>134162</v>
+        <v>11413.66</v>
       </c>
       <c r="H28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
@@ -13009,28 +12621,28 @@
         <v>107</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D29" t="s">
         <v>279</v>
       </c>
       <c r="E29" t="n">
-        <v>11413.66</v>
+        <v>-29954.4</v>
       </c>
       <c r="F29" t="n">
-        <v>11413.66</v>
+        <v>-29954.4</v>
       </c>
       <c r="G29" t="n">
-        <v>11413.66</v>
+        <v>-29954.4</v>
       </c>
       <c r="H29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J29" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="30">
@@ -13041,28 +12653,28 @@
         <v>107</v>
       </c>
       <c r="C30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
         <v>279</v>
       </c>
       <c r="E30" t="n">
-        <v>-29954.4</v>
+        <v>65257.09</v>
       </c>
       <c r="F30" t="n">
-        <v>-29954.4</v>
+        <v>65257.09</v>
       </c>
       <c r="G30" t="n">
-        <v>-29954.4</v>
+        <v>65257.09</v>
       </c>
       <c r="H30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="31">
@@ -13073,28 +12685,28 @@
         <v>107</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D31" t="s">
         <v>279</v>
       </c>
       <c r="E31" t="n">
-        <v>65257.09</v>
+        <v>44882.01</v>
       </c>
       <c r="F31" t="n">
-        <v>65257.09</v>
+        <v>44882.01</v>
       </c>
       <c r="G31" t="n">
-        <v>65257.09</v>
+        <v>44882.01</v>
       </c>
       <c r="H31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32">
@@ -13105,28 +12717,28 @@
         <v>107</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>279</v>
       </c>
       <c r="E32" t="n">
-        <v>44882.01</v>
+        <v>14495.7</v>
       </c>
       <c r="F32" t="n">
-        <v>44882.01</v>
+        <v>14274.39</v>
       </c>
       <c r="G32" t="n">
-        <v>44882.01</v>
+        <v>14495.7</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J32" t="s">
-        <v>244</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33">
@@ -13137,28 +12749,28 @@
         <v>107</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
         <v>279</v>
       </c>
       <c r="E33" t="n">
-        <v>14495.7</v>
+        <v>44882.01</v>
       </c>
       <c r="F33" t="n">
-        <v>14274.39</v>
+        <v>44882.01</v>
       </c>
       <c r="G33" t="n">
-        <v>14495.7</v>
+        <v>44882.01</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>244</v>
       </c>
       <c r="I33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="J33" t="s">
-        <v>48</v>
+        <v>244</v>
       </c>
     </row>
     <row r="34">
@@ -13169,17 +12781,29 @@
         <v>107</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="D34" t="s">
         <v>279</v>
       </c>
-      <c r="E34"/>
-      <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34"/>
-      <c r="I34"/>
-      <c r="J34"/>
+      <c r="E34" t="n">
+        <v>33150.23</v>
+      </c>
+      <c r="F34" t="n">
+        <v>33150.23</v>
+      </c>
+      <c r="G34" t="n">
+        <v>33150.23</v>
+      </c>
+      <c r="H34" t="s">
+        <v>246</v>
+      </c>
+      <c r="I34" t="s">
+        <v>246</v>
+      </c>
+      <c r="J34" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -13189,28 +12813,28 @@
         <v>107</v>
       </c>
       <c r="C35" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
         <v>279</v>
       </c>
       <c r="E35" t="n">
-        <v>44882.01</v>
+        <v>18234.69</v>
       </c>
       <c r="F35" t="n">
-        <v>44882.01</v>
+        <v>18234.69</v>
       </c>
       <c r="G35" t="n">
-        <v>44882.01</v>
+        <v>18234.69</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="I35" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
       <c r="J35" t="s">
-        <v>244</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -13218,31 +12842,31 @@
         <v>2023</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C36" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="D36" t="s">
         <v>279</v>
       </c>
       <c r="E36" t="n">
-        <v>33150.23</v>
+        <v>9174.22</v>
       </c>
       <c r="F36" t="n">
-        <v>33150.23</v>
+        <v>9174.22</v>
       </c>
       <c r="G36" t="n">
-        <v>33150.23</v>
+        <v>9174.22</v>
       </c>
       <c r="H36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="J36" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
@@ -13250,31 +12874,31 @@
         <v>2023</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>146</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>279</v>
       </c>
       <c r="E37" t="n">
-        <v>18234.69</v>
+        <v>22794.67</v>
       </c>
       <c r="F37" t="n">
-        <v>18234.69</v>
+        <v>22794.67</v>
       </c>
       <c r="G37" t="n">
-        <v>18234.69</v>
+        <v>22794.67</v>
       </c>
       <c r="H37" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="I37" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="J37" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
     </row>
     <row r="38">
@@ -13285,28 +12909,28 @@
         <v>146</v>
       </c>
       <c r="C38" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
         <v>279</v>
       </c>
       <c r="E38" t="n">
-        <v>9174.22</v>
+        <v>45972.28</v>
       </c>
       <c r="F38" t="n">
-        <v>9174.22</v>
+        <v>45972.28</v>
       </c>
       <c r="G38" t="n">
-        <v>9174.22</v>
+        <v>45972.28</v>
       </c>
       <c r="H38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="J38" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39">
@@ -13317,28 +12941,28 @@
         <v>146</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>279</v>
       </c>
       <c r="E39" t="n">
-        <v>22794.67</v>
+        <v>10671.23</v>
       </c>
       <c r="F39" t="n">
-        <v>22794.67</v>
+        <v>10671.23</v>
       </c>
       <c r="G39" t="n">
-        <v>22794.67</v>
+        <v>10671.23</v>
       </c>
       <c r="H39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="J39" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="40">
@@ -13349,28 +12973,28 @@
         <v>146</v>
       </c>
       <c r="C40" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
         <v>279</v>
       </c>
       <c r="E40" t="n">
-        <v>45972.28</v>
+        <v>-35202.76</v>
       </c>
       <c r="F40" t="n">
-        <v>45972.28</v>
+        <v>-35202.76</v>
       </c>
       <c r="G40" t="n">
-        <v>45972.28</v>
+        <v>-35202.76</v>
       </c>
       <c r="H40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="I40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="J40" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41">
@@ -13381,28 +13005,28 @@
         <v>146</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D41" t="s">
         <v>279</v>
       </c>
       <c r="E41" t="n">
-        <v>10671.23</v>
+        <v>25316.01</v>
       </c>
       <c r="F41" t="n">
-        <v>10671.23</v>
+        <v>25316.01</v>
       </c>
       <c r="G41" t="n">
-        <v>10671.23</v>
+        <v>25316.01</v>
       </c>
       <c r="H41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="J41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="42">
@@ -13413,28 +13037,28 @@
         <v>146</v>
       </c>
       <c r="C42" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
         <v>279</v>
       </c>
       <c r="E42" t="n">
-        <v>-35202.76</v>
+        <v>25487.95</v>
       </c>
       <c r="F42" t="n">
-        <v>-35202.76</v>
+        <v>25487.95</v>
       </c>
       <c r="G42" t="n">
-        <v>-35202.76</v>
+        <v>25487.95</v>
       </c>
       <c r="H42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="I42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J42" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="43">
@@ -13445,28 +13069,28 @@
         <v>146</v>
       </c>
       <c r="C43" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
         <v>279</v>
       </c>
       <c r="E43" t="n">
-        <v>25316.01</v>
+        <v>15037.54</v>
       </c>
       <c r="F43" t="n">
-        <v>25316.01</v>
+        <v>14655.46</v>
       </c>
       <c r="G43" t="n">
-        <v>25316.01</v>
+        <v>15037.54</v>
       </c>
       <c r="H43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="I43" t="s">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="J43" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44">
@@ -13477,7 +13101,7 @@
         <v>146</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D44" t="s">
         <v>279</v>
@@ -13509,28 +13133,28 @@
         <v>146</v>
       </c>
       <c r="C45" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D45" t="s">
         <v>279</v>
       </c>
       <c r="E45" t="n">
-        <v>15037.54</v>
+        <v>18023.33</v>
       </c>
       <c r="F45" t="n">
-        <v>14655.46</v>
+        <v>18023.33</v>
       </c>
       <c r="G45" t="n">
-        <v>15037.54</v>
+        <v>18023.33</v>
       </c>
       <c r="H45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I45" t="s">
-        <v>150</v>
+        <v>255</v>
       </c>
       <c r="J45" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46">
@@ -13541,48 +13165,60 @@
         <v>146</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="D46" t="s">
         <v>279</v>
       </c>
-      <c r="E46"/>
-      <c r="F46"/>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46"/>
+      <c r="E46" t="n">
+        <v>15168.86</v>
+      </c>
+      <c r="F46" t="n">
+        <v>15162.5</v>
+      </c>
+      <c r="G46" t="n">
+        <v>15168.86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>256</v>
+      </c>
+      <c r="I46" t="s">
+        <v>256</v>
+      </c>
+      <c r="J46" t="s">
+        <v>256</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>2023</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C47" t="s">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="D47" t="s">
         <v>279</v>
       </c>
       <c r="E47" t="n">
-        <v>25487.95</v>
+        <v>16196.82</v>
       </c>
       <c r="F47" t="n">
-        <v>25487.95</v>
+        <v>16196.82</v>
       </c>
       <c r="G47" t="n">
-        <v>25487.95</v>
+        <v>16196.82</v>
       </c>
       <c r="H47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="I47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="J47" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
@@ -13590,31 +13226,31 @@
         <v>2023</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D48" t="s">
         <v>279</v>
       </c>
       <c r="E48" t="n">
-        <v>18023.33</v>
+        <v>25539.83</v>
       </c>
       <c r="F48" t="n">
-        <v>18023.33</v>
+        <v>26519.01</v>
       </c>
       <c r="G48" t="n">
-        <v>18023.33</v>
+        <v>25539.83</v>
       </c>
       <c r="H48" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="I48" t="s">
-        <v>255</v>
+        <v>57</v>
       </c>
       <c r="J48" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49">
@@ -13622,31 +13258,31 @@
         <v>2023</v>
       </c>
       <c r="B49" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C49" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="D49" t="s">
         <v>279</v>
       </c>
       <c r="E49" t="n">
-        <v>15168.86</v>
+        <v>12103.9</v>
       </c>
       <c r="F49" t="n">
-        <v>15162.5</v>
+        <v>11052.17</v>
       </c>
       <c r="G49" t="n">
-        <v>15168.86</v>
+        <v>12103.9</v>
       </c>
       <c r="H49" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
       <c r="I49" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="J49" t="s">
-        <v>256</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50">
@@ -13657,28 +13293,28 @@
         <v>181</v>
       </c>
       <c r="C50" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D50" t="s">
         <v>279</v>
       </c>
       <c r="E50" t="n">
-        <v>16196.82</v>
+        <v>22555.66</v>
       </c>
       <c r="F50" t="n">
-        <v>16196.82</v>
+        <v>22555.66</v>
       </c>
       <c r="G50" t="n">
-        <v>16196.82</v>
+        <v>22555.66</v>
       </c>
       <c r="H50" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="I50" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="J50" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51">
@@ -13689,28 +13325,28 @@
         <v>181</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D51" t="s">
         <v>279</v>
       </c>
       <c r="E51" t="n">
-        <v>25539.83</v>
+        <v>14245.68</v>
       </c>
       <c r="F51" t="n">
-        <v>26519.01</v>
+        <v>14245.68</v>
       </c>
       <c r="G51" t="n">
-        <v>25539.83</v>
+        <v>14245.68</v>
       </c>
       <c r="H51" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="I51" t="s">
-        <v>57</v>
+        <v>259</v>
       </c>
       <c r="J51" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52">
@@ -13721,28 +13357,28 @@
         <v>181</v>
       </c>
       <c r="C52" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s">
         <v>279</v>
       </c>
       <c r="E52" t="n">
-        <v>12103.9</v>
+        <v>23828</v>
       </c>
       <c r="F52" t="n">
-        <v>11052.17</v>
+        <v>23828</v>
       </c>
       <c r="G52" t="n">
-        <v>12103.9</v>
+        <v>23828</v>
       </c>
       <c r="H52" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="I52" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J52" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
     </row>
     <row r="53">
@@ -13753,28 +13389,28 @@
         <v>181</v>
       </c>
       <c r="C53" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="D53" t="s">
         <v>279</v>
       </c>
       <c r="E53" t="n">
-        <v>22555.66</v>
+        <v>19837.44</v>
       </c>
       <c r="F53" t="n">
-        <v>22555.66</v>
+        <v>19752.61</v>
       </c>
       <c r="G53" t="n">
-        <v>22555.66</v>
+        <v>19837.44</v>
       </c>
       <c r="H53" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
       <c r="I53" t="s">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="J53" t="s">
-        <v>178</v>
+        <v>261</v>
       </c>
     </row>
     <row r="54">
@@ -13785,28 +13421,28 @@
         <v>181</v>
       </c>
       <c r="C54" t="s">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="D54" t="s">
         <v>279</v>
       </c>
       <c r="E54" t="n">
-        <v>14245.68</v>
+        <v>23828</v>
       </c>
       <c r="F54" t="n">
-        <v>14245.68</v>
+        <v>23828</v>
       </c>
       <c r="G54" t="n">
-        <v>14245.68</v>
+        <v>23828</v>
       </c>
       <c r="H54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="J54" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55">
@@ -13817,28 +13453,28 @@
         <v>181</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D55" t="s">
         <v>279</v>
       </c>
       <c r="E55" t="n">
-        <v>23828</v>
+        <v>25182.46</v>
       </c>
       <c r="F55" t="n">
-        <v>23828</v>
+        <v>25133.68</v>
       </c>
       <c r="G55" t="n">
-        <v>23828</v>
+        <v>25182.46</v>
       </c>
       <c r="H55" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="I55" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="J55" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56">
@@ -13849,143 +13485,27 @@
         <v>181</v>
       </c>
       <c r="C56" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>279</v>
       </c>
       <c r="E56" t="n">
-        <v>19837.44</v>
+        <v>20207.3</v>
       </c>
       <c r="F56" t="n">
-        <v>19752.61</v>
+        <v>20205.77</v>
       </c>
       <c r="G56" t="n">
-        <v>19837.44</v>
+        <v>20207.3</v>
       </c>
       <c r="H56" t="s">
+        <v>265</v>
+      </c>
+      <c r="I56" t="s">
         <v>261</v>
       </c>
-      <c r="I56" t="s">
-        <v>262</v>
-      </c>
       <c r="J56" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B57" t="s">
-        <v>181</v>
-      </c>
-      <c r="C57" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" t="s">
-        <v>279</v>
-      </c>
-      <c r="E57"/>
-      <c r="F57"/>
-      <c r="G57"/>
-      <c r="H57"/>
-      <c r="I57"/>
-      <c r="J57"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B58" t="s">
-        <v>181</v>
-      </c>
-      <c r="C58" t="s">
-        <v>58</v>
-      </c>
-      <c r="D58" t="s">
-        <v>279</v>
-      </c>
-      <c r="E58" t="n">
-        <v>23828</v>
-      </c>
-      <c r="F58" t="n">
-        <v>23828</v>
-      </c>
-      <c r="G58" t="n">
-        <v>23828</v>
-      </c>
-      <c r="H58" t="s">
-        <v>260</v>
-      </c>
-      <c r="I58" t="s">
-        <v>260</v>
-      </c>
-      <c r="J58" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B59" t="s">
-        <v>181</v>
-      </c>
-      <c r="C59" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" t="s">
-        <v>279</v>
-      </c>
-      <c r="E59" t="n">
-        <v>25182.46</v>
-      </c>
-      <c r="F59" t="n">
-        <v>25133.68</v>
-      </c>
-      <c r="G59" t="n">
-        <v>25182.46</v>
-      </c>
-      <c r="H59" t="s">
-        <v>263</v>
-      </c>
-      <c r="I59" t="s">
-        <v>264</v>
-      </c>
-      <c r="J59" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="n">
-        <v>2023</v>
-      </c>
-      <c r="B60" t="s">
-        <v>181</v>
-      </c>
-      <c r="C60" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60" t="s">
-        <v>279</v>
-      </c>
-      <c r="E60" t="n">
-        <v>20207.3</v>
-      </c>
-      <c r="F60" t="n">
-        <v>20205.77</v>
-      </c>
-      <c r="G60" t="n">
-        <v>20207.3</v>
-      </c>
-      <c r="H60" t="s">
-        <v>265</v>
-      </c>
-      <c r="I60" t="s">
-        <v>261</v>
-      </c>
-      <c r="J60" t="s">
         <v>265</v>
       </c>
     </row>
